--- a/data/02_intermediate/cleaned_Alpha_Wann_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alpha_Wann_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Portez-moi du rêve... Marchand d'sable... Balance un autre joint, balance une autre putain d'pépite Les keufs aiment matraquer les prolos, ressentent l'invincibilité C'est pas attaquer les homos qui t'rendra ta virilité Ho non, poto va tâter des lolos, molo T'amasses des vrais bobos sous projo J'suis ni robot ni hologramme, arrête tes photos On connaît la chienneté, allez, viendez dans ma bande L'étendard flambe, on a des temps d'avance Même indépendamment Importez-moi c'rêve magique, est-ce la zik qui me berce ? Reste addict s'il te plaît, j'déteste les statistiques de merde Hé, statique si je crée des verses Magiques qui te prennent de court Jamais pris de C, j'reste à l'abri des problèmes de bourges Oublie ta peine, l'odeur de crack sur la gazinière J'bousille le game avec le Phaal, on est quasi frères J'compte pas céder à leur chantage odieux On croit aux vux, j'maudis le temps qui file Qui rend si triste quand on embrasse nos vieux Hé, Nekfeu, on compte sur toi, fais ça bien ! , honte sur toi Tu parles mal sur moi mais après ça nie, hein Mais y'a rien, j'suis debout, j'fais mon petit bonhomme de chemin Des kilos d'or je tiens mais j'serai pas le chien du crew, nope ! J'balance le pull-up quand j'me trompe de couplet Et ça part en impro en s'foutant des tronches de poulet Houp houp nique la lice-po, jolie fille Saute sur mes sous comme sur la bite à Guizmo J'en place une aux vrais, ceux qui n'ont pas eu le rêve Comme Mouss au hebs, le truc m'oppresse J'entends pas chuchoter Ici, la vie c'est comme un cours d'anglais, y'a trop d'faux amis Et c'est irrégulier, trop d'choses irréfutées Faut être sage pour rentrer Vivre ici c'est comme lécole, j'suis pas fait pour la vie Illicite et grosse déconne, prêt à t'baffer pour l'artiste Genre, passe les dollars vite mode, capitaliste extrême Trafic a l'ISF, bref, des connards finis C'est pour tout mes zonards timides, faut obtenir le dream J'écris l'histoire mais après faut tenir le titre, tu piges Envole-toi dans les nuages MC grasse mat', rendors-toi dans le plumard You might also like Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, négro Tchiguidi-tcheck yo , Alpha Wayne, yo ! Malgré les gauches-droites, les folles lois des Gaulois Contre les peaux noires, Alph O Wann soctroie l'droit D'déployer le troisième doigt dans c'cauchemar J'hoche le tête, j'taffe la rime tard la nuit avec mon walkman Mister Sandman, vise-moi et file-moi un rêve C'est quoi cette histoire, rime dit écris moi un 16 Donc chaque nuit j'morfle pour capter Morphée J'taffe Hip-Hop et lâche des flows frais Mais j'aime les 16, t'as compris, j'reste à condition Qu'elle soit fraîche ta cons', amène ta bestah Qu'elle me lèche la trompe, baise la concurrence C'est Nek et Alphonse, fume la zeb' la skonk Le temps c'est de l'argent donc j'guette ma montre Elle peine à compter puis laisse-moi pioncer Les vers menivrent, mes textes s'empilent Je n'ai que l'envie de vivre mes rêves en ville Excentrique et presque sans bitch, j'peux finir dans l'basement Ici, c'est stressant et étrange mais j'reste tranquille Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, babtou Prend tes rêves au vol comme un gamin des rues Défaite trop folle sur des fonds pas bien durs Mais c'est notre quotidien, il est instable et merveilleux Il attend pas les chèques des vieux C'est une galaxie qui s'réctracte, mec S-Crew, L'Entourage, Alpha Wann, Abou, on dit quoi ? C'est comme ça, mec, attrape tes rêves Basement Beatzz20</t>
+          <t>Portez-moi du rêve... Marchand d'sable... Balance un autre joint, balance une autre putain d'pépite Les keufs aiment matraquer les prolos, ressentent l'invincibilité C'est pas attaquer les homos qui t'rendra ta virilité Ho non, poto va tâter des lolos, molo T'amasses des vrais bobos sous projo J'suis ni robot ni hologramme, arrête tes photos On connaît la chienneté, allez, viendez dans ma bande L'étendard flambe, on a des temps d'avance Même indépendamment Importez-moi c'rêve magique, est-ce la zik qui me berce ? Reste addict s'il te plaît, j'déteste les statistiques de merde Hé, statique si je crée des verses Magiques qui te prennent de court Jamais pris de C, j'reste à l'abri des problèmes de bourges Oublie ta peine, l'odeur de crack sur la gazinière J'bousille le game avec le Phaal, on est quasi frères J'compte pas céder à leur chantage odieux On croit aux vux, j'maudis le temps qui file Qui rend si triste quand on embrasse nos vieux Hé, Nekfeu, on compte sur toi, fais ça bien ! , honte sur toi Tu parles mal sur moi mais après ça nie, hein Mais y'a rien, j'suis debout, j'fais mon petit bonhomme de chemin Des kilos d'or je tiens mais j'serai pas le chien du crew, nope ! J'balance le pull-up quand j'me trompe de couplet Et ça part en impro en s'foutant des tronches de poulet Houp houp nique la lice-po, jolie fille Saute sur mes sous comme sur la bite à Guizmo J'en place une aux vrais, ceux qui n'ont pas eu le rêve Comme Mouss au hebs, le truc m'oppresse J'entends pas chuchoter Ici, la vie c'est comme un cours d'anglais, y'a trop d'faux amis Et c'est irrégulier, trop d'choses irréfutées Faut être sage pour rentrer Vivre ici c'est comme lécole, j'suis pas fait pour la vie Illicite et grosse déconne, prêt à t'baffer pour l'artiste Genre, passe les dollars vite mode, capitaliste extrême Trafic a l'ISF, bref, des connards finis C'est pour tout mes zonards timides, faut obtenir le dream J'écris l'histoire mais après faut tenir le titre, tu piges Envole-toi dans les nuages MC grasse mat', rendors-toi dans le plumard Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, négro Tchiguidi-tcheck yo , Alpha Wayne, yo ! Malgré les gauches-droites, les folles lois des Gaulois Contre les peaux noires, Alph O Wann soctroie l'droit D'déployer le troisième doigt dans c'cauchemar J'hoche le tête, j'taffe la rime tard la nuit avec mon walkman Mister Sandman, vise-moi et file-moi un rêve C'est quoi cette histoire, rime dit écris moi un 16 Donc chaque nuit j'morfle pour capter Morphée J'taffe Hip-Hop et lâche des flows frais Mais j'aime les 16, t'as compris, j'reste à condition Qu'elle soit fraîche ta cons', amène ta bestah Qu'elle me lèche la trompe, baise la concurrence C'est Nek et Alphonse, fume la zeb' la skonk Le temps c'est de l'argent donc j'guette ma montre Elle peine à compter puis laisse-moi pioncer Les vers menivrent, mes textes s'empilent Je n'ai que l'envie de vivre mes rêves en ville Excentrique et presque sans bitch, j'peux finir dans l'basement Ici, c'est stressant et étrange mais j'reste tranquille Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, babtou Prend tes rêves au vol comme un gamin des rues Défaite trop folle sur des fonds pas bien durs Mais c'est notre quotidien, il est instable et merveilleux Il attend pas les chèques des vieux C'est une galaxie qui s'réctracte, mec S-Crew, L'Entourage, Alpha Wann, Abou, on dit quoi ? C'est comme ça, mec, attrape tes rêves Basement Beatzz20</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jsuis défoncé, parlons du sexe opposé Alph' Wayne, Nekfeu, ça dit quoi ? 1.9.9.5, LEntourage, yo Du sexe opposé, roule un cke-tsi Tchiguidi check, yo Basement Beatzz, motherfucker Jsuis le négro qui aime lcke-tsi le et lcro-mi Pour un petit 06 jfinis a Fleury-Mérogis Obliger dplaire aux biches car même les blaireaux kiffent Mes hiéroglyphes, ouais, jrappe darement, jsuis le néo-Big L Niveau drague javais des petites lacunes mais jai la cote Dans lHop-Hip donc jai le code pin ma puce Et ta coquine, la cradosse fine, tsais la grosse bitch Elle a checke ma bobine puis jai doggin' la pute Jme rappelle de Charlotte, une noiche moche et grave bonne Avec un tas de gloss, elle habitait vers le Val-Maubué Et dans mes rêves, jlui cravachais ses fesses mais, en vrai Elle m'recalait, disait que jétais pas assez gangsta Maintenant la tass' voit mes clips passer Lassée, elle kifferait avoir dans sa trachée ma verge Oh ! Jai un peu d'talent, le flow, petit, j'maîtrise Mais jme dis que le buzz ca rend beau, oh ! Il mfaut la Benz, jsuis un cro-ma mais je Nai pas de gros label, suce-moi, ouais, jsuis un pote à Nekfeu Jaime les uc's, le sexe, les putes de lEst Mais flûte, tu peux le dire à la une, yen a quune que jaime Plein de petits textes sismiques, jrêve de belle miss fines Pour faire des petits films dignes d' XNXX Seuf, seuf, seuf, seuf... Cest pas c'que jélabore... Big up à ceux qui niquent la même fille vivent la belle vie Moi, jcherche à gner-si un deal à 16 chiffres Seuf, seuf, seuf, seuf... En vrai, je les adore... You might also like J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Même si cest rare, jaime les femmes hyper sceptiques animales Et pleines déthique, blindées d'tics, celles qui fixent à limage Les filles des astres aux regards tristes réceptives à ce qui spasse Les fines, les grasses, au rôle dartiste et les divas qui gardent De lesthétique avec lhabillage sélectif, amicales Et gêner dvivre frénétiques quand cest la flicaille qui passe Celles qui kiffent les Hip-Hop secrets et maîtrisent la guitare Mais y'a qule fric qui toffre de belles perspectives maritales Certaines le savent et manient des charmes mystiques Et pleines de hargne, condamnent ton âme à plusieurs décharges sismiques Si cest ça l'coup d'foudre, autant crever maintenant Nan, jai pleuré un temps, maintenant, jsuis grand, j'fuis les amours troubles Autant se pendre à une bretelle de soutien gorge Même les gros bonnets en ont dans le ventre pour assouvir un corps Ta première déception, tu ten souviens, nan ? Mais quest-ce quon était cons à être honnêtes et bons Mais jai frotté léponge, cest bon, faut qutu moublies maintenant Cupidon, stupide con, t'as fait sauter mes plombs Si cest ça l'coup d'foudre, femmes, restez loin de moi Je vous prie, mon cur en a bien marre des loopings Jpeux faire mouiller les midinettes en talons Jpréfères touiller dans les dinettes sauce épicée dans l'caleçon Et ouais on est peut-être tous semblables On écoute notre cur et nos couilles quand, toi, técoutes ton crâne Cest le désastre, je taime car tu mépargnes pas Bourré de charme, en rée-soi tu téclates parfois Mais cest rare car, toi, tu es blasée Cest souvent grâce à toi que juse mon phrasé J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Balance un autre joint, balance une autre flamme Alpha Wann, Nekflamme, pour toutes les femmes, frérot Basement Beatzz, encore une fois bande d'enfoirés L'Entourage, 1995, on dit ce qu'on pense sans se foirer Pas de récompense, yeah yeah, c'est comme ça, frérot Astronomical Kid, j'suis plus fort que toi, petit bâtard Pour toutes les meufs, L'Entourage, les vraies et les tasses-pé S-Crew Pour ce jeu dévorant qu'est l'amour, brah brah ! On est bons...8</t>
+          <t>Jsuis défoncé, parlons du sexe opposé Alph' Wayne, Nekfeu, ça dit quoi ? 1.9.9.5, LEntourage, yo Du sexe opposé, roule un cke-tsi Tchiguidi check, yo Basement Beatzz, motherfucker Jsuis le négro qui aime lcke-tsi le et lcro-mi Pour un petit 06 jfinis a Fleury-Mérogis Obliger dplaire aux biches car même les blaireaux kiffent Mes hiéroglyphes, ouais, jrappe darement, jsuis le néo-Big L Niveau drague javais des petites lacunes mais jai la cote Dans lHop-Hip donc jai le code pin ma puce Et ta coquine, la cradosse fine, tsais la grosse bitch Elle a checke ma bobine puis jai doggin' la pute Jme rappelle de Charlotte, une noiche moche et grave bonne Avec un tas de gloss, elle habitait vers le Val-Maubué Et dans mes rêves, jlui cravachais ses fesses mais, en vrai Elle m'recalait, disait que jétais pas assez gangsta Maintenant la tass' voit mes clips passer Lassée, elle kifferait avoir dans sa trachée ma verge Oh ! Jai un peu d'talent, le flow, petit, j'maîtrise Mais jme dis que le buzz ca rend beau, oh ! Il mfaut la Benz, jsuis un cro-ma mais je Nai pas de gros label, suce-moi, ouais, jsuis un pote à Nekfeu Jaime les uc's, le sexe, les putes de lEst Mais flûte, tu peux le dire à la une, yen a quune que jaime Plein de petits textes sismiques, jrêve de belle miss fines Pour faire des petits films dignes d' XNXX Seuf, seuf, seuf, seuf... Cest pas c'que jélabore... Big up à ceux qui niquent la même fille vivent la belle vie Moi, jcherche à gner-si un deal à 16 chiffres Seuf, seuf, seuf, seuf... En vrai, je les adore... J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Même si cest rare, jaime les femmes hyper sceptiques animales Et pleines déthique, blindées d'tics, celles qui fixent à limage Les filles des astres aux regards tristes réceptives à ce qui spasse Les fines, les grasses, au rôle dartiste et les divas qui gardent De lesthétique avec lhabillage sélectif, amicales Et gêner dvivre frénétiques quand cest la flicaille qui passe Celles qui kiffent les Hip-Hop secrets et maîtrisent la guitare Mais y'a qule fric qui toffre de belles perspectives maritales Certaines le savent et manient des charmes mystiques Et pleines de hargne, condamnent ton âme à plusieurs décharges sismiques Si cest ça l'coup d'foudre, autant crever maintenant Nan, jai pleuré un temps, maintenant, jsuis grand, j'fuis les amours troubles Autant se pendre à une bretelle de soutien gorge Même les gros bonnets en ont dans le ventre pour assouvir un corps Ta première déception, tu ten souviens, nan ? Mais quest-ce quon était cons à être honnêtes et bons Mais jai frotté léponge, cest bon, faut qutu moublies maintenant Cupidon, stupide con, t'as fait sauter mes plombs Si cest ça l'coup d'foudre, femmes, restez loin de moi Je vous prie, mon cur en a bien marre des loopings Jpeux faire mouiller les midinettes en talons Jpréfères touiller dans les dinettes sauce épicée dans l'caleçon Et ouais on est peut-être tous semblables On écoute notre cur et nos couilles quand, toi, técoutes ton crâne Cest le désastre, je taime car tu mépargnes pas Bourré de charme, en rée-soi tu téclates parfois Mais cest rare car, toi, tu es blasée Cest souvent grâce à toi que juse mon phrasé J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Balance un autre joint, balance une autre flamme Alpha Wann, Nekflamme, pour toutes les femmes, frérot Basement Beatzz, encore une fois bande d'enfoirés L'Entourage, 1995, on dit ce qu'on pense sans se foirer Pas de récompense, yeah yeah, c'est comme ça, frérot Astronomical Kid, j'suis plus fort que toi, petit bâtard Pour toutes les meufs, L'Entourage, les vraies et les tasses-pé S-Crew Pour ce jeu dévorant qu'est l'amour, brah brah ! On est bons...8</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alpha Wann, Nekfeu, Basement Beatzz Quand on débarque dans tes reilles-o ! Le dis pas à ma mère si tu me croises avec un pochon de gui Ou une potion, elle aime pas trop ces cochonneries Fais attention, c'est Alph et Nek, ça s'passe à Paris Ça s'passe pareil pour chaque gars de Paris Moi, chaque matin je bannis les sales tasses de la veille Et là, j'pars me laver, mon gars H m'as ramené Un tas de salsepareille passe, passe la zeb ! Et ça secoue le grinder en parlant plan cul et philo Faut que j'retrouve le lighter, mon clan tue les micros Je t'explique rien de bien compliqué, on vient à plein pour kicker Si c'est Nekfeu dans ta ressoi, tiens bien ton briquet Les merdes viennent s'imbriquer Mais les miens restent impliqués dans l'bien Et c'est rien d'vendre des joints à un criquet dans lcoin On n'est pas libres donc je fraude tant qu'je peux Dans le trom, ya les cops et jai mon pochon de beuh Jessaie dêtre cool, jai planqué sous mes couilles mon amnésia Le chemin d'cent plombes de Simplon jusquà Alésia Retard sur la ligne, une connasse fait un malaise Ya des gueta de ma team sur les rails donc jsuis à laise Yo, it's a shame You might also like ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta ress, on vient pour mettre le faya Le dis pas à ma mère ! Jsuis le best, jaime me vanter ainsi, les français insistent Pour big up leur ville, jme lève sur un banc vers Saint-Mich' Ouais, cet été cest comme les RTT, merde A cause de lherbe, jai merdé, jai RDV Vers les quais pour un dièse CD Besoin despèces, fini d'jouer, je tèj les dès Elles aiment pas comme on évolue, nos mères Sont sceptiques malgré nos techniques révolutionnaires On sprépare vite avec les keufs, cops ! Metal Gear avec les leurres, fuck ! Et dans ltrom, on gratte nos couplets en fait Bourrés en tech, dans cinq piges on va cruiser en Benz Mais pas de vie de star, Phaal fait tellement l'maquereau Quil marqua des poissonniers comme sur la Ligne 4 On peut dépenser une paye en une night Nique les boîtes cest walou besoin dun banc et dune teille ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère ! On veut faire taire les petits cons, une balle dans le derrière Les dead dans une clairière à Verrières-le-Buisson Paris ! Ville des haineux, types dédaigneux Fais fumer ! Relax sur le spliff, tes P2 Cest le Phaal Ils rêvent de mavoir mais, moi, en fait Jsuis en quête de ta maille et donc ? Je men pète de ta face, représente l'Entourage Jai vu des tentatives de meurtres de Commerce à Rambuteau Donc embrasse ta mère, petit con Quand elle te dit Tu rentres plus tôt Moi, jsuis parti à 17 balais, javais quune envie, cest caner Vanné par le lycée, fallait que j'accède à mon idéal Et ça fait cette merde perdurera Jétais connu dans Paris avant de faire du peu-Ra Mon reufré jespère que tu me crois Jétais connu dans Paris avant de faire du pe-ra Et ça fait... ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère !3</t>
+          <t>Alpha Wann, Nekfeu, Basement Beatzz Quand on débarque dans tes reilles-o ! Le dis pas à ma mère si tu me croises avec un pochon de gui Ou une potion, elle aime pas trop ces cochonneries Fais attention, c'est Alph et Nek, ça s'passe à Paris Ça s'passe pareil pour chaque gars de Paris Moi, chaque matin je bannis les sales tasses de la veille Et là, j'pars me laver, mon gars H m'as ramené Un tas de salsepareille passe, passe la zeb ! Et ça secoue le grinder en parlant plan cul et philo Faut que j'retrouve le lighter, mon clan tue les micros Je t'explique rien de bien compliqué, on vient à plein pour kicker Si c'est Nekfeu dans ta ressoi, tiens bien ton briquet Les merdes viennent s'imbriquer Mais les miens restent impliqués dans l'bien Et c'est rien d'vendre des joints à un criquet dans lcoin On n'est pas libres donc je fraude tant qu'je peux Dans le trom, ya les cops et jai mon pochon de beuh Jessaie dêtre cool, jai planqué sous mes couilles mon amnésia Le chemin d'cent plombes de Simplon jusquà Alésia Retard sur la ligne, une connasse fait un malaise Ya des gueta de ma team sur les rails donc jsuis à laise Yo, it's a shame ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta ress, on vient pour mettre le faya Le dis pas à ma mère ! Jsuis le best, jaime me vanter ainsi, les français insistent Pour big up leur ville, jme lève sur un banc vers Saint-Mich' Ouais, cet été cest comme les RTT, merde A cause de lherbe, jai merdé, jai RDV Vers les quais pour un dièse CD Besoin despèces, fini d'jouer, je tèj les dès Elles aiment pas comme on évolue, nos mères Sont sceptiques malgré nos techniques révolutionnaires On sprépare vite avec les keufs, cops ! Metal Gear avec les leurres, fuck ! Et dans ltrom, on gratte nos couplets en fait Bourrés en tech, dans cinq piges on va cruiser en Benz Mais pas de vie de star, Phaal fait tellement l'maquereau Quil marqua des poissonniers comme sur la Ligne 4 On peut dépenser une paye en une night Nique les boîtes cest walou besoin dun banc et dune teille ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère ! On veut faire taire les petits cons, une balle dans le derrière Les dead dans une clairière à Verrières-le-Buisson Paris ! Ville des haineux, types dédaigneux Fais fumer ! Relax sur le spliff, tes P2 Cest le Phaal Ils rêvent de mavoir mais, moi, en fait Jsuis en quête de ta maille et donc ? Je men pète de ta face, représente l'Entourage Jai vu des tentatives de meurtres de Commerce à Rambuteau Donc embrasse ta mère, petit con Quand elle te dit Tu rentres plus tôt Moi, jsuis parti à 17 balais, javais quune envie, cest caner Vanné par le lycée, fallait que j'accède à mon idéal Et ça fait cette merde perdurera Jétais connu dans Paris avant de faire du peu-Ra Mon reufré jespère que tu me crois Jétais connu dans Paris avant de faire du pe-ra Et ça fait... ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère !3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, hey C'est flingue et feu feu et flingue ! Han, han Hé Lo', ferme la f'nêtre, Paname crame Vas-y, monte ton truc enfoiré Yeah, faut qu'on entende J'traite mon argent comme s'il m'devait de l'argent J'le claque ou j'le jette par les fenêtres et j'oublie tout à part les dettes J'traite mon argent comme le siège de la Golf, quand on est plein je l'avance Quand on est peu je l'allonge, on rêve du ciel de la Corse Pas d'Ferrari, j'ride jusquà Saint-Jean-Cap-Ferrat Dans mes poches un tas d'ferraille et on verra Fuck la Jet set, j'écoute Jet Life sous Get 27 Et si un jour j'me jette dans l'vide, ce sera d'un jet Jet ! Jette ça ! J'dois bien ter-chan, faut qu'ça flingue les jambes Fuck, j'suis plus légendaire que plein d'légendes Va dire aux putes qu'on connait nos mémos Quand le skin a les genoux au sol Enchainer les pénos comme aux tirs au but J'suis dans Bérize, y'a des intempéries Des renois qui s'croient dans Belly You might also like Yeah Y'a plus qu'des faux gangsters sans intérêt, ils disent plus rien dans leurs textes Respect à ceux qui soignent la plume dans un terrain de leurs tess' Moi, y'a que sur scène que j'me donne en spectacle Mets-toi sur l'tec', j'débarque avec la tech d'Inspectah Deck Respecte-moi, j'suis comme toi, j'aime pas les decks Entre jeunes on s'guette mal, à croire qu'on s'aime pas Futur médecin et frère en SEGPA s'lèvent avec un Smecta Parce que chez nous s'mettre bien, c'est s'mettre mal Mec, c'est déplorable, plus j'cogite plus j'aime le rap Mais j'veux plus perdre la mémoire Y'a tellement d'moments mémorables Et j'ai toujours la même morale De nos jours c'est tellement rare, kho 1.9.9 Wesh, Flingue, tu dis quoi ? J'entends, j'analyse, j'suis un mentaliste yeah J'suis là pour au moins cent ans, il est grand temps d'balise Comme Denis j'ai la malice, j'veux les merveilles comme Alice J'allume de l'encens, j'bois ton sang dans un calice Comme les sociétés secrètes, ouais, au fait, j'déteste Quoi ? L'alcool à l'anis, quoi d'autre ? Prendre le Thalys Et puis ? Quand mes gars n'sont pas sur la liste Pourquoi ils haïssent et salissent ? C'est drôle Ils sont moelleux comme le pain d'mie Harrys J'suis celui qu'ton équipe redoute, que des triple-doubles On les dribble tous, motherfucker J'ai consommé plus de substance que la famille Osborn J'ai trop déconné 'vec ma santé, j'me suis remis au sport Comme aç, faut stop le kamas, un jour on s'soudera C'qui compte en vrai, c'est ni le kama-sutra, ni avoir la meilleure caisse On vit à l'heure new-yorkaise, ça fait un gros décalage Les haineux veulent tacler, ouais, à la William Gallas Ou m'trouer l'corps comme Tupac à Las Vegas ou Kennedy à Dallas Wouh ! C'est chaud, continue ! Des princesses m'envoient des photos, elles sont dans leur palace C'est la rançon d'la gloire, moi, j'veux la rançon tout court Ouais, ouais, faut qu'ils khalass, j'suis pas là pour être dans l'décor On envoie les amateurs à l'école, Don Dada Records On a les prix sur les tissus, on s'triture Pour esquiver la patate, quand ça sent déjà la friture Pour ça jprie dur, faut séloigner du F Frrrrrémont ! Aucun Frémont, mon truc est très G, arrêtez d'lécher cest péché Sils font des sons chauds, dès qu'je rappe il smet à neiger Ste plait, laisse les vrais MC niax, passez-moi les petites masses Vous êtes comme le Pepsi Max, en gros, vous êtes légers Sen sortir, pour mes camarades ce nest quune idée Trop dcamés, jobserve la rue comme une caméra dsécurité Le racisme éparpillé de partout On ma djà dit Jmen fou dtes plans Mais jpourrais te ter-plan parce que tes blanc Et tu fais rien à part de plaindre Pendant quon pète les portes dées-blin Le futur est à portée de main Des nouveaux flows, jen ai apporté plein Tant mieux si les petits aussi msuivent, deviens pas tout rouge Jécoutais Lunatic à 12 ans, et jécoute toujours Les mecs à lancienne, à leur époque, ils étaient modernes ouais ! Donc jessaye dinnover avec mes potes en restant modestes Han, Don Dada, Seine Zoo Jihelcee, Supersound, L'Entourage, yeah Paris Sud, va falloir rembourser l'tos-ma, hey18</t>
+          <t>Hey, hey, hey, hey C'est flingue et feu feu et flingue ! Han, han Hé Lo', ferme la f'nêtre, Paname crame Vas-y, monte ton truc enfoiré Yeah, faut qu'on entende J'traite mon argent comme s'il m'devait de l'argent J'le claque ou j'le jette par les fenêtres et j'oublie tout à part les dettes J'traite mon argent comme le siège de la Golf, quand on est plein je l'avance Quand on est peu je l'allonge, on rêve du ciel de la Corse Pas d'Ferrari, j'ride jusquà Saint-Jean-Cap-Ferrat Dans mes poches un tas d'ferraille et on verra Fuck la Jet set, j'écoute Jet Life sous Get 27 Et si un jour j'me jette dans l'vide, ce sera d'un jet Jet ! Jette ça ! J'dois bien ter-chan, faut qu'ça flingue les jambes Fuck, j'suis plus légendaire que plein d'légendes Va dire aux putes qu'on connait nos mémos Quand le skin a les genoux au sol Enchainer les pénos comme aux tirs au but J'suis dans Bérize, y'a des intempéries Des renois qui s'croient dans Belly Yeah Y'a plus qu'des faux gangsters sans intérêt, ils disent plus rien dans leurs textes Respect à ceux qui soignent la plume dans un terrain de leurs tess' Moi, y'a que sur scène que j'me donne en spectacle Mets-toi sur l'tec', j'débarque avec la tech d'Inspectah Deck Respecte-moi, j'suis comme toi, j'aime pas les decks Entre jeunes on s'guette mal, à croire qu'on s'aime pas Futur médecin et frère en SEGPA s'lèvent avec un Smecta Parce que chez nous s'mettre bien, c'est s'mettre mal Mec, c'est déplorable, plus j'cogite plus j'aime le rap Mais j'veux plus perdre la mémoire Y'a tellement d'moments mémorables Et j'ai toujours la même morale De nos jours c'est tellement rare, kho 1.9.9 Wesh, Flingue, tu dis quoi ? J'entends, j'analyse, j'suis un mentaliste yeah J'suis là pour au moins cent ans, il est grand temps d'balise Comme Denis j'ai la malice, j'veux les merveilles comme Alice J'allume de l'encens, j'bois ton sang dans un calice Comme les sociétés secrètes, ouais, au fait, j'déteste Quoi ? L'alcool à l'anis, quoi d'autre ? Prendre le Thalys Et puis ? Quand mes gars n'sont pas sur la liste Pourquoi ils haïssent et salissent ? C'est drôle Ils sont moelleux comme le pain d'mie Harrys J'suis celui qu'ton équipe redoute, que des triple-doubles On les dribble tous, motherfucker J'ai consommé plus de substance que la famille Osborn J'ai trop déconné 'vec ma santé, j'me suis remis au sport Comme aç, faut stop le kamas, un jour on s'soudera C'qui compte en vrai, c'est ni le kama-sutra, ni avoir la meilleure caisse On vit à l'heure new-yorkaise, ça fait un gros décalage Les haineux veulent tacler, ouais, à la William Gallas Ou m'trouer l'corps comme Tupac à Las Vegas ou Kennedy à Dallas Wouh ! C'est chaud, continue ! Des princesses m'envoient des photos, elles sont dans leur palace C'est la rançon d'la gloire, moi, j'veux la rançon tout court Ouais, ouais, faut qu'ils khalass, j'suis pas là pour être dans l'décor On envoie les amateurs à l'école, Don Dada Records On a les prix sur les tissus, on s'triture Pour esquiver la patate, quand ça sent déjà la friture Pour ça jprie dur, faut séloigner du F Frrrrrémont ! Aucun Frémont, mon truc est très G, arrêtez d'lécher cest péché Sils font des sons chauds, dès qu'je rappe il smet à neiger Ste plait, laisse les vrais MC niax, passez-moi les petites masses Vous êtes comme le Pepsi Max, en gros, vous êtes légers Sen sortir, pour mes camarades ce nest quune idée Trop dcamés, jobserve la rue comme une caméra dsécurité Le racisme éparpillé de partout On ma djà dit Jmen fou dtes plans Mais jpourrais te ter-plan parce que tes blanc Et tu fais rien à part de plaindre Pendant quon pète les portes dées-blin Le futur est à portée de main Des nouveaux flows, jen ai apporté plein Tant mieux si les petits aussi msuivent, deviens pas tout rouge Jécoutais Lunatic à 12 ans, et jécoute toujours Les mecs à lancienne, à leur époque, ils étaient modernes ouais ! Donc jessaye dinnover avec mes potes en restant modestes Han, Don Dada, Seine Zoo Jihelcee, Supersound, L'Entourage, yeah Paris Sud, va falloir rembourser l'tos-ma, hey18</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen Let me please introduce you to two of the most amazing MC's of all time. Even if they opened the doors of succes, they are still chilling... Tu sais mes forces me téléportent Et m'épaulent aux portes du succès Mais lorsque j'ai des potes au dehors, je dors plus, tu l'sais J'ai beau me mêler aux médias, pour les porcs j'suis suspect Marre de tous ces corps subjugués J'pars me promener vers d'autres états Ici, c'est moche, ils vident tes poches, ils rient d'tes proches Si l'illicite visite les halls c'est qu'ils imitent les vidéos sisi Qui milite comme Eazy E sur vinyle ? Oui oui, c'est bibi Pas d'timinik sur BBC, lélixir fixe cent milles visites En moyenne sur mon Facebook donc j'ai pas besoin de télé Et tu m'croyais sûrement casse-cou mais moi j'crois que j'suis fêlé Peiné de croire que le biz de musique ne soit que vice de rue Les pires ceurs-su aux tristes ruses De fils de pute pensent qu'ils te grugent Mais j'ai tous mes plans en place Le gent-gent se fait sans entrave Tes gens vendent des textes d'enfants J'rentre en guerre, à l'indépendance place Tes projets minables, j'vais les bousculer, t'façon On s'est mis à tous fumer à fond Couz', j'veux ma dolce vita C'est pour mes barjos de Paname, mes gadjos de l'asphalte Qui manient l'argot de la DASS et arrivent à tordre la basse Que je n'fléchirai pas, que je déciderai chaque fois De vendre mes idées barges, j'rappe en dépit des lois You might also like On arrive aux portes du succès avec nos ganaches de gamins Mais tu m'as peut-être vu sur scène ou avec Alpha le matin Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain On arrive aux portes du succès Mais tu m'as peut-être vu sur scène Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain Mets de l'eau dans mon vin, du flow dans mon refrain Dès que j'peux, jagrippe un mojito et fume comme un toxico Mais pas de chorizo dans mon pain, j'arrive incognito Au comico', aussitôt j'envoie ces nigauds dans les hôpitaux Tropico, stylo-micro dans mon coin J'suis pas un to-mi gros mais parmi tes homies trop d'tchoins Y'a l'règlement donc pas d'entorses, allez, hop ! J'viens chanter fort du Hip-Hop, yo, c'est encore une option Vraiment, les gars en loque qu'avec des locks, dans les box Vendent aux tox, yo, toutes sortes de loksons J'ai toutes sortes de problèmes existentiels, comment sera Mon domaine, mon château, ma Rolex présidentielle ? Avec le succès, ce n'sont plus les mêmes À l'époque, il butait les MC's et offrait des chrysanthèmes Avant, il bifflait des tas d'mecs, ah, ouais, je l'admets Mais aujourd'hui, il va pour skier vers Aspen Le succès, c'est un tour d'passe-passe, ouais Avec des tass qui s'tapent pour des passes backstages Doucement, quand tu viendras parler à Wann Alpha Car les aléas de la vie ont fait qu'il vit aux Baléares J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Ouais ouais ouais ouais Ouais ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon 4</t>
+          <t>Ladies and gentlemen Let me please introduce you to two of the most amazing MC's of all time. Even if they opened the doors of succes, they are still chilling... Tu sais mes forces me téléportent Et m'épaulent aux portes du succès Mais lorsque j'ai des potes au dehors, je dors plus, tu l'sais J'ai beau me mêler aux médias, pour les porcs j'suis suspect Marre de tous ces corps subjugués J'pars me promener vers d'autres états Ici, c'est moche, ils vident tes poches, ils rient d'tes proches Si l'illicite visite les halls c'est qu'ils imitent les vidéos sisi Qui milite comme Eazy E sur vinyle ? Oui oui, c'est bibi Pas d'timinik sur BBC, lélixir fixe cent milles visites En moyenne sur mon Facebook donc j'ai pas besoin de télé Et tu m'croyais sûrement casse-cou mais moi j'crois que j'suis fêlé Peiné de croire que le biz de musique ne soit que vice de rue Les pires ceurs-su aux tristes ruses De fils de pute pensent qu'ils te grugent Mais j'ai tous mes plans en place Le gent-gent se fait sans entrave Tes gens vendent des textes d'enfants J'rentre en guerre, à l'indépendance place Tes projets minables, j'vais les bousculer, t'façon On s'est mis à tous fumer à fond Couz', j'veux ma dolce vita C'est pour mes barjos de Paname, mes gadjos de l'asphalte Qui manient l'argot de la DASS et arrivent à tordre la basse Que je n'fléchirai pas, que je déciderai chaque fois De vendre mes idées barges, j'rappe en dépit des lois On arrive aux portes du succès avec nos ganaches de gamins Mais tu m'as peut-être vu sur scène ou avec Alpha le matin Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain On arrive aux portes du succès Mais tu m'as peut-être vu sur scène Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain Mets de l'eau dans mon vin, du flow dans mon refrain Dès que j'peux, jagrippe un mojito et fume comme un toxico Mais pas de chorizo dans mon pain, j'arrive incognito Au comico', aussitôt j'envoie ces nigauds dans les hôpitaux Tropico, stylo-micro dans mon coin J'suis pas un to-mi gros mais parmi tes homies trop d'tchoins Y'a l'règlement donc pas d'entorses, allez, hop ! J'viens chanter fort du Hip-Hop, yo, c'est encore une option Vraiment, les gars en loque qu'avec des locks, dans les box Vendent aux tox, yo, toutes sortes de loksons J'ai toutes sortes de problèmes existentiels, comment sera Mon domaine, mon château, ma Rolex présidentielle ? Avec le succès, ce n'sont plus les mêmes À l'époque, il butait les MC's et offrait des chrysanthèmes Avant, il bifflait des tas d'mecs, ah, ouais, je l'admets Mais aujourd'hui, il va pour skier vers Aspen Le succès, c'est un tour d'passe-passe, ouais Avec des tass qui s'tapent pour des passes backstages Doucement, quand tu viendras parler à Wann Alpha Car les aléas de la vie ont fait qu'il vit aux Baléares J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Ouais ouais ouais ouais Ouais ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon 4</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Société te laisse des pauvres miettes Te fait grailler des coquillettes Te fait rêver d'Audi TT, t'met des grosses disquettes Avec mon crew d'fou on s'met en soum soum avec des poules Toutes nues, sous-vêtements froufrous mais bouches cousues J'travaille moult flow comme le gars de la Cool Co Sapé en Cousteau, ouais, nous, on parfume la couche d'ozone De bonnes odeurs du Mordor à Porte d'Auteuil Globe Trotters avec le style de vie de Tom Sawyer On observe par le périscope et puis le peuple vérifie Ça vient du 15 comme Périchaux, on m'appelle Huckleberry Finn Mon territoire est dérisoire mais mes rappeurs te terrifient Après dix spliffs l'après-midi, les vraies histoires j'te certifie On squatte encore les halls façon On and On J'ai fait la cigale dans un sous-marin jaune John Lennon On rêve alcool et monnaie façon Corleone L'effet de la zik me recouchera bientôt, nan, j'déconne J'te défie d'faire mes rimes d'hérétiques, trou d'balle hermétique Tous crament zeb et shit, ouais ouais ouais, ça vient d'Pernety Zoo Pas l'temps d'aller au Gibus On taffe la prose jusqu'à c'que l'produit tue C'est seulement là qu'on sort du Nautilus Per-ta le BM1, faut pas qu'on m'prête un flingue Le microphone j'ai la maîtrise, tu passes en CM1 Pourquoi ils s'entêtent alors qu'ils sont distancés ? Quand j'obtenais ma licence, ils se faisaient licencier You might also like Je fais les bails en soum soum car la foule me saoule Sous mes souliers sommeillent tous mes doutes J'veux pas qu'les sous me soumettent Donc je roule un bout de Buddah Bon, c'est vrai qu'j'suis sous beuh souvent Mais jamais à bout de souffle, je sens pas tes coups de coude En sous-marin quand on vous guette, juste un peu méfiant Ouais, j'suis malin j'prends de la bouteille Je suis juste un peu déviant Dans mon dojo ou sous les projos, j'ai mon mojo poto Même dans le zoo, je garde le croco sur le polo2</t>
+          <t>Société te laisse des pauvres miettes Te fait grailler des coquillettes Te fait rêver d'Audi TT, t'met des grosses disquettes Avec mon crew d'fou on s'met en soum soum avec des poules Toutes nues, sous-vêtements froufrous mais bouches cousues J'travaille moult flow comme le gars de la Cool Co Sapé en Cousteau, ouais, nous, on parfume la couche d'ozone De bonnes odeurs du Mordor à Porte d'Auteuil Globe Trotters avec le style de vie de Tom Sawyer On observe par le périscope et puis le peuple vérifie Ça vient du 15 comme Périchaux, on m'appelle Huckleberry Finn Mon territoire est dérisoire mais mes rappeurs te terrifient Après dix spliffs l'après-midi, les vraies histoires j'te certifie On squatte encore les halls façon On and On J'ai fait la cigale dans un sous-marin jaune John Lennon On rêve alcool et monnaie façon Corleone L'effet de la zik me recouchera bientôt, nan, j'déconne J'te défie d'faire mes rimes d'hérétiques, trou d'balle hermétique Tous crament zeb et shit, ouais ouais ouais, ça vient d'Pernety Zoo Pas l'temps d'aller au Gibus On taffe la prose jusqu'à c'que l'produit tue C'est seulement là qu'on sort du Nautilus Per-ta le BM1, faut pas qu'on m'prête un flingue Le microphone j'ai la maîtrise, tu passes en CM1 Pourquoi ils s'entêtent alors qu'ils sont distancés ? Quand j'obtenais ma licence, ils se faisaient licencier Je fais les bails en soum soum car la foule me saoule Sous mes souliers sommeillent tous mes doutes J'veux pas qu'les sous me soumettent Donc je roule un bout de Buddah Bon, c'est vrai qu'j'suis sous beuh souvent Mais jamais à bout de souffle, je sens pas tes coups de coude En sous-marin quand on vous guette, juste un peu méfiant Ouais, j'suis malin j'prends de la bouteille Je suis juste un peu déviant Dans mon dojo ou sous les projos, j'ai mon mojo poto Même dans le zoo, je garde le croco sur le polo2</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nos sbires contre-attaquent C'est l'retour du vrai bail, Basement Beatzz Nique les clones j'te l'ai déjà dit Radar anti-costume vert dans le métro, activé On est bons, on est bons Radar anti-costume vert dans l'métro, activé On est bons, on est bons Radar anti-costume vert dans le métro, j'me balade sans micro J'pars en ville trop du-per dans le réseau D'la racaille sans diplôme Où les enfants te crachent leur rage quand tu joues l'bourgeois Mais T'entends le Rap de ma tribu L'Entourage, ouais ! Des têtes plus suspectes que la mort de Michael J'élabore mon accueil quand j'té-gra le bord de ma feuille On a trop d'ennemis, nous, mais nos Illuminatis sont inoubliables Filous comme Julian et hooligans comme Couliballi Là, je fournis la menace fantôme, les groupies, ça me lasse Quand j'pose, je parle de ça les pouffiasses se battent dans l'hall Accroupie, là, t'écarte ton minou minable mais n'oublie pas Que t'es soumise à moi quand tu joues la Zoubida, tadada Avec tes dialogues t'es pas cher aux sous-titrages, le soutif part Accroupies-toi, t'étais trop faya pour y croire, ouais ouais C'est bien le Nekflamme, le vrai gars d'Paname, bébé Des airs de Sheitan quand j'prépare de vrais CD Elle m'dit Mets-moi dans l'fond, j'lui dis Fais moi fond fond Elle m'dit J'ai pas d'tampons, j'lui ai gté-doi le bonbon J'évite les sales rencontres avec les tass-pé J'débite des phases dans l'ombre avec des face B Everyday I'm hustlin', les DJ amassent les Basses et les masses et j'passe réciter ma saleté J'vais effriter la sale zeb, et ça, la salle le sait J'ai de l'idée à manuvrer, c'est c'qui fait ma rareté Biatch à la taille de guêpe, là, ma jolie t'es bien fine Tu pillaves à ma table mais faut la majorité cainri J'me la raconte pour rien, les nanas fondent Mon anaconda de l'affront soudain N'aies pas la honte, j'suis même pas passé par la fonte, cousin M'appelle pas mon poussin, j'sors des catacombes d'Toussaint J'prépare ma ronde, j'me sens libre quand je fais du vélo Et j'ai fumé ma tige sur le quai du métro Léger, pour être protégé faut t'lever tôt PD Fuck les qués-cro, les pecnots, les mecs obsédés Oh ! T'es qué-blo, tes reilles-o se sectionnent Si les cops te questionnent c'est l'écho de mes flows Fêlés, j'porte mes fautes et j'dépose mes notes Et j'compte dans mes joies perso le berceau de Keïko, Neslet C'est L'Entourage, une meute de loups sauvages Et souvent tendres, le coup s'propage Pour que tous ceux à bout d'souffle m'entendent You might also like C'est l'retour du vrai bail J'déboule avec le sac à dos, à la Boba Fett, avec nous Cojak Prends du prozac, nique les autres adversaires J'lâche le gaz à Morad, d'la vie j'retiens Y'a beaucoup trop d'connards et surtout trop d'clones à Ken Nique les clones le blaster te brise les os... C'est la prise des croms Recherché par Luc, Yan, Chewee, j'avoue, oui J'ai buté un tas d'gouines sur Tatouine J'étais grave blasé, j'rencontre ses sales tasse-pé Au bal masqué, j'sors le plasma, le sabre laser J'découpe c'qui bouge, tout c'qui court s'fait shooter Celles qui prennent leurs genoux à leur coup se font couper court Des jedis, quoi ? Je m'en bats, moi J'suis Alph' Wann, le vrai Batman de l'Etoile Noire Mais bon, nique les schmits de l'espace Ma clique te laisse là, dans ta propre pisse de clébard J'adhère pas à votre école, après mon passage, guette Les corps d'hommes morts, moi, ma force vient du côté obscur Mais revenons sur Terre, j'suis l'frelon keus long Qui pense qu'y ait rien après au nom du Père Sur scène j'performe darement, j'me taille quand j'ai l'argent Puis je m'achète une paire d'Air Force basses blanches La merde est vraie, trace d'pneus, j'pilote le beat Tu t'prends pour Superman tu finiras comme Christopher Reeve J'sirote un Gin avec cet ivrogne de Guiz', normal ! Avec Abou, on s'isole et on roule un petit cône de weed La vie est une maison, checke le loyer d'son bail J'veux choyer mon time, avoir la maille de Dwight Howard On est parigots, amène la soupe qu'on lâche un glaviot On pisse sur leurs Grammy Awards et leurs radios Retour du vrai bail, yo, on fait les mailles Et bye bye, j'fly fly, adios ! J'viens faire affluer la tech', tu vas suer, voir une nuée D'buée, tué dans une ruelle parce qu'tu puais la merde J'suis une façade, un muret, depuis que j'ai mué j'suis impur Et j'cherche à être thuné, faire hurler des putes dénudées J'me suis juré sur mes prunelles de faire du son Pur et dur pendant ma durée sur Terre... Pute nègre !3</t>
+          <t>Nos sbires contre-attaquent C'est l'retour du vrai bail, Basement Beatzz Nique les clones j'te l'ai déjà dit Radar anti-costume vert dans le métro, activé On est bons, on est bons Radar anti-costume vert dans l'métro, activé On est bons, on est bons Radar anti-costume vert dans le métro, j'me balade sans micro J'pars en ville trop du-per dans le réseau D'la racaille sans diplôme Où les enfants te crachent leur rage quand tu joues l'bourgeois Mais T'entends le Rap de ma tribu L'Entourage, ouais ! Des têtes plus suspectes que la mort de Michael J'élabore mon accueil quand j'té-gra le bord de ma feuille On a trop d'ennemis, nous, mais nos Illuminatis sont inoubliables Filous comme Julian et hooligans comme Couliballi Là, je fournis la menace fantôme, les groupies, ça me lasse Quand j'pose, je parle de ça les pouffiasses se battent dans l'hall Accroupie, là, t'écarte ton minou minable mais n'oublie pas Que t'es soumise à moi quand tu joues la Zoubida, tadada Avec tes dialogues t'es pas cher aux sous-titrages, le soutif part Accroupies-toi, t'étais trop faya pour y croire, ouais ouais C'est bien le Nekflamme, le vrai gars d'Paname, bébé Des airs de Sheitan quand j'prépare de vrais CD Elle m'dit Mets-moi dans l'fond, j'lui dis Fais moi fond fond Elle m'dit J'ai pas d'tampons, j'lui ai gté-doi le bonbon J'évite les sales rencontres avec les tass-pé J'débite des phases dans l'ombre avec des face B Everyday I'm hustlin', les DJ amassent les Basses et les masses et j'passe réciter ma saleté J'vais effriter la sale zeb, et ça, la salle le sait J'ai de l'idée à manuvrer, c'est c'qui fait ma rareté Biatch à la taille de guêpe, là, ma jolie t'es bien fine Tu pillaves à ma table mais faut la majorité cainri J'me la raconte pour rien, les nanas fondent Mon anaconda de l'affront soudain N'aies pas la honte, j'suis même pas passé par la fonte, cousin M'appelle pas mon poussin, j'sors des catacombes d'Toussaint J'prépare ma ronde, j'me sens libre quand je fais du vélo Et j'ai fumé ma tige sur le quai du métro Léger, pour être protégé faut t'lever tôt PD Fuck les qués-cro, les pecnots, les mecs obsédés Oh ! T'es qué-blo, tes reilles-o se sectionnent Si les cops te questionnent c'est l'écho de mes flows Fêlés, j'porte mes fautes et j'dépose mes notes Et j'compte dans mes joies perso le berceau de Keïko, Neslet C'est L'Entourage, une meute de loups sauvages Et souvent tendres, le coup s'propage Pour que tous ceux à bout d'souffle m'entendent C'est l'retour du vrai bail J'déboule avec le sac à dos, à la Boba Fett, avec nous Cojak Prends du prozac, nique les autres adversaires J'lâche le gaz à Morad, d'la vie j'retiens Y'a beaucoup trop d'connards et surtout trop d'clones à Ken Nique les clones le blaster te brise les os... C'est la prise des croms Recherché par Luc, Yan, Chewee, j'avoue, oui J'ai buté un tas d'gouines sur Tatouine J'étais grave blasé, j'rencontre ses sales tasse-pé Au bal masqué, j'sors le plasma, le sabre laser J'découpe c'qui bouge, tout c'qui court s'fait shooter Celles qui prennent leurs genoux à leur coup se font couper court Des jedis, quoi ? Je m'en bats, moi J'suis Alph' Wann, le vrai Batman de l'Etoile Noire Mais bon, nique les schmits de l'espace Ma clique te laisse là, dans ta propre pisse de clébard J'adhère pas à votre école, après mon passage, guette Les corps d'hommes morts, moi, ma force vient du côté obscur Mais revenons sur Terre, j'suis l'frelon keus long Qui pense qu'y ait rien après au nom du Père Sur scène j'performe darement, j'me taille quand j'ai l'argent Puis je m'achète une paire d'Air Force basses blanches La merde est vraie, trace d'pneus, j'pilote le beat Tu t'prends pour Superman tu finiras comme Christopher Reeve J'sirote un Gin avec cet ivrogne de Guiz', normal ! Avec Abou, on s'isole et on roule un petit cône de weed La vie est une maison, checke le loyer d'son bail J'veux choyer mon time, avoir la maille de Dwight Howard On est parigots, amène la soupe qu'on lâche un glaviot On pisse sur leurs Grammy Awards et leurs radios Retour du vrai bail, yo, on fait les mailles Et bye bye, j'fly fly, adios ! J'viens faire affluer la tech', tu vas suer, voir une nuée D'buée, tué dans une ruelle parce qu'tu puais la merde J'suis une façade, un muret, depuis que j'ai mué j'suis impur Et j'cherche à être thuné, faire hurler des putes dénudées J'me suis juré sur mes prunelles de faire du son Pur et dur pendant ma durée sur Terre... Pute nègre !3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Les bails sont fucking bons... Wesh, wesh Phily Phaal ? Ouais ouais ouais ouais ouais ? Faudrait qu'on leur montre un peu l'architecture du projet Tu vois genre, genre... Genre, quoi ? Comme ça, genre... On a taffé la rime, mec, demande à Phaal, c'est vrai Des phases mathématiques, maintenant y'a pas d'secrets On va plier ça, Alpha t'y vas ? Ouais, ouais La machine est-elle en place ? Fais-moi rimer ça en 4 syllabes Yo, j'connais Paris, l'argot, apprends la vie à d'autres Ta bitch a gobé d'la bite là-haut et tu brailles Ti amo On fait les contours, eux s'rasent la teu-cha Bébé, on couche, j'le sais qu'tu rêves d'Alpha nne-Wa Toujours ces bails féminins, moi, j'rêve de vacances, gros J'me verrais bien dans une baraque à Cannes Avec mes arabes à la baraque, tous les soirs à la plage Moi à la rentrée j'fais du rap, je me barre à Manhattan On ramène Barbapapa, fuck Nagui Taratata ! Y'aura d'la meuf ? Laisse ces merdes érotiques pour le summer On ferait mieux de chercher nos rimes Pour l'heure, j'veux les compter au triple You might also like Autodidacte au flow bizarre pour tes potes minables J'débite trop de syllabes, je m'en pète, j'fais rimer les hôpitals Prêt à tout pour la rime parfaite, oui, j'acquiesce Clic clac, vide la caisse, pète les plombs comme Disiz la peste Tu vaux pas un clou, tu veux percer, tu finis au pilori Tes rimes horribles sont inaudibles, tu te crois cool, t'es hypocrite C'est illogique les kilos d'shit Mais c'est comme ça qu'on vit nos vies Les minots kiffent nos styles hostiles et les lopes-sa profitent aussi C'est criminel d'être aussi dar Ouais, mon petit gars, j'pète le cigare Pendant c'temps là vas-y en deux syllabes J'ai du jus, man, me juge pas comme tout ces judas Chut ! On est pas des putains, tu vois bien qu'on tue ça Et dans mon plumard, je rêve d'être nulle part Je n'ai pas donné mon cul car tu n'as pas volé mon plumage On va tous canner trop tôt a cause des jokos Sur mon polo, des impacts de hasch forment mon logo Rappe la bouche close ou sous la douche, gros Car ça sortira pas d'la salle de bain comme Cloclo T'es au point Phaal ? En une syllabe Nek T'es au point Phaal ? En une syllabe Nek P'tite miss, file la Zip, bise, vite vide la tise Oui, titille ma bite sur Illmatic, telle est ma vie Si les vils-ci fixent mes iris c'est risky, j'me dis hihihi Si leur rififi riquiqui m'irrite jimite le ouistitis, si si si, si si si Lourd, gros ! Heu, bah, t'y es allé en i Ouais, en hi ! J'vais l'faire en i mais d'une autre façon OK, vas-y Chiggity check yo Ils guident les p'tits vers le vide, la vie qu'ils décrivent N'existe ni dans les films ni dans les livres, j'ai grillé les vices Qu'ils dissimulent dans leurs disques, playlists et disquettes Mec, j'ai d'autres pistes pour obtenir les biffs, fils, peace Hey euh... C'est comme ça qu'ça s'finit ? Heu... J'sais pas, nan Ah ouais ouais, on va encore continuer J'sais pas une impro, freestyle Petite impro ? Vas-y ! OK, heu... OK, faut qu'je balance quelque chose, mais là j'crois qu'y a rien C'est Nek le Fennek, approche-toi, chien C'est comme ça, tu vois bien que j'accroche la page C'est Nek le Fennek, tu vois bien que j'raccroche ta sale face C'est comme ça qu'tu fais face à Alpha Nek le Fennek et les phases de Malfra OK, c'est comme ça, y'a aussi le Mekra Tu sais que t'as qué-cra si tu voulais m'gué-dra Car je suis un mec intègre, un fennec, toi, t'es qu'un insecte J'peux m'permettre de te dire ça, je ne suis qu'un dique-sa Je rappe pour le freestyle, tu vois bien que je vibre, ah ! C'est comme ça mon gars qu'tu sais que j'ai la fibre, ah ! C'est Nek le fennec tu vois bien que j'ai mis ça Haut ! Donc c'est comme ça, j'en place une pour Khemissa Mohamine, mon putain d'pote de Paul Bert Rappe comme Colbert, tu sais qu'j'ai le col V Pour les soirées, tu sais, pour décolleté C'est Nek le Fennek, c'est l'oseille que j'viens récolter OK, c'est comme ça je rappe en soum-soum Et dans mon hall ça résonne, ça fait boum boum T'as jamais connu ça, jamais C'est Nek le Fennek, tu vois bien qu'tu fais face à la mer Car c'est comme ça, tu vois bien, on rappe ça à l'ancienne Balance ça dans l'ciel à l'ancienne, j'me répète C'est pas grave, j'suis complètement fracasse C'est Nek le Fennek, avec les potes on bédave Et c'est d'la putain de merde de finir comme ça Je suis tout contracté, j'suis comme un dique-sa... J'en peux plus... Bon allez... j'crois qu'c'est à moi, mon gars T'es à bout d'souffle en-ré-foi Chiggity check Alpha Wann, Basement Beatzz Chiggity chek yo, chiggity chek yo Alpha Wann, si j'veux je fuck ta petite sur J'vais la voir puis je lui rentre un finger Non, j'plaisante, y'a pas de truc de pédophile J'suis pas nécrophile, écoute l'égotrip Les gos kiffent, j'leur perce les nerfs optiques Alpha Wann au microphone, tu sais je checke, homie Tous les gens qui viennent Pour me voir, j'leur dis Moi j'suis Phaal Et sur l'instrumentale jamais je ne cale Et quand je rappe c'est comme un AK47 Alpha Wann au microphone je pars dans l'ciel Avec moi, un spliff de zeb, Alpha Wann Tu sais que le style je l'ai, ouais ouais Et il est vrai comme à Los Angeles Alpha Wann au microphone, yo, je sais que j'te blesse Tu m'as vu rapper dans ton canton, dans ton comté J'vais t'démonter ma chanson, oh, la dinguerie ! Va te faire kiffer, tu vas la sniffer Alpha Wann au microphone je viens pour kicker J'aime bien le beat, j'balance du style Alpha Wann te mange comme un motherfucking Snikers, oh ! Putain j'ai bafouillé mais c'est pas grave Tu sais que j'sais qu'je t'ai grave touché avec mes balles Elles sont pas fictives, rappe comme Fifty Alpha Wann c'est un pimp, oui ! Quoi c'est à moi d'finir le track ? Bah ouais, mon frère... Bah j'sais ap', mec t'sais en genre général dans les fuckings fins de d'album et caetera ils mettent des petits jactes à la fin, tu vois.. Jactons, j'ai envie d'jacter, c'est l'dernier track on peut faire ce qu'on veut... Ouais, jacter c'est bien beau mais j'étais parti pour une impro bientôt, mec... Oh, l'salaud ! OK, c'est comme ça, tu vois bien que jsuis bouillant Tu vois bien que c'est comme ça qu'on esquive les brouilles-em C'est Nek le Fennek, tu sais que je suis souvent Écoutant les mecs et puis après les roustant Dégoûtants, tous ces putains d'pédés qui jouent dans La cours des grands, c'est Nek le fennec t'es à bout d'dents C'est comme ça y'a Abou dans la pièce C'est Nek le Fennek, pas de tabous dans le sexe Je me balance, tu sais, je balance le sperme Nek le Fennek et la porte-cabine se ferme Je balance la sauce sur le micro, tu sais que J'ai le niveau qui étripe les rivaux, les nigauds, idiot OK, c'est comme ça, je raconte pas de pipeau, mytho Qu'est-ce qu'il s'passe ? Je squatte dans un petit hall Oui wo ! Je dis n'importe quoi Je fais des trucs cains-ri avec un porte-voix J'ai mon cahier qui fait du bruit, qui nique la prise Mais c'est pas grave, t'inquiète pas, y'a le spliff de weed C'était chaud. Et donc à part ça jactez, jactons jactons hein, mais tu vas te rendre compte près du micro que c'est un peu une galère Phaal, mec... C'est mieux de balancer des sauces rapologiques qu'on sait si bien faire... Ouais c'est ça, gros gamin va ! Basement Beatzz, putain d'expérience, mon soss, c'est comme ça qu'on fait les trucs,75éme Sess', SDP, Candy Cochonne, on fait les bails, L'Entourage... Vas-y j'clôture le truc pour de vrai cette fois-ci... Tu sais mon gars, c'est à moi d'reprendre Alpha Wann j'rappe, tu sais que ça t'enchante Les rimes, l'ABCD, j'les mets en chantier Alpha Wann lit son abécédaire, ouais J'vais t'éventrer comme Jack l'éventreur Alpha Wann tu sais je monte dans lascenseur J'vais tuer le boss, j'vais prendre son pez C'mec tu sais qu'je l'baise, il va se prendre des coups d'crosse Ça va le faire mal, je monte dans lascenseur Elles sont là, je vois des jolies tasses en sueur Dédicace à Nekfeu car c'est sa rime Mec, je m'active, fuck Marine Bref. J'crois qu'le truc est fini et vas-y faut pas non plus qu'ça dure 32 ans. La tape était bonne en plus, on va pas vous niquer le délire avec une seule track2</t>
+          <t>Les bails sont fucking bons... Wesh, wesh Phily Phaal ? Ouais ouais ouais ouais ouais ? Faudrait qu'on leur montre un peu l'architecture du projet Tu vois genre, genre... Genre, quoi ? Comme ça, genre... On a taffé la rime, mec, demande à Phaal, c'est vrai Des phases mathématiques, maintenant y'a pas d'secrets On va plier ça, Alpha t'y vas ? Ouais, ouais La machine est-elle en place ? Fais-moi rimer ça en 4 syllabes Yo, j'connais Paris, l'argot, apprends la vie à d'autres Ta bitch a gobé d'la bite là-haut et tu brailles Ti amo On fait les contours, eux s'rasent la teu-cha Bébé, on couche, j'le sais qu'tu rêves d'Alpha nne-Wa Toujours ces bails féminins, moi, j'rêve de vacances, gros J'me verrais bien dans une baraque à Cannes Avec mes arabes à la baraque, tous les soirs à la plage Moi à la rentrée j'fais du rap, je me barre à Manhattan On ramène Barbapapa, fuck Nagui Taratata ! Y'aura d'la meuf ? Laisse ces merdes érotiques pour le summer On ferait mieux de chercher nos rimes Pour l'heure, j'veux les compter au triple Autodidacte au flow bizarre pour tes potes minables J'débite trop de syllabes, je m'en pète, j'fais rimer les hôpitals Prêt à tout pour la rime parfaite, oui, j'acquiesce Clic clac, vide la caisse, pète les plombs comme Disiz la peste Tu vaux pas un clou, tu veux percer, tu finis au pilori Tes rimes horribles sont inaudibles, tu te crois cool, t'es hypocrite C'est illogique les kilos d'shit Mais c'est comme ça qu'on vit nos vies Les minots kiffent nos styles hostiles et les lopes-sa profitent aussi C'est criminel d'être aussi dar Ouais, mon petit gars, j'pète le cigare Pendant c'temps là vas-y en deux syllabes J'ai du jus, man, me juge pas comme tout ces judas Chut ! On est pas des putains, tu vois bien qu'on tue ça Et dans mon plumard, je rêve d'être nulle part Je n'ai pas donné mon cul car tu n'as pas volé mon plumage On va tous canner trop tôt a cause des jokos Sur mon polo, des impacts de hasch forment mon logo Rappe la bouche close ou sous la douche, gros Car ça sortira pas d'la salle de bain comme Cloclo T'es au point Phaal ? En une syllabe Nek T'es au point Phaal ? En une syllabe Nek P'tite miss, file la Zip, bise, vite vide la tise Oui, titille ma bite sur Illmatic, telle est ma vie Si les vils-ci fixent mes iris c'est risky, j'me dis hihihi Si leur rififi riquiqui m'irrite jimite le ouistitis, si si si, si si si Lourd, gros ! Heu, bah, t'y es allé en i Ouais, en hi ! J'vais l'faire en i mais d'une autre façon OK, vas-y Chiggity check yo Ils guident les p'tits vers le vide, la vie qu'ils décrivent N'existe ni dans les films ni dans les livres, j'ai grillé les vices Qu'ils dissimulent dans leurs disques, playlists et disquettes Mec, j'ai d'autres pistes pour obtenir les biffs, fils, peace Hey euh... C'est comme ça qu'ça s'finit ? Heu... J'sais pas, nan Ah ouais ouais, on va encore continuer J'sais pas une impro, freestyle Petite impro ? Vas-y ! OK, heu... OK, faut qu'je balance quelque chose, mais là j'crois qu'y a rien C'est Nek le Fennek, approche-toi, chien C'est comme ça, tu vois bien que j'accroche la page C'est Nek le Fennek, tu vois bien que j'raccroche ta sale face C'est comme ça qu'tu fais face à Alpha Nek le Fennek et les phases de Malfra OK, c'est comme ça, y'a aussi le Mekra Tu sais que t'as qué-cra si tu voulais m'gué-dra Car je suis un mec intègre, un fennec, toi, t'es qu'un insecte J'peux m'permettre de te dire ça, je ne suis qu'un dique-sa Je rappe pour le freestyle, tu vois bien que je vibre, ah ! C'est comme ça mon gars qu'tu sais que j'ai la fibre, ah ! C'est Nek le fennec tu vois bien que j'ai mis ça Haut ! Donc c'est comme ça, j'en place une pour Khemissa Mohamine, mon putain d'pote de Paul Bert Rappe comme Colbert, tu sais qu'j'ai le col V Pour les soirées, tu sais, pour décolleté C'est Nek le Fennek, c'est l'oseille que j'viens récolter OK, c'est comme ça je rappe en soum-soum Et dans mon hall ça résonne, ça fait boum boum T'as jamais connu ça, jamais C'est Nek le Fennek, tu vois bien qu'tu fais face à la mer Car c'est comme ça, tu vois bien, on rappe ça à l'ancienne Balance ça dans l'ciel à l'ancienne, j'me répète C'est pas grave, j'suis complètement fracasse C'est Nek le Fennek, avec les potes on bédave Et c'est d'la putain de merde de finir comme ça Je suis tout contracté, j'suis comme un dique-sa... J'en peux plus... Bon allez... j'crois qu'c'est à moi, mon gars T'es à bout d'souffle en-ré-foi Chiggity check Alpha Wann, Basement Beatzz Chiggity chek yo, chiggity chek yo Alpha Wann, si j'veux je fuck ta petite sur J'vais la voir puis je lui rentre un finger Non, j'plaisante, y'a pas de truc de pédophile J'suis pas nécrophile, écoute l'égotrip Les gos kiffent, j'leur perce les nerfs optiques Alpha Wann au microphone, tu sais je checke, homie Tous les gens qui viennent Pour me voir, j'leur dis Moi j'suis Phaal Et sur l'instrumentale jamais je ne cale Et quand je rappe c'est comme un AK47 Alpha Wann au microphone je pars dans l'ciel Avec moi, un spliff de zeb, Alpha Wann Tu sais que le style je l'ai, ouais ouais Et il est vrai comme à Los Angeles Alpha Wann au microphone, yo, je sais que j'te blesse Tu m'as vu rapper dans ton canton, dans ton comté J'vais t'démonter ma chanson, oh, la dinguerie ! Va te faire kiffer, tu vas la sniffer Alpha Wann au microphone je viens pour kicker J'aime bien le beat, j'balance du style Alpha Wann te mange comme un motherfucking Snikers, oh ! Putain j'ai bafouillé mais c'est pas grave Tu sais que j'sais qu'je t'ai grave touché avec mes balles Elles sont pas fictives, rappe comme Fifty Alpha Wann c'est un pimp, oui ! Quoi c'est à moi d'finir le track ? Bah ouais, mon frère... Bah j'sais ap', mec t'sais en genre général dans les fuckings fins de d'album et caetera ils mettent des petits jactes à la fin, tu vois.. Jactons, j'ai envie d'jacter, c'est l'dernier track on peut faire ce qu'on veut... Ouais, jacter c'est bien beau mais j'étais parti pour une impro bientôt, mec... Oh, l'salaud ! OK, c'est comme ça, tu vois bien que jsuis bouillant Tu vois bien que c'est comme ça qu'on esquive les brouilles-em C'est Nek le Fennek, tu sais que je suis souvent Écoutant les mecs et puis après les roustant Dégoûtants, tous ces putains d'pédés qui jouent dans La cours des grands, c'est Nek le fennec t'es à bout d'dents C'est comme ça y'a Abou dans la pièce C'est Nek le Fennek, pas de tabous dans le sexe Je me balance, tu sais, je balance le sperme Nek le Fennek et la porte-cabine se ferme Je balance la sauce sur le micro, tu sais que J'ai le niveau qui étripe les rivaux, les nigauds, idiot OK, c'est comme ça, je raconte pas de pipeau, mytho Qu'est-ce qu'il s'passe ? Je squatte dans un petit hall Oui wo ! Je dis n'importe quoi Je fais des trucs cains-ri avec un porte-voix J'ai mon cahier qui fait du bruit, qui nique la prise Mais c'est pas grave, t'inquiète pas, y'a le spliff de weed C'était chaud. Et donc à part ça jactez, jactons jactons hein, mais tu vas te rendre compte près du micro que c'est un peu une galère Phaal, mec... C'est mieux de balancer des sauces rapologiques qu'on sait si bien faire... Ouais c'est ça, gros gamin va ! Basement Beatzz, putain d'expérience, mon soss, c'est comme ça qu'on fait les trucs,75éme Sess', SDP, Candy Cochonne, on fait les bails, L'Entourage... Vas-y j'clôture le truc pour de vrai cette fois-ci... Tu sais mon gars, c'est à moi d'reprendre Alpha Wann j'rappe, tu sais que ça t'enchante Les rimes, l'ABCD, j'les mets en chantier Alpha Wann lit son abécédaire, ouais J'vais t'éventrer comme Jack l'éventreur Alpha Wann tu sais je monte dans lascenseur J'vais tuer le boss, j'vais prendre son pez C'mec tu sais qu'je l'baise, il va se prendre des coups d'crosse Ça va le faire mal, je monte dans lascenseur Elles sont là, je vois des jolies tasses en sueur Dédicace à Nekfeu car c'est sa rime Mec, je m'active, fuck Marine Bref. J'crois qu'le truc est fini et vas-y faut pas non plus qu'ça dure 32 ans. La tape était bonne en plus, on va pas vous niquer le délire avec une seule track2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S-Crew, lève-toi ! L'Entourage, 1995, lève-toi ! Lève-toi ! Lève-toi ! Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Chaque jour jgratte un kilomètre de mesures Toujours plus fort comme MJ quand il revient de blessure On tlaisse dans lcimetière, quest-ce ten dis ? Tu crois que jplaisante, cest Phaal avec le Basement Beatzz Yeah ! Cest bondé dshtars, les condés matent On veut les ronds, les mailles, concept dar On est schyzo donc on est 4, comptez- Nous parmi les bougs vrais smooth sous zeb fuku Nos couplets dfoolek soulèvent la foule, poulette Jvais faire sauter lAssemblée, lElysée Attendez lavancée d'ma rangé pour balancer la vérité Jordan Retro Fusion, héros du son Hé ho, ducon ! La révolution, sera télévisée Les péchés rendent lourd je mallège, nique la calèche Tu fais un malaise dès que jrime et kicke du knowledge La Benz, jen rêve depuis que je sais faire mes lacets Cest la honte XXX la belle est la bête Han ! Mon cerveau est mort dans l'film, jsais pas à quoi il joue Ces grippes-sou, moi ,mes bijoux jles porte dans lslip Jai vu le vice, ouais, cette pute de vie d'merde Te prends tes écus, sois pas têtu, réfute le système You might also like Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Le sample est cramé, on sen fout, cest gratuit Jme lève et coupe les ronces où les fous ségratignent, bébé Lève-toi, jai pas mal de refrain dcôté Jveux bien dtoi du moment que t'as un grain, beauté Il faut pas tcontenter du minimum Il faut pas quon senterre sous le niveau Cest pour les mini-mômes à qui on a pas remis d'diplôme Que jai pris lniveau pour dire la vie de la patrie qui chôme Mais pour les blédars usés désabusés des abus dcet état musclé Guette la rue, mec, cest abusé, dès que tas bu tsais plus tamusé Lève-toi, vis ta passion à fond Raconte-moi doù tu viens mais tendors pas sur la skunk Ni fils-à-papa ni futur te-pu mais jsuis un mac Donc si jte plaque ce sera juste sur le mur si jpète un câble Je divague vague, un jour le peuple se lèvera Il se rebellera comme le cur des belles dames Communément, jsuis comme un aimant Quand on me demande mon Rap comme élément Mais jai trop vu les grands, jai obtenu des plans Mais jai connu des gens qui te collent les dents Jvoulais quma vie soit comme un film, voilà, mais à c'point Les potes qui meurent, les sautes dhumeur, ça j'm'en passe bien Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Quoi d'neuf, partenaire ? Lève-toi, enfoiré ! L'Entourage, 1995, Nekfeu, S-Crew, Alpha Wann Yo, lève-toi, enfoiré !</t>
+          <t>S-Crew, lève-toi ! L'Entourage, 1995, lève-toi ! Lève-toi ! Lève-toi ! Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Chaque jour jgratte un kilomètre de mesures Toujours plus fort comme MJ quand il revient de blessure On tlaisse dans lcimetière, quest-ce ten dis ? Tu crois que jplaisante, cest Phaal avec le Basement Beatzz Yeah ! Cest bondé dshtars, les condés matent On veut les ronds, les mailles, concept dar On est schyzo donc on est 4, comptez- Nous parmi les bougs vrais smooth sous zeb fuku Nos couplets dfoolek soulèvent la foule, poulette Jvais faire sauter lAssemblée, lElysée Attendez lavancée d'ma rangé pour balancer la vérité Jordan Retro Fusion, héros du son Hé ho, ducon ! La révolution, sera télévisée Les péchés rendent lourd je mallège, nique la calèche Tu fais un malaise dès que jrime et kicke du knowledge La Benz, jen rêve depuis que je sais faire mes lacets Cest la honte XXX la belle est la bête Han ! Mon cerveau est mort dans l'film, jsais pas à quoi il joue Ces grippes-sou, moi ,mes bijoux jles porte dans lslip Jai vu le vice, ouais, cette pute de vie d'merde Te prends tes écus, sois pas têtu, réfute le système Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Le sample est cramé, on sen fout, cest gratuit Jme lève et coupe les ronces où les fous ségratignent, bébé Lève-toi, jai pas mal de refrain dcôté Jveux bien dtoi du moment que t'as un grain, beauté Il faut pas tcontenter du minimum Il faut pas quon senterre sous le niveau Cest pour les mini-mômes à qui on a pas remis d'diplôme Que jai pris lniveau pour dire la vie de la patrie qui chôme Mais pour les blédars usés désabusés des abus dcet état musclé Guette la rue, mec, cest abusé, dès que tas bu tsais plus tamusé Lève-toi, vis ta passion à fond Raconte-moi doù tu viens mais tendors pas sur la skunk Ni fils-à-papa ni futur te-pu mais jsuis un mac Donc si jte plaque ce sera juste sur le mur si jpète un câble Je divague vague, un jour le peuple se lèvera Il se rebellera comme le cur des belles dames Communément, jsuis comme un aimant Quand on me demande mon Rap comme élément Mais jai trop vu les grands, jai obtenu des plans Mais jai connu des gens qui te collent les dents Jvoulais quma vie soit comme un film, voilà, mais à c'point Les potes qui meurent, les sautes dhumeur, ça j'm'en passe bien Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Quoi d'neuf, partenaire ? Lève-toi, enfoiré ! L'Entourage, 1995, Nekfeu, S-Crew, Alpha Wann Yo, lève-toi, enfoiré !</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jespère quils sont prêts, ils vont se prendre la rincée de leur vie Checkez les bien les deux petits, rapper yinque des verses sweet pis nous flinguer de multi- Wô, wô, wô, articule, change de ton drette-là Cpas que cest pas bon, jaime ça, mais, tsais, les français quand on ne parle pas comme eux, bien ils ne comprennent pas Faque on va faire des signes, simplifier ce quon fait un peu pour quils comprennent bien à quel point on est meilleurs queux Jpense quils ont soudoyés Les Dépisteurs, cest pas eux les génies de lheure, ils se sont même pas démarqué dans leur petite ligue mineure Jen regarde un en toute honnêteté et je suis blasé, cest comme si tu voulais maffronter au hockey, pis juste de même en passant Suspek-T a gagné Yo, chill out, yo, yeah en France sont dix fois plus quau Québec, so what, on les pète une main dans le dos si on fait un tournois, pis dans le film vous êtes le romains nous on serait les gaulois parce quon est meilleurs pour clasher et puis rapper sur les beats, dony s le savait faque il est déménagé ici Ok, sérieux, jaimerais te souhaiter la bienvenue parmi nous, à toi et tous tes petits amis cools, pas trop déçu quon ait oublié dapporter le tapis rouge On a comme sauté létape du traitement royal, oublie la couronne, ta grosse tête prend de la place, pis si tes pas content, bien mange de la marde Yo, ce gars-là est big en France, riez pas là, jsuis mad sérieux Dans tous les magasins de Paris, vous pouvez acheter le swag Nekfeu Yo, yo, il va à un show de Triptik avec tous ses rebeus, quand Dabaaz la vu, il lui a dit coupe tes cheveux, coupe tes cheveux, yo, cest vrai, coupe tes cheveux Quand tu le sors de son bled- Je représente pas le Rap Contenders, mais la première fois que Phili ma appellé, jmen rappelle, jai racroché Jétais sur un tas de projets, jétais dur à approché Il ma texté Dawg, je ten supplie, faut que tu viennes infliger des supplices à deux ivrognes stupides devant leur propre public Apparemment, il sagissait dun grand métis aux allures féminines et de sa copine, la pleureuse Jai dit nenni, nenni, je battle pas Dony et Stunner Et puis avec mes amis on sest dit quaprès tout cétait facile vu que ce soir votre seule victoire ça été de faire notre première partie Et puis, yo, cest pas un vieux métis squelettique avec une coupe leucémique qui va me faire des menaces Yo, Jam, tu fais deux mètres six, tes pas un adversaire de taille Alors, Philly Phaal, pleins de tonus, fin et robuste, ce soir je viens ici et je flingues vos culs Quand je suis arrivé au Québec, jétais genre dites-moi, ici, cest qui le boss? On ma répondu Cest nimporte qui sauf cette bitch soft de P.Dox Jai dit aight, mais est-ce quil est vrai, est-ce quil est real? On ma répondu Rick Ross Jai dit aight, est-ce quil fait beaucoup de live? On ma répondu Xbox Jai dit mais les gars, pour son album? Et les gars ils étaient comme Detox Tu penses vraiment pouvoir me battre, inox Jsuis de Paris, dawg Tes quun fag qui suck Tu te prends pour un grizzli, mais tes plus soft que Paddington Tu veux faire le bad mean thug Mais tous tes potes mont dit que tétais prof de badminton Le soir, tu rentres dans ta petite piaule de sale ivrogne pour te bourrer Tu tastiques et salives quand ton ami Jamai se frotte à tes bourrelets pour te fourrer Mais tu sens pas ça, bite molle, vu que tes plus gras que Big Pun Tellement que ton succès prend du temps, jsuis obligé de props ton endurance Quand tes venu, on ne savait pas ce quon allait faire On a écrit tout à l'heure, donc nique sa mère mon gars You might also like Yo, hey les lunettes, tu veux savoir comment ça marche dans place? Moi jmen sacre, tu vas te faire péter Accent de marde, pique à glace dans le ass Tarte dans la face Yo, tas jamais gagné de battle, mais tu tessayes sans cesses Celui-ci est pas jugé, pis tu Lperds quen même Le gars parle contre les RC souvent, jtrouve ça très émouvant, je ferais pareil si jétais comme toi pis que je perdais tout le temps Tu veux gagner un battle? Écoute-moi bien gamin Sois plus fort, sois plus mort En fait, sois moins toi même Yo, yo, tes trous de mémoires me fascinent, jvais te rendre ça facile en te donnant un conseil Jte recommande la pratique parce que tu as pas la prestance et le charisme, tas lair tout stressed, pis tu trembles comme si tes verses cétait une mauvaise nouvelle Yo, cest vraiment nice se moquer de toi Les gens te niaisent, te donne des claques Toi tencaisse, tes un punching bag Ça mexaspère, jvais pas le frapper, il va appeler sa mère Tes un raté, tes lunettes servent à regarder par terre Yo, yo, dès que tu rappes, tout le monde ris instantané Uncle Ben's Yo, yo, yo, hey, yo, on va, on va le recommencer Dès que tu rappes, tout le monde ris instantané Uncle Ben's Jmets sa grosse tête sur ton petit corps tout faible bobblehead Vos chances de nous battre cest comme vos rap skills, de très faible à nulle Tu veux du fame en étant fake? Essaie la lutte Yo, citation de Nekfeu contre Logik Konstantine Cest le son de mes boules contre tes fesses Ark, ça cétait affreux, cest fou Pis si tes boules sont contre ses fesses, ta queue est où? Ouais, mais Jam, cest une différence culturelle, ça compte même pas De toute façon en France, se mettre dans les fesses cest- Ouin, je sais, tout le monde fait ça À chaque fois que tu vois Jamai, je ne sais pas pourquoi, tu as des érections dures Il te baise, mais en vrai il te déteste plus que tu ne le crois Donc quand tu viens, tu te ne stresses plus Ok, euh, mec, tes tellement gros que quand tu rentres ton ventre on dirait que tu gonfles ton ventre et quand tu fais pas la danse du ventre Le ventre de ton ventre, lui, fait la danse du ventre, ok Discussion entre Alpha Wann et Nekfeu Yo, les mecs, vous nêtes pas connu en France, on a demandé à Suspek au Québec non plus</t>
+          <t>Jespère quils sont prêts, ils vont se prendre la rincée de leur vie Checkez les bien les deux petits, rapper yinque des verses sweet pis nous flinguer de multi- Wô, wô, wô, articule, change de ton drette-là Cpas que cest pas bon, jaime ça, mais, tsais, les français quand on ne parle pas comme eux, bien ils ne comprennent pas Faque on va faire des signes, simplifier ce quon fait un peu pour quils comprennent bien à quel point on est meilleurs queux Jpense quils ont soudoyés Les Dépisteurs, cest pas eux les génies de lheure, ils se sont même pas démarqué dans leur petite ligue mineure Jen regarde un en toute honnêteté et je suis blasé, cest comme si tu voulais maffronter au hockey, pis juste de même en passant Suspek-T a gagné Yo, chill out, yo, yeah en France sont dix fois plus quau Québec, so what, on les pète une main dans le dos si on fait un tournois, pis dans le film vous êtes le romains nous on serait les gaulois parce quon est meilleurs pour clasher et puis rapper sur les beats, dony s le savait faque il est déménagé ici Ok, sérieux, jaimerais te souhaiter la bienvenue parmi nous, à toi et tous tes petits amis cools, pas trop déçu quon ait oublié dapporter le tapis rouge On a comme sauté létape du traitement royal, oublie la couronne, ta grosse tête prend de la place, pis si tes pas content, bien mange de la marde Yo, ce gars-là est big en France, riez pas là, jsuis mad sérieux Dans tous les magasins de Paris, vous pouvez acheter le swag Nekfeu Yo, yo, il va à un show de Triptik avec tous ses rebeus, quand Dabaaz la vu, il lui a dit coupe tes cheveux, coupe tes cheveux, yo, cest vrai, coupe tes cheveux Quand tu le sors de son bled- Je représente pas le Rap Contenders, mais la première fois que Phili ma appellé, jmen rappelle, jai racroché Jétais sur un tas de projets, jétais dur à approché Il ma texté Dawg, je ten supplie, faut que tu viennes infliger des supplices à deux ivrognes stupides devant leur propre public Apparemment, il sagissait dun grand métis aux allures féminines et de sa copine, la pleureuse Jai dit nenni, nenni, je battle pas Dony et Stunner Et puis avec mes amis on sest dit quaprès tout cétait facile vu que ce soir votre seule victoire ça été de faire notre première partie Et puis, yo, cest pas un vieux métis squelettique avec une coupe leucémique qui va me faire des menaces Yo, Jam, tu fais deux mètres six, tes pas un adversaire de taille Alors, Philly Phaal, pleins de tonus, fin et robuste, ce soir je viens ici et je flingues vos culs Quand je suis arrivé au Québec, jétais genre dites-moi, ici, cest qui le boss? On ma répondu Cest nimporte qui sauf cette bitch soft de P.Dox Jai dit aight, mais est-ce quil est vrai, est-ce quil est real? On ma répondu Rick Ross Jai dit aight, est-ce quil fait beaucoup de live? On ma répondu Xbox Jai dit mais les gars, pour son album? Et les gars ils étaient comme Detox Tu penses vraiment pouvoir me battre, inox Jsuis de Paris, dawg Tes quun fag qui suck Tu te prends pour un grizzli, mais tes plus soft que Paddington Tu veux faire le bad mean thug Mais tous tes potes mont dit que tétais prof de badminton Le soir, tu rentres dans ta petite piaule de sale ivrogne pour te bourrer Tu tastiques et salives quand ton ami Jamai se frotte à tes bourrelets pour te fourrer Mais tu sens pas ça, bite molle, vu que tes plus gras que Big Pun Tellement que ton succès prend du temps, jsuis obligé de props ton endurance Quand tes venu, on ne savait pas ce quon allait faire On a écrit tout à l'heure, donc nique sa mère mon gars Yo, hey les lunettes, tu veux savoir comment ça marche dans place? Moi jmen sacre, tu vas te faire péter Accent de marde, pique à glace dans le ass Tarte dans la face Yo, tas jamais gagné de battle, mais tu tessayes sans cesses Celui-ci est pas jugé, pis tu Lperds quen même Le gars parle contre les RC souvent, jtrouve ça très émouvant, je ferais pareil si jétais comme toi pis que je perdais tout le temps Tu veux gagner un battle? Écoute-moi bien gamin Sois plus fort, sois plus mort En fait, sois moins toi même Yo, yo, tes trous de mémoires me fascinent, jvais te rendre ça facile en te donnant un conseil Jte recommande la pratique parce que tu as pas la prestance et le charisme, tas lair tout stressed, pis tu trembles comme si tes verses cétait une mauvaise nouvelle Yo, cest vraiment nice se moquer de toi Les gens te niaisent, te donne des claques Toi tencaisse, tes un punching bag Ça mexaspère, jvais pas le frapper, il va appeler sa mère Tes un raté, tes lunettes servent à regarder par terre Yo, yo, dès que tu rappes, tout le monde ris instantané Uncle Ben's Yo, yo, yo, hey, yo, on va, on va le recommencer Dès que tu rappes, tout le monde ris instantané Uncle Ben's Jmets sa grosse tête sur ton petit corps tout faible bobblehead Vos chances de nous battre cest comme vos rap skills, de très faible à nulle Tu veux du fame en étant fake? Essaie la lutte Yo, citation de Nekfeu contre Logik Konstantine Cest le son de mes boules contre tes fesses Ark, ça cétait affreux, cest fou Pis si tes boules sont contre ses fesses, ta queue est où? Ouais, mais Jam, cest une différence culturelle, ça compte même pas De toute façon en France, se mettre dans les fesses cest- Ouin, je sais, tout le monde fait ça À chaque fois que tu vois Jamai, je ne sais pas pourquoi, tu as des érections dures Il te baise, mais en vrai il te déteste plus que tu ne le crois Donc quand tu viens, tu te ne stresses plus Ok, euh, mec, tes tellement gros que quand tu rentres ton ventre on dirait que tu gonfles ton ventre et quand tu fais pas la danse du ventre Le ventre de ton ventre, lui, fait la danse du ventre, ok Discussion entre Alpha Wann et Nekfeu Yo, les mecs, vous nêtes pas connu en France, on a demandé à Suspek au Québec non plus</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Alpha_Wann_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alpha_Wann_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monsieur Sable</t>
+          <t>0 to 100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Portez-moi du rêve... Marchand d'sable... Balance un autre joint, balance une autre putain d'pépite Les keufs aiment matraquer les prolos, ressentent l'invincibilité C'est pas attaquer les homos qui t'rendra ta virilité Ho non, poto va tâter des lolos, molo T'amasses des vrais bobos sous projo J'suis ni robot ni hologramme, arrête tes photos On connaît la chienneté, allez, viendez dans ma bande L'étendard flambe, on a des temps d'avance Même indépendamment Importez-moi c'rêve magique, est-ce la zik qui me berce ? Reste addict s'il te plaît, j'déteste les statistiques de merde Hé, statique si je crée des verses Magiques qui te prennent de court Jamais pris de C, j'reste à l'abri des problèmes de bourges Oublie ta peine, l'odeur de crack sur la gazinière J'bousille le game avec le Phaal, on est quasi frères J'compte pas céder à leur chantage odieux On croit aux vux, j'maudis le temps qui file Qui rend si triste quand on embrasse nos vieux Hé, Nekfeu, on compte sur toi, fais ça bien ! , honte sur toi Tu parles mal sur moi mais après ça nie, hein Mais y'a rien, j'suis debout, j'fais mon petit bonhomme de chemin Des kilos d'or je tiens mais j'serai pas le chien du crew, nope ! J'balance le pull-up quand j'me trompe de couplet Et ça part en impro en s'foutant des tronches de poulet Houp houp nique la lice-po, jolie fille Saute sur mes sous comme sur la bite à Guizmo J'en place une aux vrais, ceux qui n'ont pas eu le rêve Comme Mouss au hebs, le truc m'oppresse J'entends pas chuchoter Ici, la vie c'est comme un cours d'anglais, y'a trop d'faux amis Et c'est irrégulier, trop d'choses irréfutées Faut être sage pour rentrer Vivre ici c'est comme lécole, j'suis pas fait pour la vie Illicite et grosse déconne, prêt à t'baffer pour l'artiste Genre, passe les dollars vite mode, capitaliste extrême Trafic a l'ISF, bref, des connards finis C'est pour tout mes zonards timides, faut obtenir le dream J'écris l'histoire mais après faut tenir le titre, tu piges Envole-toi dans les nuages MC grasse mat', rendors-toi dans le plumard Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, négro Tchiguidi-tcheck yo , Alpha Wayne, yo ! Malgré les gauches-droites, les folles lois des Gaulois Contre les peaux noires, Alph O Wann soctroie l'droit D'déployer le troisième doigt dans c'cauchemar J'hoche le tête, j'taffe la rime tard la nuit avec mon walkman Mister Sandman, vise-moi et file-moi un rêve C'est quoi cette histoire, rime dit écris moi un 16 Donc chaque nuit j'morfle pour capter Morphée J'taffe Hip-Hop et lâche des flows frais Mais j'aime les 16, t'as compris, j'reste à condition Qu'elle soit fraîche ta cons', amène ta bestah Qu'elle me lèche la trompe, baise la concurrence C'est Nek et Alphonse, fume la zeb' la skonk Le temps c'est de l'argent donc j'guette ma montre Elle peine à compter puis laisse-moi pioncer Les vers menivrent, mes textes s'empilent Je n'ai que l'envie de vivre mes rêves en ville Excentrique et presque sans bitch, j'peux finir dans l'basement Ici, c'est stressant et étrange mais j'reste tranquille Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? Roule la verte, bouge la tête Trouve le rêve, who's the man ? La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner La vie, une pute et puis tu pars, pour ça qu'on s'rabat Parce que tu sais jamais quand tu vas caner, babtou Prend tes rêves au vol comme un gamin des rues Défaite trop folle sur des fonds pas bien durs Mais c'est notre quotidien, il est instable et merveilleux Il attend pas les chèques des vieux C'est une galaxie qui s'réctracte, mec S-Crew, L'Entourage, Alpha Wann, Abou, on dit quoi ? C'est comme ça, mec, attrape tes rêves Basement Beatzz20</t>
+          <t>1.9.9.L S.P.R.G, Blue Flame Gang Hey, petit, hey... Rentre pas dans l'Rap, le bail est crade, c'est un panier d'crabes Pas l'temps d'regarder les autres bailler Moi, quand j'écris, le cahier crame Tu sais que j'suis un des vrais Si quelqu'un s'occupe bien des frais Avec mon équipe, on atteint l'Everest C'que dit Flingue est vrai J'voulais faire un gros son sur mon Blunt Phillies mais Ici, les chanteurs à la Jean-Philippe Smet finissent maîtres Le fait qu'ils fassent encore du biff m'égare, la France est Au ralenti comme Keanu Reeves quand il esquive les balles J'suis l'Neo d'cette matrice, crois pas que j'blague, mamen La France est conservatrice, son Rap n'échappe pas à la règle Marianne a pris du sizzurp mais les choses se pizassent Hoes down, G's up, on apporte le Gildas On apporte le Gildas ! Gildas, on apporte le Gildas ! Don Dada, Don Dada Tout ce qu'il t'faut, négro Retour des shinobis mais crois pas que c'est l'fric notre pilier J'compte plus les rivaux pliés encore immobiles On a appris notre biz comme Nino B., Jack City Faut qu'on s'lance dans l'immobilier, faut qu'on multiplie nos billes Ils croient qu'les paillettes et les strass' vont aliéner mes srhabs Ils trouvent mes alliés détestables Ils s'disent Ça y est, c'est des stars On passe à base de tasses calientes, slash, variétés d'sapes On confond pas les Cayenne et les Smart Très vite, les bitch voient que j'évite les filles d'joie J'effrite et puis j'bois, si l'ennemi s'précise Très vite l'équipe s'équipe, méfie-toi On fait l'beurre, on intercepte le cash, ton espèce De garce veut réchauffer mon cur et mon zgeg de glace On laissera les archives, ouais, Phaal gifle J'envoie les dragées, j'les laisse à l'état léthargique Trop d'écart j'les calcine, les gars s'écartent vite On est classes, on te-cla les gares-ci J'appelle ta pétasse Bécassine Oublie la paix, kho, on monte de 0 à 100 Verse pour les fréros absents pendant l'apéro9</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Du sexe opposé</t>
+          <t>1, 2, 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jsuis défoncé, parlons du sexe opposé Alph' Wayne, Nekfeu, ça dit quoi ? 1.9.9.5, LEntourage, yo Du sexe opposé, roule un cke-tsi Tchiguidi check, yo Basement Beatzz, motherfucker Jsuis le négro qui aime lcke-tsi le et lcro-mi Pour un petit 06 jfinis a Fleury-Mérogis Obliger dplaire aux biches car même les blaireaux kiffent Mes hiéroglyphes, ouais, jrappe darement, jsuis le néo-Big L Niveau drague javais des petites lacunes mais jai la cote Dans lHop-Hip donc jai le code pin ma puce Et ta coquine, la cradosse fine, tsais la grosse bitch Elle a checke ma bobine puis jai doggin' la pute Jme rappelle de Charlotte, une noiche moche et grave bonne Avec un tas de gloss, elle habitait vers le Val-Maubué Et dans mes rêves, jlui cravachais ses fesses mais, en vrai Elle m'recalait, disait que jétais pas assez gangsta Maintenant la tass' voit mes clips passer Lassée, elle kifferait avoir dans sa trachée ma verge Oh ! Jai un peu d'talent, le flow, petit, j'maîtrise Mais jme dis que le buzz ca rend beau, oh ! Il mfaut la Benz, jsuis un cro-ma mais je Nai pas de gros label, suce-moi, ouais, jsuis un pote à Nekfeu Jaime les uc's, le sexe, les putes de lEst Mais flûte, tu peux le dire à la une, yen a quune que jaime Plein de petits textes sismiques, jrêve de belle miss fines Pour faire des petits films dignes d' XNXX Seuf, seuf, seuf, seuf... Cest pas c'que jélabore... Big up à ceux qui niquent la même fille vivent la belle vie Moi, jcherche à gner-si un deal à 16 chiffres Seuf, seuf, seuf, seuf... En vrai, je les adore... J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Même si cest rare, jaime les femmes hyper sceptiques animales Et pleines déthique, blindées d'tics, celles qui fixent à limage Les filles des astres aux regards tristes réceptives à ce qui spasse Les fines, les grasses, au rôle dartiste et les divas qui gardent De lesthétique avec lhabillage sélectif, amicales Et gêner dvivre frénétiques quand cest la flicaille qui passe Celles qui kiffent les Hip-Hop secrets et maîtrisent la guitare Mais y'a qule fric qui toffre de belles perspectives maritales Certaines le savent et manient des charmes mystiques Et pleines de hargne, condamnent ton âme à plusieurs décharges sismiques Si cest ça l'coup d'foudre, autant crever maintenant Nan, jai pleuré un temps, maintenant, jsuis grand, j'fuis les amours troubles Autant se pendre à une bretelle de soutien gorge Même les gros bonnets en ont dans le ventre pour assouvir un corps Ta première déception, tu ten souviens, nan ? Mais quest-ce quon était cons à être honnêtes et bons Mais jai frotté léponge, cest bon, faut qutu moublies maintenant Cupidon, stupide con, t'as fait sauter mes plombs Si cest ça l'coup d'foudre, femmes, restez loin de moi Je vous prie, mon cur en a bien marre des loopings Jpeux faire mouiller les midinettes en talons Jpréfères touiller dans les dinettes sauce épicée dans l'caleçon Et ouais on est peut-être tous semblables On écoute notre cur et nos couilles quand, toi, técoutes ton crâne Cest le désastre, je taime car tu mépargnes pas Bourré de charme, en rée-soi tu téclates parfois Mais cest rare car, toi, tu es blasée Cest souvent grâce à toi que juse mon phrasé J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! J'ai des soucis avec le sexe opposé, mon cur a des bobos J'aime les lolos, les pipes avec un bédo posé Pour les belles formes des femmes ménopausées Je mets la gomme, je reste un homme avec un cerveau drogué, OK ! Balance un autre joint, balance une autre flamme Alpha Wann, Nekflamme, pour toutes les femmes, frérot Basement Beatzz, encore une fois bande d'enfoirés L'Entourage, 1995, on dit ce qu'on pense sans se foirer Pas de récompense, yeah yeah, c'est comme ça, frérot Astronomical Kid, j'suis plus fort que toi, petit bâtard Pour toutes les meufs, L'Entourage, les vraies et les tasses-pé S-Crew Pour ce jeu dévorant qu'est l'amour, brah brah ! On est bons...8</t>
+          <t>1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem 1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem Je fumais de la vieille beuh, j'étais en train de cailler J'ai entendu mon son dans une Porsche Cayenne bleue Je me suis dit fini d'bailler, faut mailler, ça y est Faut se transformer en Saiyan 2 La vie est technique, elle te met que des feintes de corps J'ai plein de cordes à mon arc, il faut qu'je blinde le coffre Je suis dans le vortex spatio-temporel, pas l'temps pour elle J'dois devenir un maître de la musique contemporaine On court dans tous les sens pour les loves J'oublie pas qu'c'est une chance de faire couler l'eau Jouer, j'ai plus l'âge en effet, là je t'fais un aveu Je suis aveuglé par la maille, je ne vois même plus les rageux Aucune de ces baltringues shoote, Flingue joue jamais Je suis au studio depuis cinq jours Respecte quand tu vois qu'le négro passe, de quoi ce négro parle Faut qu'j'te mette au parfum, moi je crois pas que ce négro palpe Non, rien n'sert de s'agiter, je reste sur les cadences T'es un flocon, je suis presque une avalanche Et c'est comme si j'étais Sagittaire, ouais J'envoie des flèches sur les balances ! J'envoie des flèches sur les balances ! 1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem 1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem 11, 12, c'est une course fonce, double 13, 14, 15, tu sais qu'elles adorent Flingue J'arrive avec ma bande, ou j'me déplace seul Que du liquide, du cool-al, du gent-ar et de la sueur Elles se prennent pour Nicki sur le dancefloor Quand leurs fesses frottent sur ton kiki, faut qu'tu restes fort Le DJ passe un son de Biggie, ça enjaille les diablesses folles C'est un vrai sport, on veut augmenter le score Y'a des zoulous, y'a des vikings dans mon escorte Ça roule des sticki, Ralph Lauren pour le dress code Mais là je recherche une poule, je fume pas ton shit naze Je recherche une gymnaste, elle va monter sur une poutre Qui on est ils le savent, dans la salle tout le monde nous salue C'est salace, ambiance Barcelone ou Salou Ça boit le whisky sec, ça sort la salade, ouais on s'allume À l'aise comme dans un salon, mes salauds s'croient dans un saloon Sur la liste des meilleurs, on n'est pas vers le bas Carré VIP dans les clubs, on n'est pas vers le bar Nan, c'est toujours officiel, quand c'est L'Entourage J't'étrangle avec les ficelles de mon durag 1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem 1, 2, 3, je prends la place qui me revient de droit 4, 5, si t'as la rage, il y a le vaccin 6, 7, 8, on s'occupe des racistes cette nuit Nine, ten, dédicace mon pote Aitem À l'ancienne, mon plan était court, les grands étaient cool Puis j'en ai vu plein lécher des glands et des couilles Un, deux, un, deux, cro-mi, test Les rappeurs j'leur apprends la politesse comme la police napolitaine Ramène des noirs, des blancs et des crouilles Des clans et des crews, il m'faut juste des planches, des gants et des clous Don MC, 1.9.9.L...6</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne le dis pas à ma mère</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alpha Wann, Nekfeu, Basement Beatzz Quand on débarque dans tes reilles-o ! Le dis pas à ma mère si tu me croises avec un pochon de gui Ou une potion, elle aime pas trop ces cochonneries Fais attention, c'est Alph et Nek, ça s'passe à Paris Ça s'passe pareil pour chaque gars de Paris Moi, chaque matin je bannis les sales tasses de la veille Et là, j'pars me laver, mon gars H m'as ramené Un tas de salsepareille passe, passe la zeb ! Et ça secoue le grinder en parlant plan cul et philo Faut que j'retrouve le lighter, mon clan tue les micros Je t'explique rien de bien compliqué, on vient à plein pour kicker Si c'est Nekfeu dans ta ressoi, tiens bien ton briquet Les merdes viennent s'imbriquer Mais les miens restent impliqués dans l'bien Et c'est rien d'vendre des joints à un criquet dans lcoin On n'est pas libres donc je fraude tant qu'je peux Dans le trom, ya les cops et jai mon pochon de beuh Jessaie dêtre cool, jai planqué sous mes couilles mon amnésia Le chemin d'cent plombes de Simplon jusquà Alésia Retard sur la ligne, une connasse fait un malaise Ya des gueta de ma team sur les rails donc jsuis à laise Yo, it's a shame ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta ress, on vient pour mettre le faya Le dis pas à ma mère ! Jsuis le best, jaime me vanter ainsi, les français insistent Pour big up leur ville, jme lève sur un banc vers Saint-Mich' Ouais, cet été cest comme les RTT, merde A cause de lherbe, jai merdé, jai RDV Vers les quais pour un dièse CD Besoin despèces, fini d'jouer, je tèj les dès Elles aiment pas comme on évolue, nos mères Sont sceptiques malgré nos techniques révolutionnaires On sprépare vite avec les keufs, cops ! Metal Gear avec les leurres, fuck ! Et dans ltrom, on gratte nos couplets en fait Bourrés en tech, dans cinq piges on va cruiser en Benz Mais pas de vie de star, Phaal fait tellement l'maquereau Quil marqua des poissonniers comme sur la Ligne 4 On peut dépenser une paye en une night Nique les boîtes cest walou besoin dun banc et dune teille ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère ! On veut faire taire les petits cons, une balle dans le derrière Les dead dans une clairière à Verrières-le-Buisson Paris ! Ville des haineux, types dédaigneux Fais fumer ! Relax sur le spliff, tes P2 Cest le Phaal Ils rêvent de mavoir mais, moi, en fait Jsuis en quête de ta maille et donc ? Je men pète de ta face, représente l'Entourage Jai vu des tentatives de meurtres de Commerce à Rambuteau Donc embrasse ta mère, petit con Quand elle te dit Tu rentres plus tôt Moi, jsuis parti à 17 balais, javais quune envie, cest caner Vanné par le lycée, fallait que j'accède à mon idéal Et ça fait cette merde perdurera Jétais connu dans Paris avant de faire du peu-Ra Mon reufré jespère que tu me crois Jétais connu dans Paris avant de faire du pe-ra Et ça fait... ×2 Nekfeu-Phaal, on fait des trucs de mecs de Paname Tu nous a vu dans des fêtes de malades Nous, dans ta réss, on vient pour mettre le faya Le dis pas à ma mère !3</t>
+          <t>J'commence par marquer un temps yeah yeah Confonds pas un arc et un tank yeah yeah yeah C'est moi le meilleur et les rappeurs le savent, le public l'acceptera Noir à lunettes, Kenzy du Secteur Ä J'suis dans l'espace Schengen, dédicace JayJay, Take-Take, Troismillesseudi, KayKay, Rang Pang Tang Lève la main, tu parles au Don, une menace à la O-Dog Connu ici et là-bas aux DOM-TOM, j'arrive comme Lamar Odom Mille cinq cents par jour, les baby gangstas veulent dev'nir des OGs Mille cinq cents par jour, bourgeois et yous-vo' veulent du gros chiffre Mille cinq cents par jour, rajoute ma renoi n'porte pas d'rajout Elle s'la joue grave sur les réseaux, même les rageux l'ajoutent Mille cinq cents par jour, mille cinq cents discrètement comme les p'tits fours Mille cinq cents par jour, mille cinq cents comme chaque matin chez Difool Mille cinq cents par jour, mille cinq cents comme les négros dans Paid in Full Mille cinq cents, mille cinq cents, mille cinq cents, mille cinq cents Mille cinq cents par jour, mille cinq cents discrètement comme les p'tits fours Mille cinq cents par jour, mille cinq cents comme chaque matin chez Difool Mille cinq cents par jour, mille cinq cents comme les négros dans Paid in Full Mille cinq cents, mille cinq cents, mille cinq cents, mille cinq cents On joue en club comme des footeux, à l'hôtel, on coupe la poire Quand on arrive, elle est à nous la boîte, mes loups aboient, amenez-nous à boire Crache le feu jusqu'à plus d'heure plus d'heure Don Dada, Seine Zoo, Super Super Je flex comme un bodybuilder flex Ils n'arrivent même pas à ma bulle d'air J'suis un Dany, j'suis un Fabe, M.O.B.B., flow infâme J'éclaire ces négros comme un phare, le shit est collant comme un fan un fan J'ai plein d'connexions, j'parle pas d'3G, je n'attends pas que les mains se tendent J'veux faire de l'oseille les bras croisés Mille cinq cents par jour, les baby gangstas veulent dev'nir des OGs Mille cinq cents par jour, bourgeois et yous-vo' veulent du gros chiffre Mille cinq cents par jour, rajoute ma renoi n'porte pas d'rajout Elle s'la joue grave sur les réseaux, même les rageux l'ajoutent Mille cinq cents par jour, mille cinq cents discrètement comme les p'tits fours Mille cinq cents par jour, mille cinq cents comme chaque matin chez Difool Mille cinq cents par jour, mille cinq cents comme les négros dans Paid in Full Mille cinq cents, mille cinq cents, mille cinq cents, mille cinq cents Mille cinq cents par jour, mille cinq cents discrètement comme les p'tits fours Mille cinq cents par jour, mille cinq cents comme chaque matin chez Difool Mille cinq cents par jour, mille cinq cents comme les négros dans Paid in Full Mille cinq cents, mille cinq cents, mille cinq cents, mille cinq cents Mille cinq cents par jour, mille cinq cents par jour Mille cinq cents par jour, mille cinq cents par jour Mille cinq cents, mille cinq cents Rang Pang Tang Gang Ah ouais Fuck un flash à Paname, j'suis à Jérusalem avec Jéroboam On n'est pas sur l'même canal, toi, tu gères quoi ? Toi, t'es qu'un p'tit gérant d'boîte Jeune bûcheron traque le sky dans des verres en bois J'suis comme ce révérend noir, du Kentucky, j'ai quelque chose de vénère en moi J'ai la barre, j'enlève le peignoir, elle vient me peigner dans la baignoire Me parle pas d'grigri, j'viens du Bénin, renoi, j'viens de là où tout est noir L'attention s'atténue bitch, montre-moi tes seins, montre-moi tes nudes MC, montre-moi comment t'es nul que j't'explique Deux s'condes que j'expire, tu m'demandes quand j'vais lâcher l'spliff J'suis dans c'milkshake, mélange le Molière et l'Shakespeare Buf carottes dans la tambouille, mets du houmous dans mon casse-croûte Zitoune, dattes deglet nour, j'suis prêt pour l'Ftour, j'suis pas Charlie, j'suis pas Kouachi nan On mélange pas p'tit pois et pois chiches, j'allais au casse-pipe, toi, t'es pas chiche J'suis dans les backstages et les bakchichs J'veux conduire la Bentley dans Bethléem, j'veux conduire la Bentley dans Bethléem Livres sterling qui tombent dans la bank, récupère les shekels dans la caisse J'veux conduire la Bentley dans Bethléem, j'veux conduire la Bentley dans Bethléem Livres sterling qui tombent dans la bank, récupère les shekels dans la caisse J'veux conduire la Bentley dans Bethléem, j'veux conduire la Bentley dans Bethléem Livres sterling qui tombent dans la bank, récupère les shekels dans la caisse J'veux conduire la Bentley dans Bethléem, j'veux conduire la Bentley dans Bethléem Livres sterling qui tombent dans la bank, récupère les shekels dans la caisse2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flingue &amp; Feu</t>
+          <t>3095 pt2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, hey C'est flingue et feu feu et flingue ! Han, han Hé Lo', ferme la f'nêtre, Paname crame Vas-y, monte ton truc enfoiré Yeah, faut qu'on entende J'traite mon argent comme s'il m'devait de l'argent J'le claque ou j'le jette par les fenêtres et j'oublie tout à part les dettes J'traite mon argent comme le siège de la Golf, quand on est plein je l'avance Quand on est peu je l'allonge, on rêve du ciel de la Corse Pas d'Ferrari, j'ride jusquà Saint-Jean-Cap-Ferrat Dans mes poches un tas d'ferraille et on verra Fuck la Jet set, j'écoute Jet Life sous Get 27 Et si un jour j'me jette dans l'vide, ce sera d'un jet Jet ! Jette ça ! J'dois bien ter-chan, faut qu'ça flingue les jambes Fuck, j'suis plus légendaire que plein d'légendes Va dire aux putes qu'on connait nos mémos Quand le skin a les genoux au sol Enchainer les pénos comme aux tirs au but J'suis dans Bérize, y'a des intempéries Des renois qui s'croient dans Belly Yeah Y'a plus qu'des faux gangsters sans intérêt, ils disent plus rien dans leurs textes Respect à ceux qui soignent la plume dans un terrain de leurs tess' Moi, y'a que sur scène que j'me donne en spectacle Mets-toi sur l'tec', j'débarque avec la tech d'Inspectah Deck Respecte-moi, j'suis comme toi, j'aime pas les decks Entre jeunes on s'guette mal, à croire qu'on s'aime pas Futur médecin et frère en SEGPA s'lèvent avec un Smecta Parce que chez nous s'mettre bien, c'est s'mettre mal Mec, c'est déplorable, plus j'cogite plus j'aime le rap Mais j'veux plus perdre la mémoire Y'a tellement d'moments mémorables Et j'ai toujours la même morale De nos jours c'est tellement rare, kho 1.9.9 Wesh, Flingue, tu dis quoi ? J'entends, j'analyse, j'suis un mentaliste yeah J'suis là pour au moins cent ans, il est grand temps d'balise Comme Denis j'ai la malice, j'veux les merveilles comme Alice J'allume de l'encens, j'bois ton sang dans un calice Comme les sociétés secrètes, ouais, au fait, j'déteste Quoi ? L'alcool à l'anis, quoi d'autre ? Prendre le Thalys Et puis ? Quand mes gars n'sont pas sur la liste Pourquoi ils haïssent et salissent ? C'est drôle Ils sont moelleux comme le pain d'mie Harrys J'suis celui qu'ton équipe redoute, que des triple-doubles On les dribble tous, motherfucker J'ai consommé plus de substance que la famille Osborn J'ai trop déconné 'vec ma santé, j'me suis remis au sport Comme aç, faut stop le kamas, un jour on s'soudera C'qui compte en vrai, c'est ni le kama-sutra, ni avoir la meilleure caisse On vit à l'heure new-yorkaise, ça fait un gros décalage Les haineux veulent tacler, ouais, à la William Gallas Ou m'trouer l'corps comme Tupac à Las Vegas ou Kennedy à Dallas Wouh ! C'est chaud, continue ! Des princesses m'envoient des photos, elles sont dans leur palace C'est la rançon d'la gloire, moi, j'veux la rançon tout court Ouais, ouais, faut qu'ils khalass, j'suis pas là pour être dans l'décor On envoie les amateurs à l'école, Don Dada Records On a les prix sur les tissus, on s'triture Pour esquiver la patate, quand ça sent déjà la friture Pour ça jprie dur, faut séloigner du F Frrrrrémont ! Aucun Frémont, mon truc est très G, arrêtez d'lécher cest péché Sils font des sons chauds, dès qu'je rappe il smet à neiger Ste plait, laisse les vrais MC niax, passez-moi les petites masses Vous êtes comme le Pepsi Max, en gros, vous êtes légers Sen sortir, pour mes camarades ce nest quune idée Trop dcamés, jobserve la rue comme une caméra dsécurité Le racisme éparpillé de partout On ma djà dit Jmen fou dtes plans Mais jpourrais te ter-plan parce que tes blanc Et tu fais rien à part de plaindre Pendant quon pète les portes dées-blin Le futur est à portée de main Des nouveaux flows, jen ai apporté plein Tant mieux si les petits aussi msuivent, deviens pas tout rouge Jécoutais Lunatic à 12 ans, et jécoute toujours Les mecs à lancienne, à leur époque, ils étaient modernes ouais ! Donc jessaye dinnover avec mes potes en restant modestes Han, Don Dada, Seine Zoo Jihelcee, Supersound, L'Entourage, yeah Paris Sud, va falloir rembourser l'tos-ma, hey18</t>
+          <t>Wes Han Elle sait qu'le message est reçu reçu, elle sait qu'le message est précis ouh On sait qu'le message est précieux, pour la monnaie, tout est pressé pressé, ouais Parler, ouais, olé, t'es où, frère ? Tu d'vais décoller ouf On m'le disait trop, maintenant, t'es où ? Tu m'fais rigoler ah J'ai cherché le perfect yeah, éventuellement, il me trouve j'l trouve direct J'suis Luffy, j'suis Goku, j'suis Naruto sans besoin, l son me prouve j'le prouve direct Expérience et pas rite rite, on dirait qu'j'ai vécu moins d'temps mais j'ai fait évolué la rive Poto, j'dis Trappes mais dans le monde, c'est Paris Paname J'me parle à moi-même mais ah mec, le poids de ma vie, c'est des barjes Faut faire doucement quand c'est aride, Rang Pang Tang Gang, on écrase Et sans faire exprès quand on marche, c'est matrixant ceux qui essaient arrivent J'vais pas changer, c'est la même, que Dieu m'en prête vie wouh Que j'arrive slide en net que j'arrive slide en net, net Que la vie m'ouvre les portes d'une big fenêtre d'une big fenêtre Comme montrer qu'c'est mes nèg' comme montrer que c'est mes khos, wah Comme choper cette opportunité, mec, hey Vas-y, t'sais quoi ? Au calme, moi, t'sais quoi, j'vais rapper après Ben vas-y, envoie l'casque Dis-leur Selman, hey chope ça Je me vends pas comme Cactus Jack, j'pique dans la caisse du rap Les jobbers jobbent, les jacteuses jactent, New Don Dada, j'achète deux d'chaque Check, assez de tchatche, pas de bouteille de Jack waw J'veux des montagnes de thiéboudiène tiède et la défaite du diable Check, how, pourvu qu'mes poumons tiennent dans la lignée Boumédiène La lutte est un beau métier, j'espère le bien pour les tiennes J'les termine comme un prochain thème prochain thème J'éternue quand j'approche un traître J'ai fait le sport pour l'été, j'bombe comme James Bond Bon, j'suis en gestation, faut pas changer d'station eh T'es adulé pour ton rap entre guillemets sale entre guillemets Moi, j'crois qu'on est comme on rappe et j'contredis les stats Par contre, j'remplis les stades ouais, j'oublie pas Philistine C'est pas la marque qui fait le style, j'rappe depuis Lady Laistee Pas d'compliments qui fait l'estime, Dada Don, Dada hi, Dada Don Je vous l'ai mise, y a pas de texte, tout dans le fame Y a que du fake, y a que du fake, y a que du fake, y a que du fake Y a que du fake, y a que du fake Mixtape C'est le leadership 'ship, Philly Flingo dans cette shit shit LV, Prada, Double G G, à Conakry, faut la Jeep la Jeep Moteur bruyant, les pneus crissent, j'ai la carte bleue, pas la grise À Los Angeles dans les hills, plancher rayé par mes grillz En primaire, j'lisais le Quid hey donc j'réponds à tous les quizz les quizz J'suis connecté dans le Queens new-york, j'aime que les fesses et les couisses En plus dans ma ville, en plein été à chaque heure, y en a mille C'est dur de rester tranquille, ce soir, RDV à minuit pile devant Buffalo Grill Eh, eh T'inquiète pas, t'inquiète pas Si si, Philly Flingo le fauteuil wesh Let's get it quel bail chacal Eh, t'as capté ou pas ?</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aux portes du succès</t>
+          <t>​aaa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen Let me please introduce you to two of the most amazing MC's of all time. Even if they opened the doors of succes, they are still chilling... Tu sais mes forces me téléportent Et m'épaulent aux portes du succès Mais lorsque j'ai des potes au dehors, je dors plus, tu l'sais J'ai beau me mêler aux médias, pour les porcs j'suis suspect Marre de tous ces corps subjugués J'pars me promener vers d'autres états Ici, c'est moche, ils vident tes poches, ils rient d'tes proches Si l'illicite visite les halls c'est qu'ils imitent les vidéos sisi Qui milite comme Eazy E sur vinyle ? Oui oui, c'est bibi Pas d'timinik sur BBC, lélixir fixe cent milles visites En moyenne sur mon Facebook donc j'ai pas besoin de télé Et tu m'croyais sûrement casse-cou mais moi j'crois que j'suis fêlé Peiné de croire que le biz de musique ne soit que vice de rue Les pires ceurs-su aux tristes ruses De fils de pute pensent qu'ils te grugent Mais j'ai tous mes plans en place Le gent-gent se fait sans entrave Tes gens vendent des textes d'enfants J'rentre en guerre, à l'indépendance place Tes projets minables, j'vais les bousculer, t'façon On s'est mis à tous fumer à fond Couz', j'veux ma dolce vita C'est pour mes barjos de Paname, mes gadjos de l'asphalte Qui manient l'argot de la DASS et arrivent à tordre la basse Que je n'fléchirai pas, que je déciderai chaque fois De vendre mes idées barges, j'rappe en dépit des lois On arrive aux portes du succès avec nos ganaches de gamins Mais tu m'as peut-être vu sur scène ou avec Alpha le matin Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain On arrive aux portes du succès Mais tu m'as peut-être vu sur scène Vu que c'est dur au quotidien, on profite bien de nos petits coins J'prends toujours le Noctilien, j'écris toujours de jolis refrain Mets de l'eau dans mon vin, du flow dans mon refrain Dès que j'peux, jagrippe un mojito et fume comme un toxico Mais pas de chorizo dans mon pain, j'arrive incognito Au comico', aussitôt j'envoie ces nigauds dans les hôpitaux Tropico, stylo-micro dans mon coin J'suis pas un to-mi gros mais parmi tes homies trop d'tchoins Y'a l'règlement donc pas d'entorses, allez, hop ! J'viens chanter fort du Hip-Hop, yo, c'est encore une option Vraiment, les gars en loque qu'avec des locks, dans les box Vendent aux tox, yo, toutes sortes de loksons J'ai toutes sortes de problèmes existentiels, comment sera Mon domaine, mon château, ma Rolex présidentielle ? Avec le succès, ce n'sont plus les mêmes À l'époque, il butait les MC's et offrait des chrysanthèmes Avant, il bifflait des tas d'mecs, ah, ouais, je l'admets Mais aujourd'hui, il va pour skier vers Aspen Le succès, c'est un tour d'passe-passe, ouais Avec des tass qui s'tapent pour des passes backstages Doucement, quand tu viendras parler à Wann Alpha Car les aléas de la vie ont fait qu'il vit aux Baléares J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Ouais ouais ouais ouais Ouais ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre, tu l'sais, ouais, Phaal est con Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon J'veux l'succès, pute nègre Tu l'as pas cru mais, ouais ouais ouais, notre squad est bon 4</t>
+          <t>Oh my God Hey, hey Tous les quartiers du XV Hey J'ai mis tout l'premier album dans l'tos-ma Vue large comme sur le Boulevard d'Haussmann, ma ville est bâtie au-dessus des ossements J'suis qu'un homme, j'pardonne même quand mes soss mentent J'suis avec mon frère, ça, t'as dû l'voir, c'est pas un pompier mais c'est un soldat du feu Du rap hardcore mais j'suis mal à l'aise quand y a des tits-pe qui chantent à tue-tête Soit t'as du talent, soit t'as du flair, soit tu t'aides, soit t'es sous tutell Soit tu t'tais soit t'ouvres ta le-gueu ma l-gueu, fais deuss avant que tu dead M'éloigner des associateurs, me rapprocher des associations On ne recrute que des gens corrosifs, on veut pas d'molassons, on veut pas trop d'acteurs Tu sais déjà si j'rentre dans l'histoire, ce s'ra en équipe, je veux pas rentrer seul Une Rolls Royce, ça s'fait en six mois et une Toyota, ça s'fait en treize heures J'm'en bats les reins d'la chanson d'l'année, c'est pas celle qu'on écoute dans l'allée J'm'y suis frotté quand il fallait, petit blanc affamé nique un blanc affalé J'regarde mon village de la falaise, depuis des millénaires dans la vallée Faut des gens derrière si tu dis qu't'as raffalé, ta facade et ta fierté seront ravalées Je reste dans mon coin, faut gérer mon cas J'parle pas de sentiments d'vant des javons qui n'en ressentent aucun J'rentre pas dans vos cases Y a une voix qui m'dit faut pas que tu partes avant d'avoir dit fuck les bacqueux du XV Donc voilà fuck les bacqueux du XV Dans les coms des fans, y a un côté SM, j'suis toujours le même comme Hugo TSR J'suis dans le maquis, t'es du côté SS et l'Amérique, faut la boycotter la-celle, hey J'm'en bats les reins d'la chanson d'l'année, c'est pas celle qu'on écoute dans l'allée J'm'y suis frotté quand il fallait, petit blanc affamé nique un blanc affalé J'regarde mon village de la falaise, depuis des millénaires dans la vallée Faut des gens derrière si tu dis qu't'as raffalé, ta facade et ta fierté seront ravalées Tu veux faire comme Phaal, tu veux faire comme Nek, tu veux t'faire connaître Mais t'es plus l'même quand tu t'fais r'connaître, du coup, c'est plus toi qu'est connu, c'est un autre Don Dada, Seine Zoo liés comme un nud, j'étais un vrai, j'avais même pas un an un bébé J'crois à la paix mais j'crois pas en l'ONU Certains vont à l'école en pirogue et d'autres vont au casino en Ubercoptère Moitié plein ou moitié vide, moi, j'vois le verre comme tel j'vois le verre comme tel Vous êtes l'Amérique, nous, la Corée du Nord, vous êtes les Bush, nous, c'est les Kim Ta chaîne YouTube a goûté les clics, chaque fois qu'j'te vois, t'as une nouvelle équipe bizarre Chelou ça, nous tu connais Philly Flingo, Philly Fuego C'est l'agent K, c'est l'agent J Paris Sud seul, c'est la Géorgie Projet commun sortira le jour J Let's get it6</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>En soum soum</t>
+          <t>À deux pas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Société te laisse des pauvres miettes Te fait grailler des coquillettes Te fait rêver d'Audi TT, t'met des grosses disquettes Avec mon crew d'fou on s'met en soum soum avec des poules Toutes nues, sous-vêtements froufrous mais bouches cousues J'travaille moult flow comme le gars de la Cool Co Sapé en Cousteau, ouais, nous, on parfume la couche d'ozone De bonnes odeurs du Mordor à Porte d'Auteuil Globe Trotters avec le style de vie de Tom Sawyer On observe par le périscope et puis le peuple vérifie Ça vient du 15 comme Périchaux, on m'appelle Huckleberry Finn Mon territoire est dérisoire mais mes rappeurs te terrifient Après dix spliffs l'après-midi, les vraies histoires j'te certifie On squatte encore les halls façon On and On J'ai fait la cigale dans un sous-marin jaune John Lennon On rêve alcool et monnaie façon Corleone L'effet de la zik me recouchera bientôt, nan, j'déconne J'te défie d'faire mes rimes d'hérétiques, trou d'balle hermétique Tous crament zeb et shit, ouais ouais ouais, ça vient d'Pernety Zoo Pas l'temps d'aller au Gibus On taffe la prose jusqu'à c'que l'produit tue C'est seulement là qu'on sort du Nautilus Per-ta le BM1, faut pas qu'on m'prête un flingue Le microphone j'ai la maîtrise, tu passes en CM1 Pourquoi ils s'entêtent alors qu'ils sont distancés ? Quand j'obtenais ma licence, ils se faisaient licencier Je fais les bails en soum soum car la foule me saoule Sous mes souliers sommeillent tous mes doutes J'veux pas qu'les sous me soumettent Donc je roule un bout de Buddah Bon, c'est vrai qu'j'suis sous beuh souvent Mais jamais à bout de souffle, je sens pas tes coups de coude En sous-marin quand on vous guette, juste un peu méfiant Ouais, j'suis malin j'prends de la bouteille Je suis juste un peu déviant Dans mon dojo ou sous les projos, j'ai mon mojo poto Même dans le zoo, je garde le croco sur le polo2</t>
+          <t>À deux pas de là Mmmh, à deux pas de là Ààà deux pas de là Yeaah à deux pas de là À deux pas de là Aaaah J'suis un mélange de principes et d'actions Je ressemble à ma ville Rare que j'passe une journée sans précipitation Au bord du précipice, je n'ressens pas le vide Le sourire crispé, la mauvaise parole s'propage, les écrits s'perdent On roule dans une Chrysler, grise neuve Ça parle rap, biz', entreprise, crise, meurtre Yeah Tu l'sais déjà ce soir, les filles elles sont terribles On traverse la ville et son périph' Ouais, la vie et son périple Atmosphère saturée de pollution Qui peut renouveler l'air ? Malgré la peur, on ouvre les lèvres J'ai l'souv'nir d'un rappeur d'une nouvelle ère Le crime à deux pas Loin du climat de paix Il écrivait de tête, criblé de balles Parce qu'il était criblé de dettes Son corps sur un vieux matelas La vie et son périple L'ironie de Paname Ouais, la ville et son périph' Alors qu'à deux pas d'là À Porte Dauphine On envoie du jeu aux filles Envoie leur profil J'te l'dis d'office Ce soir y'a beaucoup d'idiotes Swag, Fendi, Gucci, Dior Faut qu'elles se méfient des loups qui dorment Faut qu'elles se méfient des loups qui dorment Sous leurs griffes des los-ki d'or C'est l'heure Sois généreux, pas comme tous ces salauds qui donnent les leurs Regarde un peu ce que tu deviens T'es ingrat, tu bicraves ton âme au diable dans un pochon de 21 grammes On pleure ceux dans l'au-delà Mais les morts ne versent pas de larmes J'ai vu le lâche les bras tendus par le poids de l'arme Soirée arrosée dans Paname et à deux pas de là À deux pas de là, tué à deux pas de là On pleure ceux dans l'au-delà Mais les morts ne versent pas de larmes J'ai vu le lâche les bras tendus par le poids de l'arme Soirée arrosée dans Paname et à deux pas de là À deux pas de là, tué à deux pas de là Ah, quand est-c'qu'on assume, hein ? J'ai vu autant d'humanité chez les animaux Que d'animosité chez les humains Autour du matelas on attend l'docteur Pendant qu'des hommes naissent, d'autres meurent Ah, quand est-c'qu'on assume, hein ? J'ai vu autant d'humanité chez les animaux Que d'animosité chez les humains Autour du matelas on attend l'docteur À deux pas de là des hommes naissent, d'autres meurent Sur le périphérique à fond, on fait ça comme dans les films On s'arrête dans une station, on slalome entre les files J'pense encore à cette belle femelle J'reçois un SMS du tieks, un jeune est décédé cette semaine Pourquoi ils n'ont pas d'parapluie quand il pleut des balles ? Par respect pour sa famille, j'donnerai pas plus de détails Ah, quand est-c'qu'on assume, hein ? J'ai vu autant d'humanité chez les animaux Que d'animosité chez les humains Il faut qu'on s'serre les coudes Comme dans mon rêve où les renois Niquent les statistiques et redressent les courbes Niquent les statistiques et redressent les courbes Flingue et feu ! On pleure ceux dans l'au-delà Mais les morts ne versent pas de larmes J'ai vu le lâche les bras tendus par le poids de l'arme Soirée arrosée dans Paname et à deux pas de là À deux pas de là, tué à deux pas de là On pleure ceux dans l'au-delà Mais les morts ne versent pas de larmes J'ai vu le lâche les bras tendus par le poids de l'arme Soirée arrosée dans Paname et à deux pas de là À deux pas de là, tué à deux pas de là Ah, quand est-c'qu'on assume, hein ? J'ai vu autant d'humanité chez les animaux Que d'animosité chez les humains Autour du matelas on attend l'docteur Pendant qu'des hommes naissent, d'autres meurent Ah, quand est-c'qu'on assume, hein ? J'ai vu autant d'humanité chez les animaux Que d'animosité chez les humains Autour du matelas on attend l'docteur À deux pas de là des hommes naissent et d'autres meurent</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le retour du vrai bail</t>
+          <t>Alph Lauren</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nos sbires contre-attaquent C'est l'retour du vrai bail, Basement Beatzz Nique les clones j'te l'ai déjà dit Radar anti-costume vert dans le métro, activé On est bons, on est bons Radar anti-costume vert dans l'métro, activé On est bons, on est bons Radar anti-costume vert dans le métro, j'me balade sans micro J'pars en ville trop du-per dans le réseau D'la racaille sans diplôme Où les enfants te crachent leur rage quand tu joues l'bourgeois Mais T'entends le Rap de ma tribu L'Entourage, ouais ! Des têtes plus suspectes que la mort de Michael J'élabore mon accueil quand j'té-gra le bord de ma feuille On a trop d'ennemis, nous, mais nos Illuminatis sont inoubliables Filous comme Julian et hooligans comme Couliballi Là, je fournis la menace fantôme, les groupies, ça me lasse Quand j'pose, je parle de ça les pouffiasses se battent dans l'hall Accroupie, là, t'écarte ton minou minable mais n'oublie pas Que t'es soumise à moi quand tu joues la Zoubida, tadada Avec tes dialogues t'es pas cher aux sous-titrages, le soutif part Accroupies-toi, t'étais trop faya pour y croire, ouais ouais C'est bien le Nekflamme, le vrai gars d'Paname, bébé Des airs de Sheitan quand j'prépare de vrais CD Elle m'dit Mets-moi dans l'fond, j'lui dis Fais moi fond fond Elle m'dit J'ai pas d'tampons, j'lui ai gté-doi le bonbon J'évite les sales rencontres avec les tass-pé J'débite des phases dans l'ombre avec des face B Everyday I'm hustlin', les DJ amassent les Basses et les masses et j'passe réciter ma saleté J'vais effriter la sale zeb, et ça, la salle le sait J'ai de l'idée à manuvrer, c'est c'qui fait ma rareté Biatch à la taille de guêpe, là, ma jolie t'es bien fine Tu pillaves à ma table mais faut la majorité cainri J'me la raconte pour rien, les nanas fondent Mon anaconda de l'affront soudain N'aies pas la honte, j'suis même pas passé par la fonte, cousin M'appelle pas mon poussin, j'sors des catacombes d'Toussaint J'prépare ma ronde, j'me sens libre quand je fais du vélo Et j'ai fumé ma tige sur le quai du métro Léger, pour être protégé faut t'lever tôt PD Fuck les qués-cro, les pecnots, les mecs obsédés Oh ! T'es qué-blo, tes reilles-o se sectionnent Si les cops te questionnent c'est l'écho de mes flows Fêlés, j'porte mes fautes et j'dépose mes notes Et j'compte dans mes joies perso le berceau de Keïko, Neslet C'est L'Entourage, une meute de loups sauvages Et souvent tendres, le coup s'propage Pour que tous ceux à bout d'souffle m'entendent C'est l'retour du vrai bail J'déboule avec le sac à dos, à la Boba Fett, avec nous Cojak Prends du prozac, nique les autres adversaires J'lâche le gaz à Morad, d'la vie j'retiens Y'a beaucoup trop d'connards et surtout trop d'clones à Ken Nique les clones le blaster te brise les os... C'est la prise des croms Recherché par Luc, Yan, Chewee, j'avoue, oui J'ai buté un tas d'gouines sur Tatouine J'étais grave blasé, j'rencontre ses sales tasse-pé Au bal masqué, j'sors le plasma, le sabre laser J'découpe c'qui bouge, tout c'qui court s'fait shooter Celles qui prennent leurs genoux à leur coup se font couper court Des jedis, quoi ? Je m'en bats, moi J'suis Alph' Wann, le vrai Batman de l'Etoile Noire Mais bon, nique les schmits de l'espace Ma clique te laisse là, dans ta propre pisse de clébard J'adhère pas à votre école, après mon passage, guette Les corps d'hommes morts, moi, ma force vient du côté obscur Mais revenons sur Terre, j'suis l'frelon keus long Qui pense qu'y ait rien après au nom du Père Sur scène j'performe darement, j'me taille quand j'ai l'argent Puis je m'achète une paire d'Air Force basses blanches La merde est vraie, trace d'pneus, j'pilote le beat Tu t'prends pour Superman tu finiras comme Christopher Reeve J'sirote un Gin avec cet ivrogne de Guiz', normal ! Avec Abou, on s'isole et on roule un petit cône de weed La vie est une maison, checke le loyer d'son bail J'veux choyer mon time, avoir la maille de Dwight Howard On est parigots, amène la soupe qu'on lâche un glaviot On pisse sur leurs Grammy Awards et leurs radios Retour du vrai bail, yo, on fait les mailles Et bye bye, j'fly fly, adios ! J'viens faire affluer la tech', tu vas suer, voir une nuée D'buée, tué dans une ruelle parce qu'tu puais la merde J'suis une façade, un muret, depuis que j'ai mué j'suis impur Et j'cherche à être thuné, faire hurler des putes dénudées J'me suis juré sur mes prunelles de faire du son Pur et dur pendant ma durée sur Terre... Pute nègre !3</t>
+          <t>J'aimerais sourire plus souvent Mais ça n'serait pas sincère, quand j'fais semblant J'ai très vite mal au visage, mes zygomatiques se bloquent Igo, ma clique te botte, mes bicots trafiquent le pops Les renois sont rarement les grossistes Même dans le drogue game, on n'a rien On n'a pas le droit de dîner, c'est pour tous mes Halpulaar Gales-sène ou Maliens, moi, j'suis d'la Guinée Le sens de la survie est inné, il faut que tu m'ressentes Même si on n'a pas d'lien, mon rap c'est pour tout l'monde J'en ai rien à foutre, si t'es tous les jours au skatepark Si tu shootes pour des quettes-pla ou si tu joues au sket-ba J'veux juste que tu sois respectable Et qu'tu deviennes le spectateur de mon spectacle Jouez aux insomniaques, ouais Venez on teste, on verra qui veillera l'plus Dans leurs clips, ils chantent, ils dansent Mais ils rappent plus, moi pour faire de la thune J'ai juste besoin de mon oreiller et de ma plume Je marche dans la brume, toujours prêt à monnayer de la pure J'suis pas un négro philosophe Ou un négro qui joue au singe Pendant qu'tu achètes des diamants Pour la chaîne de ta chienne Je schématise, je complote pour la chair de ma chair Ceux qui vont pleurer si j'pars, ouais, si mon récit t'parle Achète pour que j'les achève mais n'me félicite pas, nan Les compliments, c'est comme la caillasse Qu'est-ce que tu veux que j'fasse avec ? Aucun d'nous retournera sa veste Pas d'veste réversible, Phaal fait et persiste À la fois brillant et flottant j'suis l'averse et l'éclaircie Alph Lauren, Alph Lauren Fais péter le champ, fais péter le chanvre Alph Lauren, Alph Lauren Quand ce noir chante, l'histoire change tu vois le genre ? Alph Lauren, Alph Lauren Fais péter le champ, fais péter le chanvre Alph Lauren, Alph Lauren, Alph Lauren, Alph Lauren Alph Lauren, Alph Lauren Fais péter le champ, fais péter le chanvre Alph Lauren, Alph Lauren Quand ce noir chante, l'histoire change tu vois le genre ? Alph Lauren, Alph Lauren Fais péter le champ, fais péter le chanvre Alph Lauren, Alph Lauren, Alph Lauren, Alph Lauren Je sais d'où j'viens mais je sais ap' où j'vais déboucher Si j'pratique pas ma foi je sais où j'vais débourser Pour l'moment j'fonce en Enfer, là j'prends un aller simple Chacun ses piliers, nous on a les 5 J'aimerais m'en aller sain J'espère changer avant d'atteindre le point de non-retour J'sais pas le temps qu'j'ai, les aiguilles de la montre tournent J'aimerais dire qu'j'suis mon seul ennemi Mais c'est impossible, regarde comment le monde tourne Le monde tourne... Ce p'tit deale un tas d'stup', on l'imaginait star du foot Il a r'vu son statut, il est star du four Il s'tapait des barres quand j'lui parlais Emploi Jeune Il faisait plus de blé qu'n'importe qui en 3 heures Sans vendre la drogue forte, comment n'pas virer fou Pour lui l'av'nir est flou, système scolaire fucked up Bref, il a pris du galon J'le voyais ballon d'or maintenant il dort au ballon Double P, quand ce noir chante l'histoire change Tu vois l'genre ? Dis-moi qui conteste, moi j'suis l'meilleur du comté Ma vie c'est pas un conte Et ma mère c'est pas une comtesse J'suis ambitieux et noir, je reste l'ennemi d'l'État L'échelle sociale fait mille étages La France veut qu'tout soit blanc et elle renie les taches Le navire coule, quitte-le Si ton job à Subway est ta seule bouée On m'dit qu'j'suis un renoi old school trop obsolète Mais j'suis deu-spee, je fonce comme la peau au soleil J'me lance sur l'tremplin, sans casque et sans frein Ce grand mince ne s'branle pas mais il s'prend en main J'ai les dents longues, j'suis pas Didier Deschamps Celui qui m'teste n'existe pas Comme l'égalité des chances, 1.9.9.L2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Final Flash</t>
+          <t>​apdl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Les bails sont fucking bons... Wesh, wesh Phily Phaal ? Ouais ouais ouais ouais ouais ? Faudrait qu'on leur montre un peu l'architecture du projet Tu vois genre, genre... Genre, quoi ? Comme ça, genre... On a taffé la rime, mec, demande à Phaal, c'est vrai Des phases mathématiques, maintenant y'a pas d'secrets On va plier ça, Alpha t'y vas ? Ouais, ouais La machine est-elle en place ? Fais-moi rimer ça en 4 syllabes Yo, j'connais Paris, l'argot, apprends la vie à d'autres Ta bitch a gobé d'la bite là-haut et tu brailles Ti amo On fait les contours, eux s'rasent la teu-cha Bébé, on couche, j'le sais qu'tu rêves d'Alpha nne-Wa Toujours ces bails féminins, moi, j'rêve de vacances, gros J'me verrais bien dans une baraque à Cannes Avec mes arabes à la baraque, tous les soirs à la plage Moi à la rentrée j'fais du rap, je me barre à Manhattan On ramène Barbapapa, fuck Nagui Taratata ! Y'aura d'la meuf ? Laisse ces merdes érotiques pour le summer On ferait mieux de chercher nos rimes Pour l'heure, j'veux les compter au triple Autodidacte au flow bizarre pour tes potes minables J'débite trop de syllabes, je m'en pète, j'fais rimer les hôpitals Prêt à tout pour la rime parfaite, oui, j'acquiesce Clic clac, vide la caisse, pète les plombs comme Disiz la peste Tu vaux pas un clou, tu veux percer, tu finis au pilori Tes rimes horribles sont inaudibles, tu te crois cool, t'es hypocrite C'est illogique les kilos d'shit Mais c'est comme ça qu'on vit nos vies Les minots kiffent nos styles hostiles et les lopes-sa profitent aussi C'est criminel d'être aussi dar Ouais, mon petit gars, j'pète le cigare Pendant c'temps là vas-y en deux syllabes J'ai du jus, man, me juge pas comme tout ces judas Chut ! On est pas des putains, tu vois bien qu'on tue ça Et dans mon plumard, je rêve d'être nulle part Je n'ai pas donné mon cul car tu n'as pas volé mon plumage On va tous canner trop tôt a cause des jokos Sur mon polo, des impacts de hasch forment mon logo Rappe la bouche close ou sous la douche, gros Car ça sortira pas d'la salle de bain comme Cloclo T'es au point Phaal ? En une syllabe Nek T'es au point Phaal ? En une syllabe Nek P'tite miss, file la Zip, bise, vite vide la tise Oui, titille ma bite sur Illmatic, telle est ma vie Si les vils-ci fixent mes iris c'est risky, j'me dis hihihi Si leur rififi riquiqui m'irrite jimite le ouistitis, si si si, si si si Lourd, gros ! Heu, bah, t'y es allé en i Ouais, en hi ! J'vais l'faire en i mais d'une autre façon OK, vas-y Chiggity check yo Ils guident les p'tits vers le vide, la vie qu'ils décrivent N'existe ni dans les films ni dans les livres, j'ai grillé les vices Qu'ils dissimulent dans leurs disques, playlists et disquettes Mec, j'ai d'autres pistes pour obtenir les biffs, fils, peace Hey euh... C'est comme ça qu'ça s'finit ? Heu... J'sais pas, nan Ah ouais ouais, on va encore continuer J'sais pas une impro, freestyle Petite impro ? Vas-y ! OK, heu... OK, faut qu'je balance quelque chose, mais là j'crois qu'y a rien C'est Nek le Fennek, approche-toi, chien C'est comme ça, tu vois bien que j'accroche la page C'est Nek le Fennek, tu vois bien que j'raccroche ta sale face C'est comme ça qu'tu fais face à Alpha Nek le Fennek et les phases de Malfra OK, c'est comme ça, y'a aussi le Mekra Tu sais que t'as qué-cra si tu voulais m'gué-dra Car je suis un mec intègre, un fennec, toi, t'es qu'un insecte J'peux m'permettre de te dire ça, je ne suis qu'un dique-sa Je rappe pour le freestyle, tu vois bien que je vibre, ah ! C'est comme ça mon gars qu'tu sais que j'ai la fibre, ah ! C'est Nek le fennec tu vois bien que j'ai mis ça Haut ! Donc c'est comme ça, j'en place une pour Khemissa Mohamine, mon putain d'pote de Paul Bert Rappe comme Colbert, tu sais qu'j'ai le col V Pour les soirées, tu sais, pour décolleté C'est Nek le Fennek, c'est l'oseille que j'viens récolter OK, c'est comme ça je rappe en soum-soum Et dans mon hall ça résonne, ça fait boum boum T'as jamais connu ça, jamais C'est Nek le Fennek, tu vois bien qu'tu fais face à la mer Car c'est comme ça, tu vois bien, on rappe ça à l'ancienne Balance ça dans l'ciel à l'ancienne, j'me répète C'est pas grave, j'suis complètement fracasse C'est Nek le Fennek, avec les potes on bédave Et c'est d'la putain de merde de finir comme ça Je suis tout contracté, j'suis comme un dique-sa... J'en peux plus... Bon allez... j'crois qu'c'est à moi, mon gars T'es à bout d'souffle en-ré-foi Chiggity check Alpha Wann, Basement Beatzz Chiggity chek yo, chiggity chek yo Alpha Wann, si j'veux je fuck ta petite sur J'vais la voir puis je lui rentre un finger Non, j'plaisante, y'a pas de truc de pédophile J'suis pas nécrophile, écoute l'égotrip Les gos kiffent, j'leur perce les nerfs optiques Alpha Wann au microphone, tu sais je checke, homie Tous les gens qui viennent Pour me voir, j'leur dis Moi j'suis Phaal Et sur l'instrumentale jamais je ne cale Et quand je rappe c'est comme un AK47 Alpha Wann au microphone je pars dans l'ciel Avec moi, un spliff de zeb, Alpha Wann Tu sais que le style je l'ai, ouais ouais Et il est vrai comme à Los Angeles Alpha Wann au microphone, yo, je sais que j'te blesse Tu m'as vu rapper dans ton canton, dans ton comté J'vais t'démonter ma chanson, oh, la dinguerie ! Va te faire kiffer, tu vas la sniffer Alpha Wann au microphone je viens pour kicker J'aime bien le beat, j'balance du style Alpha Wann te mange comme un motherfucking Snikers, oh ! Putain j'ai bafouillé mais c'est pas grave Tu sais que j'sais qu'je t'ai grave touché avec mes balles Elles sont pas fictives, rappe comme Fifty Alpha Wann c'est un pimp, oui ! Quoi c'est à moi d'finir le track ? Bah ouais, mon frère... Bah j'sais ap', mec t'sais en genre général dans les fuckings fins de d'album et caetera ils mettent des petits jactes à la fin, tu vois.. Jactons, j'ai envie d'jacter, c'est l'dernier track on peut faire ce qu'on veut... Ouais, jacter c'est bien beau mais j'étais parti pour une impro bientôt, mec... Oh, l'salaud ! OK, c'est comme ça, tu vois bien que jsuis bouillant Tu vois bien que c'est comme ça qu'on esquive les brouilles-em C'est Nek le Fennek, tu sais que je suis souvent Écoutant les mecs et puis après les roustant Dégoûtants, tous ces putains d'pédés qui jouent dans La cours des grands, c'est Nek le fennec t'es à bout d'dents C'est comme ça y'a Abou dans la pièce C'est Nek le Fennek, pas de tabous dans le sexe Je me balance, tu sais, je balance le sperme Nek le Fennek et la porte-cabine se ferme Je balance la sauce sur le micro, tu sais que J'ai le niveau qui étripe les rivaux, les nigauds, idiot OK, c'est comme ça, je raconte pas de pipeau, mytho Qu'est-ce qu'il s'passe ? Je squatte dans un petit hall Oui wo ! Je dis n'importe quoi Je fais des trucs cains-ri avec un porte-voix J'ai mon cahier qui fait du bruit, qui nique la prise Mais c'est pas grave, t'inquiète pas, y'a le spliff de weed C'était chaud. Et donc à part ça jactez, jactons jactons hein, mais tu vas te rendre compte près du micro que c'est un peu une galère Phaal, mec... C'est mieux de balancer des sauces rapologiques qu'on sait si bien faire... Ouais c'est ça, gros gamin va ! Basement Beatzz, putain d'expérience, mon soss, c'est comme ça qu'on fait les trucs,75éme Sess', SDP, Candy Cochonne, on fait les bails, L'Entourage... Vas-y j'clôture le truc pour de vrai cette fois-ci... Tu sais mon gars, c'est à moi d'reprendre Alpha Wann j'rappe, tu sais que ça t'enchante Les rimes, l'ABCD, j'les mets en chantier Alpha Wann lit son abécédaire, ouais J'vais t'éventrer comme Jack l'éventreur Alpha Wann tu sais je monte dans lascenseur J'vais tuer le boss, j'vais prendre son pez C'mec tu sais qu'je l'baise, il va se prendre des coups d'crosse Ça va le faire mal, je monte dans lascenseur Elles sont là, je vois des jolies tasses en sueur Dédicace à Nekfeu car c'est sa rime Mec, je m'active, fuck Marine Bref. J'crois qu'le truc est fini et vas-y faut pas non plus qu'ça dure 32 ans. La tape était bonne en plus, on va pas vous niquer le délire avec une seule track2</t>
+          <t>Vite, monte les vitres, augmente la clim' la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4 7-5, ces putains d'codes j'applique Vite, monte les vitres, augmente la clim' la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4 Don Dada mixtape Si tu fermes les yeux quand je rappe ferme les yeux quand je rappe, tu vois New York tu vois New York J'suis taillé dans du bois d'ébène, ces rappeurs sont taillés dans du bois de Boulogne J'ai le recul, la bonne cadence, les grandes capacités Alpha est une arme à feu piou, piou, sectaire comme la mafia mais j'fais pas l'mafieux Cosa Nostra J'essaye d'être moins superficiel, j'm'améliore mais j'pars de loin Les gens qui portent le plus de marques sont souvent ceux qui me marquent le moins J'suis dans l'rap jeu même si business est sombre, j'devrais être sponso' Smith Wesson Elle a kiffé l'veston accordé à ma paire de J.M. Weston Weston, Weston Vite, monte les vitres, augmente la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4 7-5, ces putains d'codes j'applique Vite, monte les vitres, augmente la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4 on y va, ces putains d'codes j'applique j'applique J'instaure un régime trop militaire pour être payé comme un haut dignitaire Nique roupiller, va chercher c'que le monde te doit, y a aucune barrière contre toi prends tout Deux cents visions, j'ai détecté l'indétectable l'indétectable Les Noirs à la télé sont pas respectés ou pas respectables Certifié disque roro sans entrer dans la playlist de Laulau nan, nan, nan Si j'l'ai fait, tu peux l'faire tu peux l'faire, tu peux l'faire, qualité en guise de promo Philly Flingo, le flow Opinel, enseignant niveau O.G. Maître Mon négro, protège ta peau, tu sais déjà il n'y aura jamais de lobby nègre jamais Si j'dis let's go, crie let's get it RPTG, c'est la gimmick RanPanTang Flow présidentiel, j'impose ma politique, mes baskets sont cools mais mon regard est strict Super Bowl lèche ma coupe, j'la fais tousser, elle a pas la toux À pas de loup swish, j'suis dans le bloc swish ou les spots, mon négro me pousse pas, j'emprunterai un Glock Vite, monte les vitres, augmente la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4, ces putains d'codes j'applique Vite, monte les vitres, augmente la clim', tu sais comment marche la clique à pas de loup 7-5-0-1-4, ces putains d'codes j'applique Tu sais comment marche la clique à pas de loup Tu sais comment marche la clique à pas de loup5</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lève-toi !</t>
+          <t>Barcelone</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S-Crew, lève-toi ! L'Entourage, 1995, lève-toi ! Lève-toi ! Lève-toi ! Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Chaque jour jgratte un kilomètre de mesures Toujours plus fort comme MJ quand il revient de blessure On tlaisse dans lcimetière, quest-ce ten dis ? Tu crois que jplaisante, cest Phaal avec le Basement Beatzz Yeah ! Cest bondé dshtars, les condés matent On veut les ronds, les mailles, concept dar On est schyzo donc on est 4, comptez- Nous parmi les bougs vrais smooth sous zeb fuku Nos couplets dfoolek soulèvent la foule, poulette Jvais faire sauter lAssemblée, lElysée Attendez lavancée d'ma rangé pour balancer la vérité Jordan Retro Fusion, héros du son Hé ho, ducon ! La révolution, sera télévisée Les péchés rendent lourd je mallège, nique la calèche Tu fais un malaise dès que jrime et kicke du knowledge La Benz, jen rêve depuis que je sais faire mes lacets Cest la honte XXX la belle est la bête Han ! Mon cerveau est mort dans l'film, jsais pas à quoi il joue Ces grippes-sou, moi ,mes bijoux jles porte dans lslip Jai vu le vice, ouais, cette pute de vie d'merde Te prends tes écus, sois pas têtu, réfute le système Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Le sample est cramé, on sen fout, cest gratuit Jme lève et coupe les ronces où les fous ségratignent, bébé Lève-toi, jai pas mal de refrain dcôté Jveux bien dtoi du moment que t'as un grain, beauté Il faut pas tcontenter du minimum Il faut pas quon senterre sous le niveau Cest pour les mini-mômes à qui on a pas remis d'diplôme Que jai pris lniveau pour dire la vie de la patrie qui chôme Mais pour les blédars usés désabusés des abus dcet état musclé Guette la rue, mec, cest abusé, dès que tas bu tsais plus tamusé Lève-toi, vis ta passion à fond Raconte-moi doù tu viens mais tendors pas sur la skunk Ni fils-à-papa ni futur te-pu mais jsuis un mac Donc si jte plaque ce sera juste sur le mur si jpète un câble Je divague vague, un jour le peuple se lèvera Il se rebellera comme le cur des belles dames Communément, jsuis comme un aimant Quand on me demande mon Rap comme élément Mais jai trop vu les grands, jai obtenu des plans Mais jai connu des gens qui te collent les dents Jvoulais quma vie soit comme un film, voilà, mais à c'point Les potes qui meurent, les sautes dhumeur, ça j'm'en passe bien Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes aux mecs posés sous ganja Lève-toi, oublie tes problèmes On jette des poèmes aux mecs posés sous ganja Lève-toi, la vie est trop belle On jette des poèmes, des graines de Fukushima Quoi d'neuf, partenaire ? Lève-toi, enfoiré ! L'Entourage, 1995, Nekfeu, S-Crew, Alpha Wann Yo, lève-toi, enfoiré !</t>
+          <t>Hey, la vida es compleja Y nos obliga a mejorar Como si fuéramos jugadores En un campo malo Tenemos que abrir los pasillos Y pasar la puta defensa del adversario Quand tu pèses, on peut pas t'faire taire, ni te censurer Tu gères les miss sensuelles, tu fais du bif, sans suer C'est une époque de fauves, tu restes une proie Pas de frères qui pèsent mais y'a des frères qui prennent du poids Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps On joue c'est le Nou Camp Ça parle sérieux quand mes, ça parle Ça parle sérieux quand mes gens s'captent On s'connecte, on parlemente, on politique, on pense cash Je sais qu'j'ai la chance, car Contrairement à plein j'ai acquis des rêves J'ai entendu la voix qui t'éveille la mienne Je lis entre les lignes quand ils maquillent les lettres Quand le manque de sous te rabaisse C'est pas l'savoir qui t'élève Alors tape des feintes, élimine-les Ils veulent te voir atteindre tes limites Faut faire comme le numéro 23, percer leur défense Faire qu'ils se repentent à g'noux Les élites tiennent le globe dans la main droite En plus on doit tendre la joue Alors charbonne ou plains-toi, ceux qui mangent du caviar Veulent qu'on mange de la soupe, mais souviens-toi Même sous un toit tu peux prendre la foudre C'est pour mon équipe Est, mon équipe Nord Et mon Paris Sud, le jour où mon équipe pèse On leur met tellement d'vents, ils auront l'nez qui pèle Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps On joue c'est le Nou Camp Prends les sous, m'en laisse pas À vouloir trop briller, on oublie la prière La vie, c'est technique, comme le foot en Espagne Faut bien t'affilier, quelle que soit ta filière Assume ton taf, assume ton job Oublie les tasses-pé qui sont sur ton zob Faut en épouser qu'une Gagner sa croûte c'est dur, sors et trouve cette thune Ne dilapide rien, cherche les bonnes routes Parmi les milles labyrinthes J'suis dans le sous-sol il faut qu'je reste au stud' Parc'que le prix d'la vie grimpe Et il faut que je reste au-d'ssus Je parcours ma ville, de l'est au sud Technique tout l'temps Nous quand on joue c'est le Nou Camp Dis-toi qu'j'te connais même si on n'a pas d'lien C'est comme si j'avais d'la mif' chez les RG Le monde t'appartient, mais, c'est triste Faut aller le chercher On prépare nos souvenirs de vieux, avant de fuir ce lieu Il faut découvrir ce que cette terre peut offrir de mieux Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps Nous quand, on joue c'est le Nou Camp Peu de frères qui gagnent, trop de frères qui perdent Dans mon équipage, pas de mecs qui pèsent Technique tout l'temps, on joue c'est le Nou Camp Todos jugamos un juego Así que mejor compararse a mejor jugador Y ya sabes que los mejores Pisan el Camp Nou en Barcelona</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,1219 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alpha Wann &amp; Nekfeu vs Jam &amp; PDox</t>
+          <t>BooskAlph-Lauren</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jespère quils sont prêts, ils vont se prendre la rincée de leur vie Checkez les bien les deux petits, rapper yinque des verses sweet pis nous flinguer de multi- Wô, wô, wô, articule, change de ton drette-là Cpas que cest pas bon, jaime ça, mais, tsais, les français quand on ne parle pas comme eux, bien ils ne comprennent pas Faque on va faire des signes, simplifier ce quon fait un peu pour quils comprennent bien à quel point on est meilleurs queux Jpense quils ont soudoyés Les Dépisteurs, cest pas eux les génies de lheure, ils se sont même pas démarqué dans leur petite ligue mineure Jen regarde un en toute honnêteté et je suis blasé, cest comme si tu voulais maffronter au hockey, pis juste de même en passant Suspek-T a gagné Yo, chill out, yo, yeah en France sont dix fois plus quau Québec, so what, on les pète une main dans le dos si on fait un tournois, pis dans le film vous êtes le romains nous on serait les gaulois parce quon est meilleurs pour clasher et puis rapper sur les beats, dony s le savait faque il est déménagé ici Ok, sérieux, jaimerais te souhaiter la bienvenue parmi nous, à toi et tous tes petits amis cools, pas trop déçu quon ait oublié dapporter le tapis rouge On a comme sauté létape du traitement royal, oublie la couronne, ta grosse tête prend de la place, pis si tes pas content, bien mange de la marde Yo, ce gars-là est big en France, riez pas là, jsuis mad sérieux Dans tous les magasins de Paris, vous pouvez acheter le swag Nekfeu Yo, yo, il va à un show de Triptik avec tous ses rebeus, quand Dabaaz la vu, il lui a dit coupe tes cheveux, coupe tes cheveux, yo, cest vrai, coupe tes cheveux Quand tu le sors de son bled- Je représente pas le Rap Contenders, mais la première fois que Phili ma appellé, jmen rappelle, jai racroché Jétais sur un tas de projets, jétais dur à approché Il ma texté Dawg, je ten supplie, faut que tu viennes infliger des supplices à deux ivrognes stupides devant leur propre public Apparemment, il sagissait dun grand métis aux allures féminines et de sa copine, la pleureuse Jai dit nenni, nenni, je battle pas Dony et Stunner Et puis avec mes amis on sest dit quaprès tout cétait facile vu que ce soir votre seule victoire ça été de faire notre première partie Et puis, yo, cest pas un vieux métis squelettique avec une coupe leucémique qui va me faire des menaces Yo, Jam, tu fais deux mètres six, tes pas un adversaire de taille Alors, Philly Phaal, pleins de tonus, fin et robuste, ce soir je viens ici et je flingues vos culs Quand je suis arrivé au Québec, jétais genre dites-moi, ici, cest qui le boss? On ma répondu Cest nimporte qui sauf cette bitch soft de P.Dox Jai dit aight, mais est-ce quil est vrai, est-ce quil est real? On ma répondu Rick Ross Jai dit aight, est-ce quil fait beaucoup de live? On ma répondu Xbox Jai dit mais les gars, pour son album? Et les gars ils étaient comme Detox Tu penses vraiment pouvoir me battre, inox Jsuis de Paris, dawg Tes quun fag qui suck Tu te prends pour un grizzli, mais tes plus soft que Paddington Tu veux faire le bad mean thug Mais tous tes potes mont dit que tétais prof de badminton Le soir, tu rentres dans ta petite piaule de sale ivrogne pour te bourrer Tu tastiques et salives quand ton ami Jamai se frotte à tes bourrelets pour te fourrer Mais tu sens pas ça, bite molle, vu que tes plus gras que Big Pun Tellement que ton succès prend du temps, jsuis obligé de props ton endurance Quand tes venu, on ne savait pas ce quon allait faire On a écrit tout à l'heure, donc nique sa mère mon gars Yo, hey les lunettes, tu veux savoir comment ça marche dans place? Moi jmen sacre, tu vas te faire péter Accent de marde, pique à glace dans le ass Tarte dans la face Yo, tas jamais gagné de battle, mais tu tessayes sans cesses Celui-ci est pas jugé, pis tu Lperds quen même Le gars parle contre les RC souvent, jtrouve ça très émouvant, je ferais pareil si jétais comme toi pis que je perdais tout le temps Tu veux gagner un battle? Écoute-moi bien gamin Sois plus fort, sois plus mort En fait, sois moins toi même Yo, yo, tes trous de mémoires me fascinent, jvais te rendre ça facile en te donnant un conseil Jte recommande la pratique parce que tu as pas la prestance et le charisme, tas lair tout stressed, pis tu trembles comme si tes verses cétait une mauvaise nouvelle Yo, cest vraiment nice se moquer de toi Les gens te niaisent, te donne des claques Toi tencaisse, tes un punching bag Ça mexaspère, jvais pas le frapper, il va appeler sa mère Tes un raté, tes lunettes servent à regarder par terre Yo, yo, dès que tu rappes, tout le monde ris instantané Uncle Ben's Yo, yo, yo, hey, yo, on va, on va le recommencer Dès que tu rappes, tout le monde ris instantané Uncle Ben's Jmets sa grosse tête sur ton petit corps tout faible bobblehead Vos chances de nous battre cest comme vos rap skills, de très faible à nulle Tu veux du fame en étant fake? Essaie la lutte Yo, citation de Nekfeu contre Logik Konstantine Cest le son de mes boules contre tes fesses Ark, ça cétait affreux, cest fou Pis si tes boules sont contre ses fesses, ta queue est où? Ouais, mais Jam, cest une différence culturelle, ça compte même pas De toute façon en France, se mettre dans les fesses cest- Ouin, je sais, tout le monde fait ça À chaque fois que tu vois Jamai, je ne sais pas pourquoi, tu as des érections dures Il te baise, mais en vrai il te déteste plus que tu ne le crois Donc quand tu viens, tu te ne stresses plus Ok, euh, mec, tes tellement gros que quand tu rentres ton ventre on dirait que tu gonfles ton ventre et quand tu fais pas la danse du ventre Le ventre de ton ventre, lui, fait la danse du ventre, ok Discussion entre Alpha Wann et Nekfeu Yo, les mecs, vous nêtes pas connu en France, on a demandé à Suspek au Québec non plus</t>
+          <t>Philly Flingue, Alph Lauren, Booska-P Dans les bacs depuis l'20 Janvier Ils disent avoir du flow mais je n'vois qu'des grosses flaques Le niveau, j'le hausse grave J'n'écoute pas quand ces shlagos rappent Encore moins quand ces chards-clo m'clashent Impossible déchouer c'est mon cash flow qu'j'claque J'n'ai qu'les chiffres en tête comme si j'faisais des fausses plaques C'est Phaal, what, what ?! J'n'ai pas bu qu'du Pago Deux verres dans les mains pour l'pas à droite, droite pour l'pas à gauche J'garde ça frais, fresh PhillyFrigidaire Y a des rimes et des gifles qui s'perdent Dix spliffs d'herbe dans le Dickies beige J'répète toujours la même chose il s'peut que j'finisse bègue J'te tèj' dans une piscine vide ou j'te noie dans une piscine pleine Flow plus que passable, négro, embrasse la bague Regarde comment Phaal rocke la plaza, hé Tous mes amis smokent, nique la lice-po, la drogue est à disposition Un parigot dans cette pute comme la mycose Mes gars veulent plus que c'que la vie offre Hier, ça parlait d'kidnapper ce mariole d'Omarion aux Mariottes Trop de textes en trop, j'paie Que les gens déplaisants s'prosternent et m'souhaitent un présent prospère Guette ceux qui courent à la traîne, qui voudra ma perte ? Un il dans l'dos pour m'assurer qu'l'épée qui s'y trouve soit la mienne T'es moelleux comme un petit four à la crème, j'n'écoute pas leurs verses Han han, quoi de neuf Jizzle et 1UpWorld ? Sur la liste c'est moi 5, tu crois qu'tu flingues Mais captes-tu, dans c'business, rapper c'est la partie la plus simple ? J'vais célébrer mon CD car, j'viens d'pénétrer l'impénétrable Brûlant comme une MST, regarde-moi gonfler mes stats On fait les noirs cainris, parce que ceux qu'on voit à la télé, ici, sont pas respectés ou pas respectables J'fais mon biz' maintenant et c'est un gros labeur Tant qu'j'n'ai pas de donateur comme Donald Trump, il faut que j'donne la preuve Que j'peux réussir sans eux, pas dassistance, les distances sur les pistes J'suis travailleur mais y en a qui m'disent chanceux Ils respectent ma maîtrise dans l'jeu Vas-y vise dans l'genou s'tu veux m'voir kicker mal J'suis chef de file d'emcees dangereux Mon linge sent qu'scintillé Qu'est-ce qu'on peut m'souhaiter d'mieux pour l'instant ? Plein d'billets, des liasses de 500 bien pliées Moi je n'fais qu'être classe dans c'Game où certains anciens sont de vraies épaves Certains managers font d'la traite d'esclaves C'est Flingue, respecte le blaze, les critiques te lèchent le casque Pour moi il n'y a aucune forme, texte flasque, tu empestes le falsh Mon son cogne, poto, comme Chuck ou un jocko d'skunk J'bluffe pas, j'suis une grosse pointure dans des Jojo IX neuves Chaque soir, Phaal multiplie sa puissance fois 4 J'suis pas d'ceux qui s'inventent une vie puis une voix grave Pas d'tâche de foie gras sur l'textile qui couvre mon poitrail J'sais pas s'tu m'crois mais j'croise un rappeur tous les trois pas J'vais pas niquer ma vie, ce serait dire Fuck les miens Quand j'rappe Fifty chante, Diddy danse, Birdman se frotte les mains Même Suge Knight approuve, appelle mes gars s'tu n'trouves pas ta pouf' Tant que mon poul battra, j'aurai beaucoup d'Nike, j'l'avoue J'dois les écraser, y a pas trop de place Tous tes, khos se fachent beaucoup, beaucoup trop de classe, j'augmente le taux de phases J'vais l'faire, j'n'attends pas qu'd'autres le fassent J'ai l'bras long, j'peux t'poignarder dans l'dos, de face Le bras super long, on baisera d'la fliquette J'fais d'l'art appliqué, West Side Africaine Yeah, Boos', Alph Lauren, breh Philly Flingue, L'Entourage2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bustour</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>En hiver je n'vois plus l'jour Contrairement aux autres, j'quitte le stud pour le bus tour Est, Ouest, Nord, Sud, toute la France et l'espace francophone Jeans et jupes courtes, bien sûr qu'les uc's bougent Il faut que j'honnore tous ces contrats Prendre des sous, c'est l'combat J'arrive dans le tour bus, première question Où est ce qu'on va ? Nique se tracasser, ça reste de la pure passion Chacun des passagers vaque à ses occupations J'ai mal dormi, j'suis un peu fracassé Au studio ça s'est mal passé, juste à cause d'une panne d'ordi Ce soir ce sera blindé d'poufs, ça chille relax dans la salle Jusqu'à ce qu'un mec de France Inter vienne et nous interviewe Quelques magazines, une télé et quelques blogs Tu sais c'est pas facile, pour m'aider je pète quelques bobs Jaz, Flamme, 'Gram, Sneazz', Flingue puis Fonk' Assurent le spectacle comme des putains d'nains qui jonglent Je sais que c'est la vitre du bus mais j'imagine une baie vitrée J'ai le nez devant, encore en train d'effriter Je n'sais pas vivre sainement, j'regarde dehors Le teu-teu me porte, il m'reste que deux clopes En hiver je n'vois plus l'jour Contrairement aux autres, j'quitte le stud pour le bus tour Est, Ouest, Nord, Sud, toute la France et l'espace francophone Jeans et jupes courtes, bien sûr qu'les uc's bougent En hiver je n'vois plus l'jour Contrairement aux autres, j'quitte le stud pour le bus tour Est, Ouest, Nord, Sud, toute la France et l'espace francophone Jeans et jupes courtes, bien sûr qu'les uc's bougent Spliff au bec, j'gratte pas d'discothèques Les kilomètres passent, c'est la nuit que j'opère Car j'suis insomniaque et il faut bien que j'tue l'temps J'commence à m'inquiéter vu qu'à cause de la chronic Et bien ma putain d'nuque tremble Et j'ai promis à ma gow d'aller chez l'médecin Mais t'sais les hostos et oim c'est comme Les Yankees et les Mets ou l'Real et l'Atletico J'devais appeler Bigo-Bur Deen mais j'ai illico zappé Vu qu'on a sabré l'Clicquot et le Chandon D'habitude, j'bois pas trop mais là j'suis grave pompette J'pense à mon pèze et à mon père Comment va le pays ? Il n'y a rien d'attrayant Si tu n'es pas président ou que tu n'portes pas l'treillis Mais bon ça s'améliore, Saah Allah, demain sera mieux Saah Allah Pour moi, Zion c'est en Guinée, la terre de mes aïeux La Guinée c'est comme, le Mali, l'Sénégal Par contre là-bas c'est mieux, chez nous c'est le quart-monde Jemmerde le refrain... Là-bas à l'école, y'a pas d'livres qui traînent Mais les militaires ont les meilleurs flingues Y'a pas délectricité et t'es au courant qu'y a pas l'eau courante Mais il fait beau tout le temps, va visiter, han J'te l'ai dit ça s'améliore, quand j'serai casé J'irai au bled, chez moi, par périodes Le spliff je l'écrase, il a fini par me mettre à terre Dans mon crâne des cratères, faut que j'dorme Fuck, il m'reste des kilomètres à... faire... Il m'reste des kilomètres à f... Putain ! Tchiiip En hiver je n'vois plus l'jour Contrairement aux autres, j'quitte le stud pour le bus tour Est, Ouest, Nord, Sud, toute la France et l'espace francophone Jeans et jupes courtes, bien sûr qu'les uc's bougent Je sais que c'est la vitre du bus mais j'imagine une baie vitrée J'ai le nez devant, encore en train d'effriter Je n'sais pas vivre sainement, j'regarde dehors Le teu-teu me porte, il m'reste que deux clopes Je sais que c'est la vitre du bus mais j'imagine une baie vitrée J'ai le nez devant, encore en train d'effriter Je n'sais pas vivre sainement, j'regarde dehors Le teu-teu me porte, il m'reste que deux clopes5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Can I Kick It ? #1 (Freestyle)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Lunatique comme qui tu sais, minus j'ai Les techniques inhumaines, Phaal alias L'Ennemi du maire Et pour y arriver faut être illuminati Tu peux pourrir là si tu t'appelles Coulibaly L'argent pourri coulisse la nuit yo, on veut le flouze de Giuliani J'pensais aux sous avant la naissance, déjà pourri à vie ! Et l'Entourage peut avec un mic' te fister On est fidèles au poste comme des fils de kisdé ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>​carrelage italien</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ah, c'est mieux d's'hydrater parce que là, là, ça va être du sale Hum shit is sick! Ouais, j'suis une pince, elle m'appelle Jean-Michel Aulas, ouais j'suis comme a-ç, je f'rai pas d'gosse à une connasse C'est l'décollage, effrite pas, mélange pas, pas d'collage, pas d'cool-al dans l'Cola Ça d'vient aud-ch comme les keufs à l'époque de Nicolas, j'suis incollable, entre vrais négros, on peut faire la collab Dodi Al-Fayed, autour de moi, des chattes câlines affalés et des sacs Galeri Lafayette On m'demande mes souhaits éviter les carences, voir les matchs à Roland Garros et qu'la daronne roule en carrosse Avant qu'la mort me galoche, mon style de vie coûte un bras, le système me la met jusqu'à l'os North Face, pas Helly Hansen, sapeur de l'élite, j'enseigne pour aller chercher mes thunes S'il faut, j'prends un Vélib', en selle, à pieds, à la nage, en ski, whatever Philly Flingo, let's go Hum shit is sick! Discret dans ma ville, comme un genre de ninja, le rendement des nois-chi avec la discipline jap' C'est Flingo, tu connais déjà, j'suis le Shiznit, ça bouge pas, le double DA Gère mon business pour comprendre, va au village faire un p'tit tour J'danse mal mais qu'est-c'que j'rappe bien, ça équilibre tout J'espère évoluer en gardant mon discours, j'espère ne jamais dev'nir un négro discount La compét' j'crois pas qu'ces gars là nous battent jamais, j'suis pas l'genre de nègre qui va faire du quad à Dubaï Toubabs, niggas, bicos vifs, anti-frigo vide, carrelage italien, celui des chinois s'effrite trop vite Pour l'art moderne, j'suis un vrai apport donc ouvrez la porte, je m'sens comme Steve Jobs quand il a fait l'iPod J'ai l'aspect de plein d'stars, j'suis assez instable, j'emmerde les tasses-pé d'Insta', j'suis là pour passer un stade Hum shit is sick! Album sorti, c'était lourd, gaddem, maintenant, y a des gens qui font genre ils m'connaissent depuis les années Get Down Flatteurs, jamais je n'vous écoute comme quand un élu parle, suceurs, descendez de mon pénis, vous n'irez nulle part Le bénéf' de deux res-fou, j'suis QLF que le flouze Je sais le seum que je fous, c'est comme quand l'videur te refoule Arrête tes salamalecs, tais-toi et passe-moi la mallette, j'suis un polygame négro Halle Berry, Salma Hayek sisi Un Android, un Mac, j'suis prêt à faire du sale à faire du sale, rap de Paris South, depuis l'départ ils savent l'départ ils savent T'aimerais me rejoindre dans le club fermé des gars qui tuent, excellent est le bilan quand je récapitule On retourne les tchoins et les salles de concerts, jamais les vestes Quand j'suis dans l'action, je vise toujours les cieux, jamais l'Everest Et j'm'en bats les couilles que tu m'vois à l'écran, j'suis au d'ssus d'la barre des trente, j'ai plus l'âge de m'embrouiller donc je parle pas, j'étrangle Hum shit is sick! S sur le torse, M sur le front, sur la forme, même sur le fond J'm'appelle Alpha, j'ai un prénom d'star, des rappeurs m'envoient leurs CV pour que j'les prenne en stage J'me r'garde dans la glace, j'ai la face du chef, les sapes sont plus chères, on passe des 'tasses aux duchesses Qui va à la chasse perd sa place, n'aura plus d'siège mais j'peux m'asseoir sur mes acquis, c'est mieux qu'une chaise Hum shit is sick! J'f'rai toujours du sale, pas d'panique, 7-5-0-1-4, South side, Paris On veut laver nos âmes sales, boire de l'eau Zamzam, ceux qui savent savent sisi2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CASCADE (Remix)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' et alors ?, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp Les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' bats les couilles, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp Après le fiasco du Rap Contenders, quelques mauvais projets d'groupe, j'avais honte de retourner au tiekson J'ai gambergé sur le texte et j'suis dev'nu l'best quand j'ai mangé le fruit d'ma réflexion J'connais les océans et leurs pirates, les fans aiment Phaal et ils ont peur qu'il rate J'suis au sommet de leurs pyramides, j'suis l'dernier rappeur qui rappe Dans un autre monde, je s'rai Philly Flinguo, le fly nigga fourrure à la Doflamingo, eh Pour que tu comprennes c'que j'dis, j'rappe avec le flow lent Ralph Lauren braque vos rentes, dirigeable volant vers Amsterdam, Hollande C'est pas moi, c'est L'Entourage qui décide, on est plus dangereux qu'une poucave qui dessine On s'prend pour Russell Simmons quand on gère les mailles Quand on gère les MILFs, on s'prend pour Jeremih 1995, on met les traîtres sur écoute, hu hu Négro soigné, j'mets d'la crème sur les coudes, ouais, ouais Les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' et alors ?, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp Les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' bats les couilles, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp Eh, eh J'ai l'syndrome Tom Sawyer, à part une meuf, qui peut m'soigner ? Tous les jours, j'fais une tête d'enterrement comme le fossoyeur fossoyeur Pour se rendre au taf chaque jour, ma mère prend l'tram de six heures vingt J'comprends ceux qui utilisent leurs flingues, le crime canalise leur faim J'suis en mode occupation du terrain comme Bayern, j'arrive à ieps, repars en Porsche Cayenne J'veux faire carrière, que du feu dans mon cahier, des flammes bleues quand je l'ouvre c'est chaud, c'est chaud Même moi, je fais deux pas en arrière Kickeur roi, carré d'as, les artistes aiment parler d'argent, les banquiers aiment parler d'art Pulsions inarrêtables, gentillesse, tendresse, SMS, caresses, ma main sur tes fesses, j'y vais par étapes Elle sort une masse, elle sort le chanvre, elle veut qu'on fasse du sport de chambre Autour de moi, toute sorte de gens, y'a ceux qui s'moquent des bleus, y'a ceux qui smokent des blunts Y'a ceux qui pop le champ', y'a ceux qui pop les guns Quand j'rime, les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' et alors ?, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp Les faux négros s'calment, ils sentent que j'les scan, merde Encore un son qui passera pas sur Sky' bats les couilles, on s'capte Avec les vrais négros, liquide en cascade cash Ils vont prendre des coups de scalpel sur le scalp10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÇA VA ENSEMBLE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PARTIE I Le micro est bon, le casque c'est bon, ça va ensemble hein Vous êtes l'Amérique, nous, la Corée du Nord, on va pas ensemble On se fait des passes en équipe, dès qu'on a la balle, on centre On prend pas les mêmes risques, on n'a pas l'même crayon On fait pas les mêmes disques, c'est pas l'même rayon Les joggings et les Timberland, ça va pas ensemble Nous donnez pas les micros, on les réduira en cendres Si elle n'est pas blanche, ta peau dérange J'pense que France et tolérance, ça va pas ensemble Le feu et le gaz, ça peut exploser Une michetonneuse, un mec fauché, ça va pas ensemble Top model et clic-clac, les Rolex, les Flik Flak L'alcool dans l'sang et les routes en zig-zag Sku', les routes en zig-zag, accident assuré Hélico' et kalash, pipeau et carnage On reste au niveau des carr'lages, toubabs Niggas, bicos et scars-la, Jack et Marie-Jeanne Sont comme Nico et Carla, ça va ensemble Hélico' et kalash, pipeau et carnage On reste au niveau des carr'lages, toubabs Niggas, bicos et scars-la, Jack et Marie-Jeanne Sont comme Nico et Carla, ça va ensemble Immigré, échec scolaire ennemi et collègue Hipster et Colette, ça va ensemble Illuminati, banque, triangle, yin-yang Zinédine, Frank, Lilian Alpha le zombie est dead, sobriété et oi-m Insomnie et dette, hein, ça va ensemble Discrimination, coloris racket économique Esclavage, colonies, ça va ensemble Le 6-6-6 et le 7-7-7 jackpot Les gars d'ma clique, les textes excellents Les filles faciles, le sexe et l'seille ouais Les flics fragiles et l'excès d'zèle Les bavures, les vils-ci le soir Les mensonges, les abus, les livres d'Histoire Les sociétés secrètes, la sorcellerie Les cigarettes, les maux de tête, la sauce et le riz La France a des problèmes, longs à énumérer Lois du travail, c'est l'esclavage rémunéré Facebook, Google, Uber règnent en maîtres Nos enfants seront fichés avant d'naître Hélico' et kalash, pipeau et carnage On reste au niveau des carr'lages, toubabs Niggas, bicos et scars-la, Jack et Marie-Jeanne Sont comme Nico et Carla, ça va ensemble Hélico' et kalash, pipeau et carnage On reste au niveau des carr'lages, toubabs Niggas, bicos et scars-la, Jack et Marie-Jeanne Sont comme Nico et Carla, ça va ensemble Immigré, échec scolaire ennemi et collègue Hipster et Colette, ça va ensemble Illuminati, banque, triangle, yin-yang Zinédine, Frank, Lilian Alpha le zombie est dead, sobriété et oi-m Insomnie et dette, hein, ça va ensemble Discrimination, coloris racket économique Esclavage, colonies, ça va ensemble Ça va ensemble, ça va ensemble, ça va ensemble PARTIE II Sisi, el fuego azul, el fuego azul, PhillyFuego On veut pas baiser les gos les plus putes Mais boire les eaux les plus pures Vrai négro sera inscrit sur ma sépulture Tout c'qui monte finit par descendre J'ai refusé certains chèques, pas par dignité mais par décence Fuck les piranhas, je m'vois large comme un cachalot Et j'dois rien à personne, juste un peu d'cash à Lo' Mon assos' dans c'merdier, qu'on appelle la V.I.E Han, on apprend à faire mille balles avec dix eu' J'suis né pour, j'suis né pour charbonner Mettre du Ralph partout, slip, doudoune, écharpe, bonnet Laisse-moi rapper comme Lavokato ou le Prince Waly Une main lave l'autre, j'rappe pour que mes mains soient libres C'est pas l'heure de glander, faut un vrai but Sisi, eh, prépare le plan B pour les imprévus Sisi, j'leur joue des tours, comme un greffier Autour du cou un keffieh J'suis épié dans un guêpier où y'a qu'des vautours Dans c'métier, y en a qui pratiquent le vaudou J'arrive comme bruit funeste, t'arrives comme Louis d'Funès Allez, j'viens d'la ville lumière Chaque jour augmente le prix du mètre carré Philly Phaal, j'suis toujours l'ennemi du maire J'les stresse, dans leurs yeux, j'vois la détresse Des noirs avec des coupes au bol, des blancs avec des tresses Même si les keufs en moto cognent, respecte le protocole Faut jamais donner l'nom d'un pote aux cops Nan nan nan, Rang Pang Tang, y'a mon négro KSA Don Dada Gang, écriture de luxe dans un cahier sale Frais comme l'Antarctique, frais comme un gardon Y'a des Glock en plastique, y'a des rappeurs en carton What the fuck, man Y'a des Glock en plastique, y'a des rappeurs en carton Damn, what the fuck, man Transaction de DMT dans un hôtel Ibis Styles Philly Phaal, le missile allemand, les rimes à dix mille syllabes J'ai les bras secs et les pecs saillants Ma cousine du bled peut gifler ta pétasse, dis-lui qu'elle tienne sa langue J'fais tailler mes costumes chez les Ritals Mes enfants vont sentre-tuer pour l'héritage J'envoie quelques gouttes comme Ars'nic J'ai un tas d'sneakers pour marcher sur ces bitch ass niggas J'suis avec VM et on a d'la route On est dans le Jaguar rouge, il pense à s'acheter un BM, l'enfoiré On a du Christopher Wallace et du Tupac Amaru On peut rouler jusqu'à Bethléem, pète les M's Sisi, eh, tu m'as connu avec certains gars et j'suis toujours avec les mêmes Y'a quoi si j'me plante ? Cette fois-ci, je l'tente Faut pas qu'mon viseur tremble, il est 6h30 en Île-de-France Phaal est dans le stud', le vaisseau-mère Il fait son merdier, il n'a jamais sommeil Qu'est-ce qu'une vraie épreuve ? Où sont les vrais sommets ? Sur scène comme Epinay, renoi, j'fais toujours mon job Petit Opinel sous mon short La sobriété, le ventre plein, les couilles vides, c'est mieux pour rapper J'suis focus sur mon shit et je pense pas à son gros cul sur mon chibre, nan À chaque bonne action, le diable titube Vrai, j'en ai l'attitude avec exactitude J'dois trouver les fonds et puis trouer les faux Pas d'effort pour trouver les flows J'écris toujours sur papier, fuck le téléphone Rien n'change, c'est toujours fuck la télé Sur mon dos un cuir Pelle Pelle flotte J'te téléporte dans l'esprit d'un vrai négro venu défoncer les portes Je m'prépare pour le guépier Ma femme aura des pétales sous les pieds, un pétard sous l'évier J'connais mes défauts, j'peux t'en faire la liste Trop de réalisme, Don Dada impérialisme, matérialisme Timidité, introversion depuis l'berceau Les yeux d'un perdant derrière une paire de Persol Jeune premier, ouais ouais, j'en assume le rôle On change les shekels en yens, ensuite les yens en euros Pas de fausse note, je débarque dans ta fête et j'appelle le kho' Ils font les malins sur le net mais ils baissent la tête dans leur hall Damn, what the fuck, man ? Damn, what the fuck, man ? 'Tain, j'retrouve plus l'texte, il est où l'texte ?10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C’est juste moi et mon délire [Freestyle Süre Mesüre]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C'est juste moi et mon délire Dès lors que tu captes Tu poses ton dollar même si tu adores médire Mon 3ème oeil s'ouvre, pendant qu'le gauche se ferme On cause de rêves tout le temps Plus l'droit d'laisser les choses se faire J'sais pas ce sera comment pour nous Mais la roue tourne, comme a dit mon soss, 2-zer Qui va y échapper, mes alliés l'chargent sans hésiter Comme un père d'famille dans un quartier d'shlag Le blaze qu'ils suivent tous, c'est Phaal-Philly, couche-toi S'tu veux pas qu'j'te martyrise avec l'artillerie lourde, ah Ça va faire plus qu'les coucher vite fait Cours, parle-en à tous les DJ J'fais la meilleure d'toutes les mixtapes Le Phaal et l'cavalier l'font On va pas bailler, on organise la bataille Les canailles ne vont pas rallier l'front On met le feu à leur campement J'ai ce penchant qui fait que, ma langue était tranchante Dès qu'j'rappe j'leur coupe la parole On coupe la poire nan enfoiré, donne-moi toute la part Qui veut voir ma secte d'insecte On s'esclaffe terre part À des ambiances on te repère ambiance nocturne On assure le spectacle tel, Heltah Skeltah Elle te séquelle, j'baise ta prestation à n'importe quel fiesta C'est pour ceux qui sous sont les dettes Ceux qui croulent sous les dettes Faut qu'on prouve les verres durs Ou bien qu'on s'ouvre les veines. Ah !1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CONTREX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>- T'sais, ça c'est l'Don ça - Non, c'est bon, c'est pas grave - Frère, le Don il s'en fout. Il veut juste venir découper, prendre son 'gent-gent', rentrer chez lui. Au calme frère, t'as capté ou pas ? - Ouais ouais ouais- Double Jay, RPTG - Rang Pang Tang - Je suis l'gardien d'mon frère, j'vais leur faire savoir Pour leur faire savoir que le Don découpe Jai lsavoir-faire et je leur donne des cours Mon reflet me dit Cogne les tous Mets-les dans le coffre comme les courses Ya léquipe, ya le squad et jdécompresse Ramenez des quads et ramenez des compets Pour la concu' des pansements, des compresses Des pruneaux dAgen, des bouteilles de Contrex Tu veux cacher quelque chose à Philly Flingue, mets le dans une boutique Philippe Plein Déter' comme un rebelle philippin, jappelle lavocat dès qujai fini lbain Insomnie et migraine, jveux chasser lnaturel, il revient en Y Chez nous ça sarrête pas ni armistices, ni trêves, quils crèvent, qu'il pleuve, quil grêle Je parle que d'sexe et maille, je sais qucest mal Ce système me gratte comme eczéma, Babylone veut me mettre échec et mat Jattrape ce microphone, mon équipe attrape le Jack On mène une vie trop folle, à part le diable, ya pas dennemi trop fort aucun Briefé comme un chef, fais-moi kiffer comme un chèque Laisse-moi, nappelle pas, mon number est privé comme un jet bip Jréponds quà celle qui ma vu naître maman Les gens dans ma vie, les gens du net me disent faut qutu maides Lerreur est humaine, mappelle pas, jhabite dans un tunnel Faut pas se fourvoyer, nan, faut faire le vaillant, tes pas fort voyons, jai le rap flamboyant Je sais tout comme le vieux à Fort Boyard, crois-moi, ces rappeurs ont le trac en mvoyant Yeah, noir et professionnel, jtraite la cabine comme un confessionnal Pour la concu', veuillez poser vos cierges, ouais, mon statut nest plus trop questionnable J'vais leur faire savoir que le Don découpe Jai lsavoir-faire et je leur donne des cours Mon reflet me dit Cogne les tous Mets-les dans le coffre comme les courses Ya léquipe, ya le squad et jdécompresse Ramenez des quads et ramenez des compets Pour la concu' des pansements, des compresses Des pruneaux dAgen, des bouteilles de Contrex Jvais leur faire savoir que le Don découpe Jai lsavoir-faire et je leur donne des cours Mon reflet me dit Cogne les tous Mets les dans le coffre comme les courses Ya léquipe, ya le squad et jdécompresse Ramenez des quads et ramenez des compets Pour la concu' des pansements, des compresses Des pruneaux dAgen, des bouteilles... Cest cette merde je crois3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Courchevel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Faut une promenade de santé pour mon physique Les shiznit visitent une clinique Top models m'ont suivi d'puis qu'elles m'ont vu avec Sneazzy Aucun d'nous s'fait aveugler par les spots Toujours accompagné par l'escorte Fuck les boites et fuck les bars Je m'en bats les couilles de parler d'sport J'suis d'mauvaise humeur dans l'hall Faire partir mes sous au bled C'est mieux qu'une Benz couleur chrome Parler d'argent c'est juste pour le jeu Swish, tout c'que j'veux Swish, skier à Courche-che swish, swish - Qu'êtes-vous venu exactement chercher à Courchevel ? - Ben, le repos bien sûr, la première des choses. Et euh... le soleil, le plaisir du ski et bien sûr le plaisir de la montagne C'est pour les sous qu'j'le fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Hey, hey C'est pour les sous qu'j'le fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Je cours je vais à Courchevel Chaque jour, un nouveau niveau est pallié comme chez les Saiyan swish Un tas d'dollars, un tas d'livres, un tas d'yens Flow d'alien, costume à l'italienne hey Ils m'parlent que des streams et de skeuds et de skeuds Quand j'déboule t'entends les ski, t'endends les skuurt La concurrence est morte, ça fait des siècles Allumez des cierges J'suis dans l'télésiège Guettez l'ciel Phaal refait des siennes okay J'garde l'attitude Don Don Même quand un pitbull grogne grr J'connais plein d'cliques de p'tites putes... swish bonnes swish Hey, j'ai d'jà traversé l'désert Pas d'Zaïrois à table mais on a graille avec les aides avec les aides Parler d'argent c'est juste pour le jeu, swish hey Tout c'que j'veux, swish Skier à Courche-che, swish C'est pour les sous qu'je l'fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Swish swish C'est pour les sous qu'je l'fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Je cours je vais à Courchevel swish swish Je cours je vais à Courchevel Je cours je vais à Courchevel Je cours je vais à Courchevel ski, ski, ski Je cours je vais à Courchevel Je cours je vais à Courchevel Je cours je vais à Courchevel ski, ski, ski Je gère le scoot' avec les beujs' Les bras s'occupent du pompe, khey J'ai poussé la fonte, ha KayKay le loup blanc Dans la montagne, recherché Comme le grizzli J'traîne avec des monstres et compagnie Industry RPTG Mon t-shirt est bien repassé J'ai la flemme de sortir le tank Donc j'arrive en chasse-neige swish, swish Je n'vois pas vos cristaux ni vos VVS diamants Nique les renards, j'suis le loup J'retire la cagoule et j'montre mes dents J'ai pas de Gucci Prada Ma bitch sée-po en Don Dada Le blé s'use dans le chalet Je la paie pas pour nettoyer Parler d'argent c'est juste pour le jeu Tout c'que j'veux, hey Skier à Courche-che, swish - Oui, y'a de beaux horizons à Courchevel, je l'ai remarqué d'ailleurs - Oui, oui - Les horizons blancs, on en parle beaucoup - Vous pratiquez le ski vous ? C'est pour les sous qu'je l'fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Swish swish C'est pour les sous qu'je l'fais Que les liasses occupent tout l'chevet Je cours je vais à Courchevel Je cours je vais à Courchevel swish swish Je cours je vais à Courchevel Je cours je vais à Courchevel Je cours je vais à Courchevel ski, ski, ski Je cours je vais à Courchevel Je cours je vais à Courchevel Je cours je vais à Courchevel ski, ski, ski - Vous êtes une championne de ski ? - Non, j'suis pas une championne mais j'm'amuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>​dirty dancing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bigo ! Ils veulent pas briser leurs chaînes, ils veulent tous se faire la course On est nés en bas d'l'échelle, personne pour te faire la courte Si tes bonne, on t'fait la cour, si tes moche, pour faire lamour Faut qu'tu sois riche, ou qu'tu sois prête à faire lamour à des moches Si cest ton heure, sois précis, zin, apprécie-la bien Tous ces chiens n'visent pas la coupe mais la tête de celui qui la tient voilà Que des pèt' et des pâtes, mode de vie très italien Toujours affamé comme des pit', j'peux pas dev'nir végétalien Jachète mes plaquettes à Dam, j'garde pour moi mes états dâme Que des vertueux dans l'cercle, aucun n'va baiser ta dame J'pique une tête dans le pochon, puis j'pars pour un bain de foule Capuché, côté public, comme quand on était todo R à foutre, des selfies, des coms, des partages, des mentions J'suis un MC, j'viens dune autre époque, dune autre dimension Appelle-moi sil y a du cash à prendre, me fais pas perdre mon temps J'suis pas ton prof mais j'vais devoir tapprendre à faire monter l'montant Aucune histoire ne commence par la fin Mes zins ne ressentent plus rien à part la faim Fiston d'personne, jai quun seul père et quune seule mère D'vant le placard plein, j'me rappelle qu'javais quune seule paire Où sont les bitchs ? Où sont les bitchs ? Où sont les belles zines ? Les diamants dansent autour du cou, dirty dancing Cousin, faire ce blé, jessaye, japprends Quand cette veste me plait, jlessaye, jla prends Rafale de balles comme un lâché de colombes brr Tony, dents de plomb, jfais cracher le pognon zin J'b-b-bang pour le g-g-gang, très loin du b-b-binks Comme Fifty, straight to the b-b-bank Photo d'moi dans l'Bureau Ovale, je n'fais que rapper des faits Trop cain-ri pour les RG, faut la D.E.A et les Feds le FBI On fait l'nécessaire pour éviter les serbes Belle vaisselle pour les desserts, YSL sur les aisselles si si Si je n'les connais pas, j'veux pas les connaître Je collecte les euros puis j'fais comme Nek et j'me déconnecte Ce style est inné, j'lavais déjà à lépoque du franc Frais, comme un nouveau-né, déter' comme si jrev'nais du front du front J'crée l'événement ouais, j'leur laisse la plus p'tite part Ramène du tieb' et des mangues, 5ème élément, j'ai le multi-pass multi-pass J'm'invite partout comme la DGSI, j'suis officiel depuis TDSI Ils ont tous développé les mêmes styles, j'enseigne aux anciens et aux bébés MC Aucune histoire ne commence par la fin Mes zins ne ressentent plus rien à part la faim Fiston de personne, jai quun seul père et quune seule mère D'vant le placard plein, j'me rappelle qu'javais quune seule paire Où sont les bitchs ? Où sont les bitchs ? Où sont les belles zines ? Les diamants dansent autour du cou, dirty dancing Cousin, faire ce blé, jessaye, japprends Quand cette veste me plait, jlessaye, jla prends1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Double P Majuscule</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Philly Flingue, 1upWorld, han, han Jai déjàroulé le... joint dla victoire, cest célébré DéjàPhilly Flingue, Double P Majuscule Alph Lauren, 2013 jusquà linfini Quand tu vis tes rêves, tu dors plus! Ta demoiselle est trop tactile elle aime mes phrases, elle Sait quau mic, je flagelle tous les négros fragiles Moi jévite les fans, surtout les femmes Elles veulent connaître le tarif pour monter sur la Tour EiPhaal Jai un énorme sac comme si jfaisais de grandes études Posté comme celui qui vend ses stup, on danse pas On est juste dans cette pute, on est les plus forts Ouais jsuis chauvin, certes, mais plutôt sincère Ferme ta gueule quand je pose un 16, bien sûr qule Phaal est bon Les go finissent par me guer-dra, les emcees mappellent Armageddon Jme mets à briller sur eux je nvois plus qudes ombres Mon organisation agit à bon escient pour quleur système de putes seffondre, han Nique le piston, tu crois quton truc défonce mais cest pas trop ça Moi jme sens pas trop star, enfin si mais chut Jleur parle de buildings, ils mparlent de châteaux dsable Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes Han, ouais, ouais En perdant laptitude à mcoucher tôt, jai fait une lourde bourde, car Tu sais qula nuit ça nuit quand tu vis au jour le jour Je mène ma life à sa perte mais jlâche pas lceau-mor Jsuis un dceux qui doit acheter un palace à sa mère Y en a qui srégaleront à la vue dma chute Donc, mes lames, fut, jaffûte, jamais ils nmégaleront Mon fut parfume lendroit, jai dla méga bombe Weed Decepticon Megatron Han, fais dla muscu lyricale stu veux tcomparer à Philly Phaal alias le Double P Majuscule Les emcees font les youvois mais ils sont prêts à tout Pour remplir leur frigo, faire du fric honnête, vous êtes tous Fruités et moelleux, bande dabricots secs Jarbore un vrai tricot, jai pas un flow mais un océan où ma voix fait des ricochets des ricochets, vrai, vrai Herbe douce, pizza, une grappe de raisin en écoutant le groupe de RZA Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes Tu ten doutes, jprends les stup en douce Jaime le chocolat, la salade pas les petits bonbons et lsucre en poudre Passe la paix aux négros dans les Merco ML Avec les jantes qui tournent sur elles-mêmes6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>​fahrenheit 451</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FREAKEY!, FREAKEY! FREAKEY! Chez moi en Guinée, posé, je regarde la map Ingénierie 2.0, j'suis matrixé par l'Allemagne Nouveau prototype de missile téléguidé par la maille c'est chaud ici, eh Tout c'qui n'te tue pas renforce ton armature, Même aveuglé par la thune, je f'rai toujours de l'art mature J'écris comme un dramaturge, jeune, je voulais les montres et la voiture, maintenant j'veux voir le monde et la natur J'suis dans la légende, tout roule, mc de Paname dans un grand boubou Tracé comme un kangourou, j'suis classe comme un Merco gris, t'es classe comme un Kangoo rouge Toujours sur le gros chiffre, bob Don Dada sur le cochi Je les entraine à la Zidane, négro j'assure le coaching Sur le net, ils te font naître puis ils te ue-t, au bout d'six mois J'ai la vision nette, Uchiwa, japo-nègre ou chinoir Sélection naturelle beaucoup trop sélective J'arrive comme Shawn Carter, gros proxénétisme Meurs avec le cur pur, tu verras le meilleur des mondes 1984 Diable, j'ai même peur des ombres 451 Fahrenheit, c'est 232 Celsius Trou dans la couche d'ozone, même le ciel s'use Chez moi en Guinée, posé, je regarde la map Ingénierie 2.0, j'suis matrixé par l'Allemagne Nouveau prototype de missile téléguidé par la maille c'est chaud ici comme 451 Fahrenheit 451 Fahrenheit, 451 Fahrenheit8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F.F.F</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ce soir, je sors sans tout l'Ralph mais je reste fresh J'descends vu que j'entends Les klaxons de Eff, le chef de l'Entourage On parle de Cam'ron plus de maille et d'autres trucs On parle comme Roi Heenok, pute, on est en ride nocturne On écoute du Keith Sweat, ce soir à la soirée Y'a plein d'métisses, ouais, on s'fait Paname East-West Une fois arrivé sur place, je glisse comme au hockey sur glace Devant ces miss mon vice refait surface C'est comme si j'étais vêtu d'or, Mac Daddy style Tu marches et tu donnes Les plus bonnes parlent de l'arrivée du Don J'ai vu deux-trois pains niçois apprécier comment Flingue il ce swag C'était un lundi soir, fuck la fin de l'histoire T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes A peine arrivé, je les entend haïr sur tes phases horribles Ils savent que rien n'est de taille face aux rimes de Caba Normal, t'es pas la relève, t'es un rêveur donc va dormir Pendant que j'fais pas exprès d'être le favori de ton favori Yeah ! J'vais péter comme après un chili Quand faut mettre des gifles, j'y vais sans faire de chichi A part ça, je chille, chillum rempli de beuh gagnante Han, les verres font tchin-tchin quand j'rappe mon G' shit On veut m'serrer comme une veuve riche, je crache le feu J'rime car je veux vivre à Venise Qu'on m'reconnaisse chez Ralph et chez le fleuriste Les jaloux veulent que je me casse Les bookers et les tass' rêvent de m'faire venir T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes FFF, Fédération Francophone du Feu On arrive lourds comme des dragstersJ'ai l'Gildas qui donne l'asthme On les nace-me dans des AirMax neuves Et avec un phrasé d'gentlemen, ce truc, j'sais le faire Demande Caba si tu cherches le mec qui gère ce mer -dier, méfie-toi de l'eau qui dort, dans l'écurie La collection d'polos qui dort vaut un lo-ki d'or Polo sportif, on s'fortifie pour two thousand and fourteen Flammes bleues super nocives sur les novices Y'a qu'au commissariat que tu chantes la vérité Tu taffes avec la police... Faut pas faire la fille d'joie et jeter l'éponge La vie d'moi, cet été, j'bronze La victoire nous célébrons en groupe, j'suis pas un soliste Notre vie est instable mais on pousse le vice, on court le risque On veut des BM intérieur coco, extérieur rouge cerise Notre vie est instable mais on pousse le vice, on court le risque On veut des BM intérieur coco, extérieur rouge cerise T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes T'as une belle paire de boobies, j'espère qu'en-bas c'est tout lisse Même les cougars-cougars veulent donner les goodies On est derrière dans les coulisses Mes goonies roulent des doobies Ça smoke la buddha-buddha, on s'relaxe comme des bouddhistes2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FLAMME OLYMPIQUE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Philly Flingue crache ce feu bah on y va Le niveau, je lhausse, posé boulevard Haussmann On fait les choses pour faire taire ceux qui causent mal Personne ne gère comme ma bande Populaire comme la banque, toujours frères comme avant S'il sniffe on peut pas le blairer, le biff, on va le flairer Et pour ma bitch une garde robe Gianfranco Ferré Toujours au charbon on fait des efforts, prolo L'hiver en doudoune North Face, l'été en short polo Je sors les pecs comme Van Damme, Bloodsport, Bolo Avec mon fellow Hologram', plein de 'tasses nous follow On fait ça classique comme un solo d'Bach dans la sono La décapotable perds la tête comme dans Sleepy Hollow Instable comme un stickers qui s'décolle Le manque d'oseille fait pécher, donne juste un million et j'dévisse mes cornes Hey, famille, santé, travail, j'suis dans les vieilleries Pourquoi les artistes deviennent nuls quand ils deviennent riches ? Transparent comme une verrière J'ai une paire de Mizuno comme Christian Vieri C'est moi qui sait l'faire le mieux, pas besoin de faire le bilan Je fais taire le milieu comme un jeune Ronaldo à l'Inter de Milan vrai Ronaldo Hein, Philly Flingue de retour dans cette shit On bâtit la muraille comme dans lancienne Chine, sisi 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO Hey yo pétasse, jtéblouis, jsuis avec Doumams et Louis J'veux les parts pas les p'tites miettes, j'ai l'écharpe palestinienne J'suis dans l'bail comme Nathalie, dans la maille comme Jacques Attali Ils ont flingué Christopher Wallace à Cali En tant qurappeur incroyable, jsuis pas en sécurité là-bas Jai la barre du bateau, jrecherche ma part du gâteau Jme lève vers dix-sept heures, jtraine avec des disquetteurs des mythos mon frère Je surfe sur ces putes comme Kelly Slater, ouais Garçon mets deux sucres, eh ouais cest Paname C'est le Sud, j'écouterai pas ton album, même si jétais dessus Scientifique malade, un cur de glace se planque sous la blouse Je ne fais pas l'rap qui se chante sous la douche Toujours les mêmes paroles, mon équipe, on déboule à sept J'ai pas changé, la daronne me taille encore la boule à Z Te soucie pas d'mes limites Ça fait trois s'maines j'suis au stud', j'gratte des lyrics Graille des Capellini, ancienne ou nouvelle école, moi, toutes les classes, j'élimine Phaal, ninja de l'underground, s'en bat les couilles du nombre de ventes, Don Dada contrebande J'essaye de vivre ma vie, ils veulent me dire comment faire Arrivederci, j'm'échappe par l'arrivée d'air 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO 1 pour les Clio, 2 pour les Renault, renoi J'suis un griot,, flamme olympique comme aux JO Attends, attends j'vais t'mettre du gros son mon frère...2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Flingtro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Philly Flingue! Alph Lauren 2013, papi! Comme Sneazz, je me demande si ils sont prêts Et aussi, est-ce qu'ils fileront le 'zeille Sur cette immonde terre, je taffe comme une fourmi Et je chill comme la cigale, mais je compte voir les hirondelles Les arc-en-ciels, les champs de marguerites Là où le temps n'est jamais perdu Là où le présent et l'avenir Sont la même chose, tu captes ? Bref, un enième couplet que je pose Cela veux dire une grande bouffée d'air pur Comme les grands MC je ferai le job Respecte, car je rappe pas, je respire Demande a mon gars Veerus, plus le temps de glander Le rap doit assurer nos rentes, rassurer nos rents-pa Car on a pas de plan B, planqués dans l'ombre Nombreux sont ceux qui veulent me voir me planter Les structures de rimes surgissent chaque jour Je rappe sur le rap car à cause de lui, je n'ai plus de vie Je rimais déjà au lycée, normal qu'ils apprécient mes flows Mais la majorité préfèrent lustrer la pine des autres Fuck, je continue a piller le show, grande salle ou petit appart' Dans mon odyssée je suis comme Gyneco, je cherche le nirvana J'esquive les pires fanatiques et je respire Paname Je constate qu'elles ont un penchant pour les déséquilibrés Donc je m'éloigne Sinon je constate, les gens changent Quand ils pensent que t'as du gent-gent Met sur liste mes 10 gars, William Peel, c'est ti-par Accompagnés d'hydroponique médicale On sera dans la légende genre Rakim et G rap, ou Big et Jigga Quand j'aurai fait les films, séduit les Milf's Accomplis ma vengeance, qui médira? Enfoiré, dis moi qui médira? La tape de Flingue est folle, les rappeurs français y'en a plein que j'apprécie, mais très peu m'impressionnent Après c'est une histoire de goûts, j'suis un Wack rappeur pt'être Pends-toi si ton rappeur préféré est le reflet de celui que tu as peur d'être Tombe le masque, c'est dans l'ombre que je marche Parce qu'on me regarde pas, moi on me remarque Pas besoin que l'or sur mon plexus brille Déjà que je ne fais que surgir avec des Nikes exclusives FLINGUE !5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Freestyle #AlphLauren2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Les rappeurs c'est tous des forceurs, leur signe astrologique c'est bélier J'vais l'faire, enfer oui hell yeah J'me démarque, je centre après la pénétration Le numéro 14 flambe sur Générations Ils ressentent l'élévation Beaucoup testent, woof, mais je hustle Insolent comme Russell Westbrook 7.5., Paname City, c'est pas la Sicile ou bien l'Afrique du Sud Ici y'en a qui cuisinent et d'autres qui trafiquent du sucre La loi de la ur tranche, nigga belek pour qui tu t'prends Aujourd'hui les p'tits te foutent une trempe en 130 Ni bling bling, ni amulette J'suis mal luné, FAL fusil d'assaut à lunette C'est mon alias, on m'appelle Flingue, j'crache comme un vrai gun J'ai pas d'amour pour Marianne, j'en ai pour ma liasse Tu sais bien c'que j'veux Comme toi, j'ai plein de vux, il faut qu'je flingue le jeu J'ai plein d'cousines et plein d'neveux La France fait semblant d'aider l'Afrique J'ai jamais vu un pyromane revenir pour éteindre le feu Don Dada et les 'tasses mouillent Dédicace Mouss', DJ LaSmoul, han Quelque soit le groove, damn, j'ai le style qui s'y prête Sur un sample de Wu Tang ou du Dreezy Drake Que des ciseaux ou des bicyclettes Dans ma famille aucun keuf, aucun physio Je marche comme un vil-ci scred, y'a peut-être l'ennemi qui zone ici Bref, Dieu protège ma famille si j'crève J'suis pas devenu celui que j'voulais être Ce sera jamais nous les maîtres On connaît l'monde, on a grandi Fou et nègre, je vois l'futur en flou et net La vie c'est une leçon donc j'suis un apprenti, ouais Les occasions, faut toutes les mettre J'm'intéresse pas au Sénat, c'est tous les mêmes La politique c'est pété, c'est des diables, je l'vois Ils ont pipé les dés, y'a trop de jeux d'lois J'suis avec mes gars, j'peux pas tomber si ils m'tiennent De l'argent pour la mifa, j'm'en fous d'être le plus riche du cimetière, hein J'suis chez une biatch blonde, piscine dans la villa j'plonge Étage supérieur, nous y allons Je tire, je glisse, comme au biathlon Mon style ne s'trouve ni à New York, ni à Londres Cadeau pour la France, même si elle ne m'en a jamais fait J'veux voir les frères briller, les ennemis à l'ombre Vas-y, allonge Fini l'concert, je dois fuir, j'mets mon cachet dans ma cachette Un p'tit sac en cuir que j'ai surnommé la vachette En douce comme un tzigane Je bouge, j'me douche et je fume le cigare Devant un film de Steven Seagal J'ai besoin d'un armurier, j'ai pas besoin d'un psychiatre C'est ouf, une marque d'ordinateur contrôle l'industrie musicale Je louche mais j'vois bien mes objectifs Le jour où l'peuple se soulève, prends mon CD comme un projectile Hey, je fais du sale, lunettes Medusa Mon shit est clair et s'effrite facilement, t'as cru que j'roulais du sable Héritier de ceux qui sortent de la brousse Ni une poucave, ni un gosse mais la vérité sort de ma bouche</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Freestyle Couvre Feu</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sisi, Une main lave l'autre, U.M.L.A, mon frère Ouais, ouais, Don Dada Sisisi, eh Hun, hun Noyé par le loyer, faut pas que j'boive la tasse, en plus, y'a la taxe , qui peut s'asseoir à ma table ? Les jaloux maigrissent comme pendant l'ramadan, si je meurs demain, trop d'rappeurs à la DDASS Dans leurs clips, y'a des pixels, ils font des sons pour les p'tites surs Ils sont des vélos, j'suis un GSX-R, je m'sens comme Iverson quand il jouait aux Sixers Cascader sur eux du lundi au dimanche, c'est permis Cascader sur eux du lundi au dimanche, c'est permis, hein Sur la route de la gloire, les gens se perdent vite Graillés par des vers comme le bois que mangent les termites On veut quand même une Rolex là où les manches se terminent Dieu merci, j'ai ves-qui vente de drogues et halls, les ambiances rock'n'roll Justice à deux vitesses, faudrait qu'on troque les rôles Donc je l'fais en taf taf, d'puis l'époque où les meufs portaient Naf Naf Posé dans l'4x4, longues vestes en re-cui, quatre quarts, j'veux l'salaire de quatre cadres, cash, han Si cette pouf a ses règles alors mon zgeg goûte à ses lèvres Concurrence assez lég', j'm'en fous, j'accélère à mon tour de jouer, Youssou N'Dour, Axelle Red Contenir le feu ? Non, crache, khey, des généraux chez nous, pas d'chefs Comme l'a dit le Wu le cash règne Sarko' en 2005, j'ai un Kärcher Philly Flingue pull up comme douane volante, Alph Lauren braque vos rentes Essaie pas d'te mettre dans mes baskets, j'suis une grosse pointure, t'auras juste des Air Max trop grandes Y'a des restes de MCs bidons sous mes Air Spiridon, ça, c'est le flow Hermès, Louis Vuitton, hun Pull up comme douane maritime, j'crois pas c'que j'entends, j'crois c'que voit ma rétine Toujours entouré, ouais, y a Framal et Deen, j'suis pas à la chicha en train d'expulser les ronds J'suis dans la cuisine en train de découper des rappeurs ou d'éplucher les comptes 2Pac foncé ou Biggy mince, ça, c'est juste le Philly Flingue, j'ai d'jà porté dix mille fringues, ouais C'est pour les bitches grosses et même les bitches minces, hein Pour faire passer l'temps, j'ai pas trop d'solutions donc je découpe ce merdier comme un gros bûcheron Ouais, han, JayJay, le Lama cuisinent le merdier comme Joël Robuchon, hein Ces rappeurs me font rire comme Joey et Chandler, Phoebe, Ross Mon fils fera du Milly Rock dans l'jardin en roulant dans sa mini Rolls, han Tu sauras jamais ce que Phaal Philly pense, Babylone te guette, il faut la vigilance Fumer l'calumet, braquer la diligence, la migidi maille, on veut les thunes comme la Biggidi Pac On tourne en voiture, j'suis un Migidi Mac, va dire à ces putes Le Phigiddy Phaal vient et les éduque Des Jeep et des Lexus, intelligent, on croit qu'j'fais des études Faut qu'j'exécute, j'passe l'hiver dans l'autre hémisphère si l'été était dur J'suis un professionnel comme Bébél, Alain Delon, quand t'as le liquide, tu rinces le monde J'ai du nouveau linge, on revient de Londres, la lumière dans le noir, j'suis le Prince de l'ombre U.M.L.A, U.M.L.A, sisi Si t'étais pas au charbon avec nous, viens pas au festin, pédé Mon peau d'pêche est doux comme les fesses d'un bébé, hein Ok, négro, ça, c'est dit C'est pour ceux qui taffent, même ceux aux ASSEDIC Le monde ne m'suffit pas comme James Bond Une paire de couilles, c'est mieux qu'un trèfle Quand j'arrive triple sept, les pièces tombent Je mise entre le quinze et le treize, hein Rentre dans le jeu avec Philly Flingue et les autres Pepsi dans l'verre, toujours pas de coca' dans l'nez J'suis avec les frères, les mêmes, aucun kho n'a changé J'arrondis le cercle, renoi, rien ne stoppe mon avancée Écoute ce rappeur dans tes écouteurs Apple Et fais-le seulement si t'aimes le goût de la puff De la bolivienne, ça c'est pour mes aborigènes Les derniers seront les premiers, on prendra vos richesses Écoute fuck les miettes, j'veux apprendre comment faire l'pain Le bruit et l'odeur, c'est nous, comme dans l'RER plein Mon pote asiatique m'a fabriqué une trottinette Avec son ancien moteur de R5, pour faire simple J'arrive à toute berzingue et s'il y en a un qui rappe Mieux que oim, paix à son âme, ma concurrence, c'est Jay-Z Est c'que j'aurais autant de blé à son âge ? Y'a moins de voleurs en prison qu'à l'Assemblée Nationale, okay Crache les flammes, les fans savent, j'tombe rarement en panne Monsieur Wann, tchiki, le flow d'un Tech N9ne Crache les flammes, les fans savent, je tombe rarement en panne Monsieur Wann, hein, hein, hein J'ai capté qu'ils veulent pas qu'je monte Les quelques familles qui se partagent le monde investissent pour ne pas qu'je montre Des dessins de pharaons noirs dans les vestiges J'ai les pieds sur terre mais l'haut niveau me donne des vertiges Cuir rouge, Michael dans Beat it, toujours les thunes d'abord, cette vie est vilaine Comme les putes à la Porte de la Villette, j'compte avec les deux mains, j'suis ambidextre Je suis celui qu'j'ai envie d'être et je mets l'ballon dans l'filet Je rêve d'une Sainte-nitouche Et d'l'argent que les ssistes-gro de Seine-Saint-D'nis touchent, mon 7-5 nique tout, hein La démocratie, c'est choisir celui qui t'la met, l'avenir est flou, j'comprends les jeunes qui vendent en p'tites lamelles Nous ? On veut finir comme Diddy riches, le Président va rien faire pour toi, c'est l'argent qui dirige Don Dada, cette vie est moche, mes anges et mes démons l'savent J'écris pour remplir mes poches, pas pour vider mon sac Poing droit sur l'cur, porte allégeance Tous les jours, des nouvelles perf' qui renforcent ma légende J'te fais passer l'examen, j'te fais passer l'examen Plus l'oral, c'est pas un freestyle, c'est un tuto' d'rap J'te fais passer l'examen, j'te fais passer l'examen Ramène ton pote, j'vous maraboute et j'te gifle avec sa main J'te fais passer l'examen, j'te fais passer l'examen Tchiki Don Dada, soyez patients, hein Tout pour la monnaie, l'titre je le laisse, fuck les gros litiges Parle pas d'choses qu'existent pas le Père Noël, la politique Comme un athlète, j'veux du gros liquide, performance haut niveau En avant les tits-pe quittent le BEP pour s'lancer dans la vente Toujours un temps d'avance, ils la fument avant d'la vendre Futur rich nigga, fuck les snitchs bitch nigga, j'suis comme Larry Hoover, Big Meech Ma crasseuse dans un Uber, ta femme dans un Heetch Rico, Ace, Boogie avec Mitch, nigga, Paid in Full, j'ai d'la famille en Autriche Tu connais ce nègre flingue, j'mets des disquettes aux filles Depuis mes premières Requins, j'fais kiffer des premières dauphines Pour moi, y'a un steak, j'espère qu'il s'ra assez tendre Si j'ai assez d'temps alors l'empire va s'étendre, sisi, renoi, l'empire va s'étendre J'suis en doudoune de septembre à mai, en trench de mai à septembre Crache les flammes, les fans savent, je tombe rarement en panne Monsieur Wann, sisi, le flow d'un Tech N9ne Crache les flammes, les fans savent, je tombe rarement en panne Monsieur Wann, sisi, le flow d'un Tech N9ne Poing droit sur l'cur, porte allégeance Tous les jours, des nouvelles perfs qui renforcent ma légende J'te fais passer l'examen, j'te fais passer l'examen Plus l'oral, c'est pas un freestyle, c'est un tuto' d'rap J'te fais passer l'examen, j'te fais passer l'examen Ramène ton pote, j'vous maraboute et j'te gifle avec sa main J'te fais passer l'examen, j'te fais passer l'examen Tchiki Don Dada, soyez patients avant l'examen Sisi, Une main lave l'autre, mon frère Une main lave l'autre, U.M.L.A Exactement, U.M.L.A, pas UMLA, pas OUMLA U.M.L.A Une main lave l'autre, bientôt en tournée un peu partout C'est la fin, j'crois ils d'mandent Quoi d'neuf ? Ah, plus rien d'neuf, mon gars Ils d'mandent Quoi d'neuf ? et je réponds Rien, à part des raps et des linges On a grandi, elle est loin l'époque où on grattait des oints-j, aucune discrimination On les aime toutes donc on a fourré des grosses, on s'est tapé des minces Fais attention, fais doucement quand j'te passe un billet mes doigts, c'est des pinces Crabe, calamars frits au p'tit déj' respecte le chef, il faut taper des mains La vie est triste, tour à tour un jour, la mort va appeler les miens Le défenseur défend et l'attaquant attaque quand le milieu relaye Faut faire des enfants, si je meurs, c'est pas grave et, à travers mon fils, je renais Ouais, tout va bien une fois l'argent payé, qualité supérieure, pas d'usinage On m'appelle Flingue, je vais pas m'enrayer, d'ailleurs fuck Philly Flingue, je suis La Fusillade J'récupère les passes, pas les biz illégaux, sisi, frérot, ouais, je suis libéro I speak espagnol give me dinero, tes chances sont maigres si le vigile est gros On a squatté des fêtes, claqué des fesses, j'reste assez fier, mon casier est vierge Que l'diable s'éloigne, j'ai jamais bibi, j'vois l'bout du tunnel, j'suis pas Lady Di J'connais la pauvreté donc il faut qu'j'm'enrichisse, on va s'mettre royal comme Henri VI Elles viennent faire son taf et puis j'appelle Uber, faut qu'j'fasse du bif comme Isabelle Huppert Sisi, U.M.L.A, mon gars Une main lave l'autre en tournée10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Freestyle Elysée Montmartre (Impro)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OK j'suis à l'Elysée-Montmartre comme quand j'avais 20 ans Dédicace mon gars pull Wu-Tang je l'ai vu à Printemps On s'est vu tout à l'heure tu sais que j'suis un vrai rappeur Dès que je rappe c'est trop chaud ça devrait faire même des vapeurs Wack MC écarteurs, Philly Flingo dans la place tu sais que je veux des parcelles Et que j'les écartèlent, fais du biff comme un cartel, qu'est-ce qui se putain de passe ? 30 numéros par tél' Au fond c'est ce que j'ai, je sais ce que j'fais, Philly Flingo dans cette merde tu sais que le dièse est toujours frais Ok y a pas de problème... Oh! Taulier c'est ce que j'mets Tee-shirt Don Dada vert-violet Tu sais que je suis dedans, je maîtrise le plan, on dirait qu'j'ai un ou deux clans... tellement y a de gens derrière moi Tu me connais chaque matin d'humeur guerrière moi Personne est derrière moi Philly Flingo, tu peux me voir dans la clairière noir Crache le feu Phal, crache le feu Ok Crache le feu Phal, crache le feu Ok Crache le feu Phal, crache le feu Ok Crache le feu Phal, crache le feu Ok OK, j'crache le feu ou bien j'crache de l'eau ? Tu me connais Don Dada et puis Ralph Lau' À chaque jours c'est comme ça que ça se Philly passe Ouais c'est Philly Phal dans ta caisse y a mes empreintes digitales Ça veut dire que j'ai tout volé, toi même tu sais je suis cru comme dix gitanes Philly Flingo je suis irritable, je fais encore plus de gestes que 10 ritals Je fais des gestes brusques, je mange le choco de Jeff de Bruges Toi même tu sais je rêve de tunes, je rêve de putes toi même tu sais ma Mercedes est... LUXE ! Crache le feu Phal ! Crache le feu ! Crache le feu Phal ! Crache le feu ! Encore wesh ! Crache le feu frère ! Quoi ? Quoi ? Ok y'a pas de problème, toi même tu sais que j'existe, je suis sexiste, si j'veux j'déchire la playlist Ok y'a pas de problème, pas de vestes Redskins, tellement je glisse il faut même des après-ski Y'a pas de problème tu connais les nanas s'amourachent, Ralph Lau' long pantalon d'camouflage Y'a pas de problème je viens débarquer là, je viens cher-la, Don dada paires de Margiela !</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Freestyle Faut Qu’Ça TRACE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J'reste assis comme Rosa Parks Philly flingue, Phillipe Lame, Philly Phaal ouais ouais ouais C'est facile de les faire rager ouais, ça je sais le faire J'arrive avec les Versace et les sachets verts Vous êtes tous gâtés, bande de merdeux du net A travers ma paire de lunettes Cartier je vois des lunes écartées Double scotch, j'ouvre le score quand mon équipe rentre Le toit est en feu, le sol brûle, ma clique flambe Les gens nous guettent et ne veulent ap' s'ambiancer Ils veulent connaitre nos rap, nos sappes nos placements financiers Fuck toutes ces débilités d'espionnage Notre crédibilité n'est même pas questionnable Nique les normes, cherche des deals énormes Dis aux hyènes de déclarer forfait, je suis là pour un millenium J'ai bien dit un millenium, dès que ça parle argent Ils ont des voix bizarre c'est comme s'ils avaient prit de l'hélium Faut qu'on les plume vite, Colors, Don Dada On va faire tomber les collosses uh uh Je culmine, eh, ils pourront ap' me battre On pratique le rap de patron Anti personnel comme une mine huh Je suis boss, pas intérimaire Quand je suis dans le périmètre y'a que des playmates, hein J'écris plus de refrains, je peins à l'instinct Le prince flingue est un sphynx A 25 ans j'ai déjà signé plein de eins' Veridique ouais Pourquoi tu t'lèves? eh Dis moi pourquoi tu t'lèves, j'porte le poids du glaive Les darons sont venus droit du bled, que crois-tu j'vise le toit du ciel Le re-noi du siècle c'est moi, mon rap c'est franc, toi ton rap c'est faux Ton rap c'est vendre mais j'sais qu'y a une brebis sous ton aspect d'fauve 95 entourage de fou, partage le flouz Tu veux voir Phaal KO? Va guet un match de foot hein Plus proche du but que toi même si ça se bute le soir c'est pas la rue qu'je squatte, j'ai plus 15 piges, qui veux-tu je sois ? Il veulent juste que flingue ai plus de swag, mes chicos railles le parquet, je dois mettre le paquet J'ai plus que faim, j'ai plus que soif Certains négliges les codes, pour qu'leur disque décolle ils disent des conneries, c'est Mc's déconnent Mon iris traduit, puis j'record Les fanatiques s'écorchent la voix sur cette merde N'importe quel beat j'les cogne Mon père m'as semé c'est pour lui qu'jrécolte C'est pour lui qu'jrécolte, c'est pour lui qu'jrécolte A 20 piges, j'quitte l'école, braque l'avenir et vide mes colts yeah Je suis la vérité, je suis la vérité ouais je suis la vérité J'suis la vérité, la stricte, ouais J'suis dans c'Rap jeu, crois pas qu'ma team veut ouej J'suis taillé dans le bois l'plus dur d'Afrique de l'Ouest Laisse les s'perdre je checke la ligne droite Tu cherches à faire du gangsta shit, j'crois Ton album sonne comme Dance Machine 3 Tu veux m'voir en chien, peut-être qu'on est dans un game Très peu d'anciens pèsent, j'vais pas rapper jusqu'à 35 berges J'assure le medley en prime time hein Mortel et classe, drive-by en Bentley Ils veulent que j'manque des tartines de merde Faut que j'marque vite ce siècle, mes babines je lèche Faut qu'des bad bitchs me servent des marmites de tiep Que la gloire m'ignore, tant qu'le biff me sait Le beat j'le saigne puis j'vide le sel J'ai pas la voix mignonne, faut que t'analyses le 16 Mon sort est scellé, être célèbre ou exceller Pour la suite de mes essais, le Mercedes SL est nécessaire Don Dada ouais ouais ouais ouais faut qu'ça trace Faut qu'ça trace, j'reste assis comme Rosa Parks ouais ouais ouais hn Jackie Brown, Philly flingue ouais ouais ouais</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Freestyle Générations 21/01/2014</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Philly Flingue Alph Lauren Infinit DBF Ninety-Ninety Five, L'Entourage Si j'tiens sans cesse, dans cette vie d'chien C'est qu'j'dois faire avancer la pensée de mes ancêtres égyptiens Si j'ai ma chance, j'ose Quand j'pose, je sais qu'ça va beaucoup plus loin que les jantes chromées, les Range Rover Mon clan m'chauffe, j'dois accomplir de grandes choses J'me prends en main comme un ado seul dans une chambre close J'suis pas encore dedans, vu que quand tu pètes du score Ouais j'perds du sommeil, j'suis l'expert, j'suis l'Don Je n'peux qu'être près du top, j'pense à ceux qui savent rapper mieux, après j'verse du scotch Quand tu m'vois, guette près du sol Ferme tes oreilles, les faux crient c'que les vrais chuchotent J'avance lentement mais sûrement, j'laisse les mecs perdus faire du stop Tu crois qu'tu gères, tu m'perturbes, tu n'sais faire qu'du soft Rancunier comme un mancunien, Phaal Alex Ferguson J'entreprends, j'banques, j'm'en branles du biz' yo Ecoute mes ventes ?, y a pas d'changement j'augmente le niveau A base de passements d'jambes j'rentre, pendant qu'la défense flanche Auto-centre, pivotement de hanche, j'plante, ciseau A côté d'ces bandes d'idiots, en France j'fais du Rembrandt quand j'prends l'stylo, yeah J'serai jamais au niveau d'Mick Jackson, Nas ou Basquiat Mais sois impartial, c'garçon a la classe d'Andy Garcia Le maximum, le maximum Mes zin veulent peser, au maximum Tellement d'groupies qu'le portable attrape Parkinson Lamborghini de la même couleur que Bart Simpson Et j'suis refais, mais j'pars en couilles Quand ce re-vé m'est fatal comme Federer et son revers Zin, létau se resserre Autour des uns dans le recel et l'arrachage de recettes Oui je sais que les porcs veulent défoncer nos portes Mes zin veulent rouler en Porsche, servir jusque ça déborde Toi t'as presque rien, et encore tu le coffres J'ai pas été élevé pareil, ma daronne mérite de l'or sur le corps Au dessus, eh ouais, Nord, Sud, Est, Ouest D'en Bas, Just Hood, faut qu'tu respectes J't'envoies tout droit vers un paradis immaculé Parce que mon rap ne laisse ni témoin, ni miraculé J'suis immature et 06 immatriculé Tu crois qu't'hallucines, punchline comme à l'usine Si la vie est une banque, je la Jacques Mesrine Si elle fait la pute, je la Iceberg Slim Zin Toi, t'es un bico nul, un bico pute, un bico soft Moi, un bico pur, un bico plus, un bico'saure J'suis le bico'saure, j'suis le bico'saure Toi, t'es un bico nul, un bico pute, un bico soft Ouais, bico fuck t'es bico soft Mes bico forcent les biches à faire les p'tites cochonnes Ma chaîne brille, ma chienne crie La tienne prie pour devenir la mienne, vite Cesse tes pipots de putain, bico discount, j'suis un bico de luxe En plus tu venir, faut qu'on loue un Vito de plus T'auras pas d'feat car le couplet est cher, comme le kilo de pure Bang bang bang, brrrr, bico je tue Bico j'assassine, bico j'enterre, bico j'encule à la vaseline, bico J'suis pas DJ mais je rêve de platine et de garer ma caisse dans un bête de parking Chaîne en or, gants en or, veste en or J'en rêve, j'en rêve et j'en rêve encore J'aime bien ta Benz et j'veux la même en or Vêtements d'sport alors que j'fumes comme un junkie J'veux l'cul de vos jeunes filles Mais crâne chauve ou chevelu, j'pète la tête sur du Bun B J'suis sous codéine comme à Houston Fonce-dé comme à Woodstock Weed pure, bite dure I'm an arab man in New-York Toi, t'es un bico nul, un bico pute, un bico soft Moi, un bico pur, un bico plus, un bico'saure J'suis le bico'saure, plus, plus, j'suis le bico'saure Toi, t'es un bico nul, un bico pute, un bico soft Polo avec le cheval, dis-moi qui est chaud Qui a plus de flow qu'le jeune Phaal, histoire que je m'fâche Passe moi l'addition, Phaal fera la diff' Quand il fera la mission, ta dernière vision Sera une paire de Clarks Wallabees En gros j'vois l'avenir, voilà Tu vas sucer mes potes, donc j'te claque pas la bise J'mérite des villas pleines de filles à peine vêtues Encore ftus, j'rappais déjà comme Killa Cam Tu sais qu'le texte glisse, donc j'encaisse le chiffre Eh yo peps le chibre, tous les voyous veulent que j'fasse du gangsta shit Moi j'veux juste du cash mon re-fré La compèt', ça c'est quand je clash mon reflet J'fais rétrécir les mini-moi J'vous appelle les demi-miroirs, vous faites les mêmes choses sans réfléchir Être plus fort qu'les autres, c'est juste un passe-temps Toi, quand t'es là, t'es pas là, moi on remarque mon absence On remarque mon absence, on remarque mon absence, on remarque mon absence... Chez moi ton rappeur préféré s'fait dépouiller Si jamais il parle trop de sa thune J'fume comme le trou du Glock Et j'fais le tour du globe comme l'anneau de Saturne Si les murs avaient des oreilles, sur et certain kifferaient mes bails Si l'béton avait une putain d'bouche, c'est sur et certain qu'il ferait mes backs P'tit rhéné regarde pendant qu'ces pd parlent J'rape c'que tu penses comme un télépathe J'peux te péter l'bras ou tu traiter d'garce Déchirer ta chatte et les draps Fuck les flics racistes comme Tintin A chaque fois qu'ils contrôlent un teint mat Chez nous y a pas d'arbitre Seul les bastos sifflent la fin d'un match J'ai bien bien mal, tu m'as jamais vu comme un indien pâle Ray Charles me jette lil, rien d'bien grave Te casses pas la tête zin, je maintiens l'cap Bang bang bra Demande à Aket', j'pisse sur le game et je remonte ma braguette S'il reste de la place dans le cul des jaloux J'y mettrai le bâton qu'ils veulent mettre dans ma roue, ok D'en Bas c'est le nouveau swag, nouveau style, nouveau mouvement Tu sais pas qu'ton rap pue la merde ? demande à tes shabs ils sont tous au courant Jusqu'à mon dernier jour, kho j'attendrai la thune On sait tous que t'es tiède, moi j'suis chaud sa grand-mère la pute Ok cousin j'm'insère Linge impeccable, oin-j infect Si t'es perdu dans l'studio, utilises tes doigts, fais un flingue, un L Un tel est nul, un tel est une poucave, un tel est soft Un tel rap moins bien qu'un tel , pourtant ses rap ne valent pas 25 cents Ok cousin j'm'insère Linge impeccable, oin-j infect Si t'es perdu dans l'studio, utilises tes doigts, fais un flingue, un L Un tel est nul, un tel est une poucave, un tel est soft Un tel rap moins bien qu'un tel , pourtant ses raps ne valent pas 25 cents Ça parle d'un film sur moi dans les locaux de DreamWorks Flow Liquid Swords, twerk Marine, twerk Tu surfes sur les vagues, comme dans Point Break Tu t'crois visionnaire, tu sera millionnaire comme Greg C'est mon trône qu'ils guettent, ils sont comiques wesh, hydroponique vraie, perf' microphonique J'fais vibrer Paname comme Pedro Miguel Depuis qu'j'suis dans les temps le votre est révolu J'suis l'fils du soleil, arrêtez d'montrer vos lunes Ouais bico fuck t'es bico soft Mes bicos forcent ton coffre et prennent tes kilos d'or Ta chaîne rouille, y a que quand elle m'voit que ta chienne mouille D'ailleurs elle t'as mis une belle douille, ton fils et oim on a la même bouille J'veux que ta chatte j'veux que ta chatte, ne me parle pas de ta trigonométrie J't'obéis ap' j't'obéis ap', j'suis un bico sauvage pas un bico domestique J't'arrose à la kalash sous vodka comme un bico soviétique Qui peut me test ? Toi, toi ? Ahahaha, elle est rigolote l'équipe J'suis un V.I.P, j'fais la D.I.F, que des jeunes femmes very sex Et du cash money comme Birdman avec Mannie Fresh Narvalo, non ne fous pas mon Jack à l'eau Je choisis mes pétasses dans mon catalogue Et sans transition je passe d'une chatte à l'autre J'suis le super bico Sors le kilo d'olive ou bien d'hydroponique Met mon signal dans l'ciel et je grimpe aussitôt dans ma bico-mobile Ma philosophie ? Putes, drogue, j'pine vos copines Comme des ???, vos chances de rester vivant sont microscopiques C'est Pha-Al, passe les pascals, pas de illasse-ca Minimum Nissan Qashqai, Toyota Rav4 Les garces nous parlent parce qu'on a les pass backstage Fast life, j'fais c'que j'veux comme Charles Pasqua Ils s'prennent pour Makaveli, ils simulent comme Ravanelli J'ai démasqué les faussaires, j'suis un putain d'intouchable donc vous pouvez garder vos flèches Trouve moi à Rome, dans l'magasin Gammarelli en train d'm'acheter des chaussettes Ils savent pas kicker en plus ils manquent de punch Mélange pun et puff, t'obtiens le jeune pull Plus de peur que d'mal quand la brigade passe On sait c'que les keufs veulent, on fume la purple en puff puff Mais la j'opère seul, sur le joint d'bédo Pas besoin de ye-yo , j'pense à la nouvelle école Ils sont pas prêts pour l'interro, j'les guette de loin Ils méritent des zéros pointés, moi mon rap est à 2.0 J'suis dans la place et j'la parfume, mon zbar fume Pas d'rap fruité, que des rap purs, d'la came pure Faut qu'j'prenne toute la place, ils n'arrivent qu'à ma chaussette écossaise Nouvelle école certes, j'suis meilleur que toute ma classe J'suis juste, Alpha l'Don, j'ai pas un zgeg J'ai un totem surplombé du casque de Dark Vador J'obtiens la mention Top 5 Ils voulaient m'filer des miettes, j'ai appris à faire mon propre pain J'vois tous mes fréros hocher d'la tête, guette le polo qu'j'ai Les filles d'l'ambassadeur veulent mes Ferrero Rocher Mais nique une fête, j'tire sur l'pét On t'noie dans la piscine si tu nous piques une tête J'obtiens la mention Top 5 Ils voulaient m'filer des miettes, j'ai appris à faire mon propre pain J'obtiens la mention Top 5 Ils voulaient m'filer des miettes, j'ai appris à faire mon propre pain Joue pas avec le fric quand y a du fric en jeu J'suis pas un bloodz, mais je déteste voir les flics en bleu Le game tellement j'le pète, j'casse son lit en deux C'est l'inondation dans sa shneck, heureusement que j'ai la bite en feu J'arrive du futur comme Trunks avec les cheveux longs J'veux une anglaise qui m'roule des blunts avec sa beuh de Londres Tu m'connais que de nom, ta meuf j'la connais que de chatte Rousse, blonde, brune j'en veux deux de chaque Mes zin lèvent leur majeur, leur bitch et les Kawasaki C'qu'on fume c'est fort, c'est vert, ça pique mais c'est pas Wasabi On s'en bat les couilles de ta loi vas-y La France dis encore qu'elle est bonne alors qu'sa chatte a moisi Ton rap game j'l'arrose à la pisse Test un d'entre nous et on t'éclate à 10 Ma mère s'inquiète pour moi c'est maladif Quand elle trouve c'que je cache elle dit Willy, Willy yalatif Willy, Willy yalatif , zin2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Freestyle Mouv’ #FMRS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>On va jamais chez l'concessionnaire, on fait que louer des Viano Faire du biff', c'est obsessionnel, ça c'est pour mes Diallo, Diallo Vous faites que du rap émotionnel sur piano J'suis professionnel comme Lionel ou Cristiano Mon père me dit Tu fonces dans l'mur, rabats-toi Y'a pas de weed alors y'a pas d'joie Pas d'échappatoire, ils sont deads Je change le dio-stu en abattoir Mon shit fait des bulles comme la Badoit Dab à gauche, dab à droite Trop de p'tits cons dans l'jeu, j'suis King-Kong, dangereux Ça c'est le flow de la pluie, les rimes tombent quand j'veux J'suis blasé, blasé, mes tasses-pé, tasses-pé te calculent quand t'as la sappe Pute, va raffermir tes seuf' à la salle J'suis un cow-boy, et les gens jusqu'à Dallas savent J'recherche les fonds comme dans Thalassa Blasé, blasé comme Ty Dolla ign Salam Paname South, Paris Sud, Paris Nord Alph Lauren, Don Dada Cette Terre est plein d'folie, oui monsieur, yes Sir La négritude et la poisse doivent être surs J'en ai des insomnies, j'aime être seul J'suis un soliste, deviens ma femme si t'as les reins solides avec des belles seufs Le feu je l'crache gros, il reste bleu Alph Lauren 2, c'est pour vos babtous, vos négresses et vos rettes-beu Dis-moi qui paiera le loyer si on m'prive d'encre Mon liquide doit éteindre le feu si les prix flambent J'ai bien travaillé, faut pas qu'j'me prive nan J'porte que du Cavalier comme si j'vivais à Cleveland J'suis comme Infinit', ma vie est un film Où plein d'fils de putains visent, veulent me voir infirme J'aime pas crier au secours, j'dois rester bien vif J'apporte souvent mes grosses couilles, j'arrive jamais les mains vides Je guette autour, l'ambiance est trop louche Les ghetto youths veulent être bourgeois et les bourgeois veulent être ghetto youths On respecte que les anciens, et Bill Gates Dans ce nid d'guêpes, l'ennemi m'guette Mais j'suis prêt pour mille guerres Philly Phaal le patron, tu parles trop fort, tu finis mal L'équipe c'est que des macros et des microphones criminal J'suis avec mes niggaz, mes babtous et mes beurs sûrs Les ceurs-su font des heures sup' On est où ? On est dans les backstages On asperge, les 'tasses pêchent J'ai un concombre et pas une asperge Yes, Philly Flingue, Alph Lauren Don Dada, Don Dada1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FUGEES</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Trop de regrets et trop d'erreurs, j'sais pas où j'suis Mes premières années d'adulte ont un goût d'shit Elle est loin l'époque où j'écoutais les Fugees Les regrets s'accumulent plus vite que les bougies Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite J'le ferais tout d'suite, ouais, j'le ferais tout d'suite En attendant qu'la faucheuse vienne pour me faucher, j'pose mes couilles Mes deux rochers, j'évite les meufs qui veulent me chevaucher, hein C'est l'discours de ma life, les gens que j'aime profondément Sont tous tristes ou malades, le poids d'mes péchés Bien plus lourd que mille haltères, pardon à mes parents Mes mauvais coups les ont mis à terre mis à terre, mis à terre Si j'gagnais un euro à chaque fois que j'perdais un neurone Aujourd'hui, je s'rais milliardaire, milliardaire Trop de regrets et trop d'erreurs, j'sais pas où j'suis Mes premières années d'adulte ont un goût d'shit Elle est loin l'époque où j'écoutais les Fugees Les regrets s'accumulent plus vite que les bougies Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite J'le ferais tout d'suite, ouais, j'le ferais tout d'suite Sans ton amour, la vie n'a pas d'arôme J'me rappelle quand on s'projetait dans l'avenir à Rome et à Venise Sous tes pas, j'aurais dû mettre des pétales de fleurs Mais j't'ai quitté bêtement, maintenant avec des pétasses, je flirte Si c'était à r'faire, je referais tout en mieux La miff, le biff et les affaires J'voulais juste les meilleures filles, les meilleures fêtes J'aurais dû être un meilleur fils, un meilleur frère Trop de regrets et trop d'erreurs, j'sais pas où j'suis Mes premières années d'adulte ont un goût d'shit Elle est loin l'époque où j'écoutais les Fugees Les regrets s'accumulent plus vite que les bougies Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite Si j'pouvais tout rectifier, j'le ferais tout d'suite J'le ferais tout d'suite, ouais, j'le ferais tout d'suite Maman veut une maison face à la mer Papa veut qu'on fasse le pèlerinage à la Mecque J'ai une belle occasion, je n'pense qu'à la mettre Dis-moi qui m'attendait à part ma mère1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hydroponie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Je dépense des sommes astronomiques, dans l'hydroponie Vive Marie-Jeanne, cette pute me plaît Y'en a qui sont dans les voitures de rêve Je suis sous un hoodie Ralph, je roule un doobie large J'esquive les groupies mâles, et les putes de même Je tousse, j'inhale vu comment on use de l'herbe On trouble l'image, si on sort un projet faut que tu te le prennes J'ai regardé dehors, j'ai vu des cailles en escouade et des porcs Je me laisse pas choir quand je vois ce décor Ni celui des surdiplômés qui n'ont pas de gagne-pain Ceux qui travaillent, ceux qui charbonnent Pendant que les canailles trinquent La vie n'est pas un film ricain, si tu penses que ça finit bien Faut tenir la distance, ne réussit que celui qui se distingue La vie n'est pas un film ricain, si tu penses que ça finit bien C'est comme ça c'est le destin, ne réussit que celui qui se distingue Je veux m'échapper de la via l'pilon Disons qu'c'ette société de chacals te respecte que si tu fais le million Fais le million ! x6 Je dépense des sommes astronomiques Dans l'hy dans l'hydroponie x4 Je dépense des sommes dans l'hydroponie ! x4 T'as tout faux si tu crois que les schmits sont bêtes Y n'ont rien à foutre de ta petite cons' S'ils t'ont dans leurs ligne de mire Ils tattrapent en dix secondes La délinquance est au top, la pauvreté aussi Certains méritent des pénos, on va pas rater nos cibles La fracture se fragilise, visualise mes barz Comme un poison, administré à un tas de ministres Nageant entre les boloss, les voleurs et monsieur l'agent Je fume le hash dans l'espoir qu'il me stabilise J'espionne la société, et ses différentes classes J'voyais déjà trop loin pour me battre avec la cité d'en face Moi je rap, je dors, je vends ap' de drogues J'rap, je dors, je vends ap' de drogues Si tu crois pouvoir me tordre en rap, c'est que tu fumes la meilleure frappe d'Europe Y'a qu'en repensant à de bons souvenirs que je suis heureux Tant que j'ai pas le salaire d'un footballer, je me dis À quoi bon courir ? On prend le paquet oseille on se tire ma belle Un joli pavillon Rue des Thermopyles Tu rêves de voler, de voir les tropiques Mais on va dans le 14eme, car La Tour m'appelle Hein, et je me fiche qu'elle soit dans le quinze Si tu veux pas te noyer parmi les gens, planche bien Un genre de nègre, qui s'en branle de plaire Rap tah les O.G, les techniques d'un trentenaire J'sais que la honte les fauchera, vu comment ils nous desservent Mon dessert sera un de ces clochards Même si ces nazes me font bé-ger Numéro 14 sur le dossard, le chiffre que je préfère Tu veux céper ? C'est perdu d'avance J'espère que tu sais perdre ! 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Je bénis le Phonk</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>C'est l'Don ! A coup sûr, tous ils tapinent C'est l'Don ! A coup sûr, tous ils tapinent C'est l'Don ! A coup sûr, tous ils tapinent C'est l'Don ! Tous ils tapinent, ils devraient s'taire Philly Phaal alias le Shiznit, Don Dada est dans le business Joue pas au gosse, on t'monte en l'air comme à Disney J'peux pas être plus en feu même si je m'immole Pas d'demi-molle, j'baise le game, je survivrai de mille modes A Paname des drôles de négros mettent de jupes, hein ? Ils sont tous fruités, quand j'leur serre la main J'peux faire des jus... Don Dada Montre à cadran suisse, montre l'oseille on parle ensuite On est loin du chemin qu'nos parents suivent Le Rap, le chiffre, le Ralph, le chic, comme d'hab je chille J'suis chez oim', j'roule une batte de shit J'regarde le Wire ou j'regarde le Shield... Je suis l'gourou, j'suis l'papy Mon flow les bousille sur Pussy Poppin ce coup-ci C'est Paname cap sud, personne veut taffer Ou être cadre sup', j'ai des sons à faire Dans mon café je mets quatre sucres, te-ma, vise mon bagout Si y'a un bifton j'accoure, on schématise, on magouille Le business une jungle, on utilise toutes les lianes Dans les embouteillages, on compte toutes les liasses Faut que j'me détende, j'peux pas faire sans kicker d'prod Mon humeur dépend de ma quantité d'drogue What, what ?! Si t'apprécies les raps précis Tu sais que quand Phaal rappe Tous ces clowns flippent comme des trapézistes Mon feu nettoie les taches les plus jaunes J'suis noir comme le charbon et j'louche Mais j'fais rêver les tass' les plus chaudes Je bénis l'Phonk, mes flammes sont chaudes, les ennemis fondent Le pénis long fait qu'elle gémissent Comme les joueuses de tennis font Don Dada dit bye bye comme Buju Banton Du rhum Don Papa et elles bougent leurs pom-poms3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>J’suis pas un player</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Philly flingue ! Je suis tranquillement posé avec le crew, l'herbe tourne Aucun projet à part se mettre doux Mes loubards sont àl, bouts d'hasch dans le çon-cale Weed, feuille, clope, Doumam's, prépare moi un ton-car Il me le donne Tiens! Je me récompense j'ai fait du bon taf' Je m'enjaille seul dans les dérives de l'homme Fais fumer ma gueule Je fais tourner le spliff, sinon y'a esbrouffe Certains de mes potes ont des poumons presque Bullet Proof On parle de tout, on parle de seins On parle de boules, on parle de rien String versus Tanga, on parle de dessous De vieux souvenirs de gue-dins et de sous Vu qu'on parle de demain, rap et drogue Si t'es sourd et que t'as de l'asthme je te plains On a déjà fumé le ze-dou Quel que soit l'endroit, regarde le Don s'agite J'me ressers un verre d'Oasis Framboise-Pomme-Casis J'suis pas un player, c'est juste que je plais beaucoup x4 C'est pas dans mes raps que j'exprime ma foi Devine y a quoi, dans mes voies respiratoires ? Trop de soi-disant mecs street aboient Moi, j'assure le show, tu peux rapper mes textes si t'as froid Mais je suis pas irremplaçable, même s'ils estiment ma voix Donc j'me relaxe, je fais pas de tractions Je graille des Smacks, je roule quelques niaksons Je lâche sur eux mes vers classe Mes Air Max viennent de Fairfax Je suis smooth comme Mickael Jackson Quand c'était un nègre classe J'essaie d'être mieux qu'hier Etre un pilier de la filière Prendre la première place Avoir un ancien footballeur qui passe la serpillière Tu fais tiep' passe le MIC que tu manies comme un marmot Quand je rappe les mers montent car le ciel crache x4 Elle est avec sa clique de p'tites putes bonnes Les autres s'agitent comme des pitbulls Nous on garde l'attitude Don C'est un gros dossier C'est prodigieux ils se mettent en ligne comme des officiers Elle veut du gros gibier donc d'office c'est La fin de lOdyssée pour les novices et Les audacieux venus sapés en Christian Audigier Elle fait jaser, elle veut un mec classe pas très âgé Ma paire de Versace a l'air de le présager Pendant que ces tasses-pé se la pètent J'suis encore sur ma beuh, à croire que je veux ma perte Elle demande du shit au Phaal Mais je suis pas de ceux qui amènent la drogue pour la vente Moi je suis juste un toxicomane qui veut de la verte L'Entourage Pète le score dès que j'sors, polo, veste sport Les gangsters soft s'entre peps le zob Et j'suis pas un player, c'est juste que je plais beaucoup1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kim K</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>David Copperfield, Sylvain Mirouf, Gérard Majax, Harry Potter, eh Ouais, ouais, j'fais d'la magie, fouette leurs culs comme un esclavagiste Les pétasses, les pétards s'agitent, ne m'parle pas s'tu fais pas d'la gym J'avais plus de pèze, pas d'quoi m'payer un jus de pêche Yeux ouverts, Orange Mécanique, dents trop longues, faut qu'j'range mes canines Guette le crâne, y'a des vagues dessus chaussettes, calbard Un ch'val dessus, j'achète pas quand y'a pas d'reçu, j'suis pas né pour être cadre sup' J'dois dresser cette chienne de vie, rentre dans Paname par le Sud On dirait une scène de film quand j'enfile le par-dessus Mais l'appât ils mordent, j'les fais disparaître comme Garcimore Ma teub est comme ma liasse, elle se voit même quand elle est quasi molle Maillot de ma ville sur moi ville sur moi Les jacteurs et les bitchs sur moi, parie ton biff sur moi Renoi, j'ai la guigne sur moi yeah À force, j'ai perdu l'côté qu'était ying en moi hin hin Tu veux savoir c'que l'équipe s'envoie ouais, c'est quoi ? Don Dada, rhum papaye sisisi, sisisisi Rien à foutre de faire la paix, à part leur oinj, ils vont rien allumer rien Ramène qui tu veux face à mon feu, ils vont tous s'aligner Bande de sagittaires, on n'a pas vendu qu'des sachets hin hin La prochaine fois qu'j'te croise, tu f'ra la bise à mes lacets smouah Assez parlé d'lui, j'sais même pas s'il est sur la liste On f'ra parler les chiffres, pour l'instant laisse les faire les G's Ils nous appellent les Molière car en face y'a qu'de l'eau tiède dis leur Doumams Confonds pas le Muscat et le Moët yeah Pétard à la ceinture, pétard à ma droite Ça tirait dans tous les sens Prends un break, prends du choco' mais pas d'Kit Kat Le bord à ma droite a le boule de Kim K Fuck les porcs à la douane, ça m'étonnerait qu'ils m'captent sisi Weed, cash, money, négro c'est ça qui m'calme, j't'ai dis Prends un break, prends du choco' mais pas d'Kit Kat Le bord à ma droite a le boule de Kim K Fuck les porcs à la douane, ça m'étonnerait qu'ils m'captent okay Weed, cash, money, négro c'est ça qui m'calme Chemise, nud de pap', le feu bleu part Déjà jeune, on cherchait l'biff en liquide, pas les ufs de Pâques Déter comme un jeune tricheur qui veut le BAC J'veux deux pav' au bled, la même protection que le Pape Les amis restent, les fes-meu partent exactement Repas d'fête immense, guette la tête des traîtres qui mangent Jésus mangeait avec Judas jeudi, il fut crucifié dimanche Qui est c'négro bu-bar ? Parti du bas, chill près du bar Ne me mélange pas aux rappeurs français ttus-ba Nan, j'les couche comme un spliff de kush Refile le que-ch', vive le brunch, nique le Flunch J'découpe cette merde comme la blondasse dans Kill Bill J'me remplis l'bide dès lors que j'ai acquis l'biff Prends un break, prends du choco' Prends un break, prends du choco' mais pas d'Kit Kat Le bord à ma droite a le boule de Kim K Fuck les porcs à la douane, ça m'étonnerait qu'ils m'captent sisi Weed, cash, money, négro c'est ça qui m'calme, j't'ai dis Prends un break, prends du choco' mais pas d'Kit Kat Le bord à ma droite a le boule de Kim K Fuck les porcs à la douane, ça m'étonnerait qu'ils m'captent okay Weed, cash, money, négro c'est ça qui m'calme1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LA LUMIÈRE DANS LE NOIR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Écoute celle-là, tu vas voir, tu vas tomber, celle-là, elle est superbe. Si c'est toi mon frère. Tu vas voir, après tu vas, tu vas kiffer la musique Babylone, tire les ficelles et veut que j'me change en pantin Très vite oubliés sont les bonheurs enfantins Ces rappeurs sont des choristes, Gérard Jugnot avec Morhange J'suis extravagant et classe comme un gros Range Rover orange Depuis mes débuts, je nique Belzébuth Tu n'peux pas t'acheter du goût mais tu peux t'acheter des streams et des vues Un gros jerricane et j'ai trop dallumettes, même dans le noir, ouais j'apporte la lumière Giorgio Armani sur la lunette, de l'amour pour le gang et celle qui m'a vu naître Le nom du gang est sur mon annulaire, des chiffres dans mon cerveau, c'est l'annuaire, ha Tous tes voyages annulés, pourquoi ? Aucun bénef annuel, okay Le shiznit mon premier blaze, quand j'me déplace J'esquive le mauvais il jeté par ceux qui ne veulent pas que j'me dépasse Y'a un cake, j'veux mes parts, quand j'guette le score, vous n'menez pas Vous vous faites mener par le bout du zen, vous n'comprenez pas qu'le rap C'est pas juste drogues, maille, crick et Audemars Piguet J'prends celui d'avril une fois le flow d'mars kické hein J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir Ils font les locos mais rien qu'ça roule dans des loc' Vous êtes sucrés comme des loukoums en plus, ça raconte du floque Chez vous, y'a que de la flotte, hop là petit flocons J'y vais tout doux donc soit tout doux, avant d'entendre pou pou, ouais avant l'chant du coq Fils de pute, j't'ai dis qu'j'rimais quand j'veux C'est pas des flammes mais des magmas dangereux J't'ai dit qu'j'brillais quand j'veux, j'tire quand j'veux J'prierai quand j'pourrai avant d'griller dans le feu Comme les joints des khey dans le square, j'apporte la lumière dans le noir Big Wann, mon nom ressort comme les yeux d'un iguane Pas de rap platonique que d'la frappe atomique Sur la track, appelle-moi Trapattoni, j'leur donne des entraînements sur la trap J'ai d'la poudre sur les mains une arme, t'as d'la poudre sur le nez un gueush J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'ai d'la poudre sur les mains, t'as d'la poudre sur le nez J'apporte la lumière dans le noir, j'apporte la lumière dans le noir J'apporte la lumière dans le noir, j'apporte la lumière dans le noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>​la lune attire la mer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bunker Ils voient qu'j'ai la balle, ils s'demandent va-t-il la mettre ? La thune m'attire tout comme la lune attire la mer Faut mettre des pastèques, faut pas faire des guilis Même les poches pleines, faut qu'je gère l'équilibre Faut qu'j'm'installe, j'ai trop vagabondé ouais, j'mets en place la dictature, comme Alpha Condé j'ai des liasses à compter cash Rap, 0.9 binks, fabrique la pure Binks Beatz Brevet d'études, j'suis ton instit' ouais, faut qu'tu prennes des notes quand j'fais un speech Philly Flingo avec Binks Beatz Binks, on a les crocs comme quinze pits J'suis là pour durer comme Jean-Pierre Foucault Jean-Pierre, rentre dans l'équipe si tu veux des millions ouais Après le COVID, c'est Acapulco, découpe rapide comme un ninja sous coke découpe Crois pas ces rappeurs, les laisse pas t'berner jamais Entre eux, ils n'font qu'alterner, moi j'reste à ma place dans l'Top 5, j'm'éloigne des quatre derniers, ouais Je vois des démunis trop stressés, je vois des riches trop sereins des riches trop sereins Déter' comme un trafiquant d'organes, GHB dans ton verre, il lui faut ce rein Don Dada dope, ceinture, cuillère, zippo, seringue Marianne veut me casser le dos comme Tong Po dans Kick Boxer 1 aight Hypocondriaque, j'suis toujours trop soigné quelque part sur un boulevard haussmannien Dans une grosse carlingue, un truc fou à s'taper la tête jusqu'à s'briser l'os crânien La drogue t'enferme et tu crois qu'ça t'libère, la route est longue, il faut pas qu'j'm'y perde Toujours pas d'mis-per, réchauffement climatique, faut pas qu'j'rappe l'hiver Réchauffement climatique, réchauffement climatique, faut pas qu'j'rappe l'hiver, faut pas qu'j'rappe l'hiver RPTG, RPTG, sisi, let's go Ils voient qu'j'ai la balle ouais, ils s'demandent va-t-il la mettre ? va-t-il la mettre ? La thune m'attire tout comme la lune attire la mer on y va Personne ne l'a vu depuis mardi soir, comme s'il s'était fait kidnapper par des jnouns Beaucoup de fiches de recherche c'est bizarre, des adolescents disparaissent tous les jours bizarre Merci la France, le franc guinéen ne vaut pas une pistache cacahuète Les dictateurs africains sont tous des marionnettes, au-d'ssus, y a Marianne qui s'cache La street rêve du foot mais les footeux rêvent de la street Millionnaires, ils préfèrent traîner avec des voyous que mettre des hat-tricks ahah On te laisse savoir, tu n'es qu'un bronzé même si t'es le plus fort en attaque À Clairefontaine, quand le Président vient, seuls les joueurs blancs peuvent s'asseoir à sa table Trop d'civils en espadrilles, va falloir s'expatrier Les keufs se regroupent en escadrille, tout l'secteur est quadrillé Lui ? Il me donne des ordres, il est plus jeune que moi, j'n'ai pas de drogues, j'n'ai pas d'armes contondantes Va te faire foutre sale abuseur de loi, de mon vivant, je n'crois pas qu'on s'entende Les flics d'en haut ont investi dans le hall, les plus gros poissons sont scret-di dans l'eau Les flics d'en bas, s'équipent en balles, ils veulent juste arrêter les bronzés qui gambadent On est là, on fait rien, à chaque occasion, ils veulent voir nos caleçons Dernière fois au quartier, ils ont abattu un chien chien, même pour les animaux, pas d'compassion Noir au commissariat, j'connais le script, nos chances de survie ne sont pas très grandes Ils commettent leurs crimes sans mettre de gants, c'est des Bloods, c'est des Crips, je les vois comme un gang un gang Don Dada mixtape5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LANGAGE CRYPTÉ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>J'peux pas r'donner la vue à l'aveugle ou changer une pute en femme au foyer J'ai qu'vingt consonnes, six voyelles, hein Les yeux explosés d'vant mon tel', intelligence dosée dans mon texte, j'écris posé dans mon tieks, ok Interdit de regretter, faut rester déter, ton boss m'a surpris en train de sécréter sur sa secrétaire Cracher l'feu, c'est l'thème jusqu'à c'que mes yeux s'éteignent Tu baves sur mon rap mais en secret, t'aimes Le diable a les cornes, Philly Flingue a un sceptre Avant de tomber dans le com', j'plongerai dans la Seine Fier comme un coq, le flow de '96 Code 187 sur un rappeur qui a la cote Et c'est toujours fuck les cops, ouais, les porcs souhaitent contrôler les jeunes négros en sportswear L'ennemi est proche, j'suis en première ligne, le public est proche comme en Premier League J'peux pas faire de miracles comme je l'ai dit dans la première ligne, je fais que m'répéter L'overdose est probable dès la première ligne On comprend pas les mêmes choses même si on lit le même livre, uh La routine enferme, j'aimerais qu'mes gars deviennent libres, uh J'rêve d'indépendance comme un corse, basque J'ai aucune attache comme les Air Force basses Les enseignements d'la street paient, mon rap un langage crypté, le bénéf', je pense qu'à l'tripler, tripler L'problème de l'argent c'est qu'plus t'en as, plus t'en veux, c'est un cercle vicieux mon frère. Alors que si tu t'contentes d'un peu, bah t'es heureux avec ça, tu compr... J'peux pas r'donner la vue à l'aveugle ou changer une pute en femme au foyer J'ai qu'vingt consonnes, six voyelles Philly Phaal, trafic d'ivoire dans une ville ivoirienne J'mets les points sur les i, pas les tchoins sur les lits nan nan nan Ils m'font golri comme une voyante qui voit l'passé ou un mauvais payeur qui voulait rotte-ca la c Ils l'ont attaché, cave, cadenassé, ouais, encore un herbivore qui joue avec les carnassiers oh merde C'est l'heure de s'installer, faut pas stagner c't'année Trop de nuits au studio, graille des nouilles instantanées -tanées, -tanées L'argent soigne, fuck la pommade fuck la pommade Faut que le bénéf' triple, double comme Russell à Oklahoma Trafic de faux papiers, arnaque à la carte Langage crypté comme quand t'as pas la 4 ouais ouais Une maman agresse un employé à la CAF Ma go au septième ciel et mon ennemi à la cave Philly Flingue Trafic de faux papiers, arnaque à la carte cash Langage crypté comme quand t'as pas la 4 sisi Une maman agresse un employé à la CAF Ma go au septième ciel et mon ennemi à la cave sisi Fable, bluff, que du crack, mes fans veulent que du rap Mais Phaal veut que du Ralph, les femmes veulent que tu raques Si c'est dans l'budget, ma femme aura les diamants Mais j'peux la laisser sur l'bûcher, éplucher son amant J'les blesse, le feu est brûlant, rallie-toi à ma cause Tu nous testes, plus de turbulences qu'un Paris-Bamako Et j'ai ma veste old school, frais jusqu'au cou On m'demande souvent combien mon trench coat coûte Ces rappeurs font caca dans tes oreilles, c'est d'la belle chiasse Claque le boule de Marianne comme une belle liasse wouh J'te décris ma vie en la peignant dans un monde où être libre est payant Fuck le globe terrestre mamen, moi, j'dépasse leurs classements Les garces veulent que j'casse la glace Le genre de nègre qui va à Londres pour s'acheter des Clarks Le Don, oui, pour mes gars, bonne weed, fashion week Tirer sur les instrus à la John Wick C'est pas une vague mais un ouragan qu'j'amène Réussir à faire mieux, tu pourras quand ? Jamais Quatorzième, langage crypté, vente de substances addictives Tout l'monde passe son temps à criqueter, eh Trafic de faux papiers, arnaque à la carte Langage crypté comme quand t'as pas la 4 ouais ouais Une maman agresse un employé à la CAF Ma go au septième ciel et mon ennemi à la cave Philly Flingue Trafic de faux papiers, arnaque à la carte cash Langage crypté comme quand t'as pas la 4 sisi Une maman agresse un employé à la CAF Ma go au septième ciel et mon ennemi à la cave sisi Trafic de faux papiers Sisisisi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Le couloir rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Areno Jaz Yeah Yeah Alpha Wann, DJ Lo, Areno Jupiter Ca dit quoi 1.9.9.Quince frère On fait les bails juste aaaïe Alpha Wann Yo, yo, yo, yo, yo, yo, yo Les tasses aiment les grandes jantes, le champ Les cances-va à Aspen Les mecs dégainent Car des graines de haine Cest cque lÉtat sème Moi jpé-ra, jfais mes faires-sa peinard Donc yo jte passe la paix my man On vise les astres et cest lasse-dégueu On veut des liasses car cest dur les Assedec' La vie cest naze, mate cquils ont fait aux Aztèques Jsuis las dès que Il sagit drap, de phases ou de mic check Jsuis pas dans ldélire Des bouts dmerde qui svendent Si tétais prêt dans la poussette, jlétais dans la poussière du Big Bang Cest Phaal, jsuis plus dans leur té-pa d'lyrics Mais on nest pâle défiant les lois dla métaphysique Faut dire à ces Tony Montana qui est Sosa Tellment d'cadavres empilés, impossible de plier lsofa Jai kidnappé ton attention, file un millier de dollars J'suis philly Phaal lyrical XXX Si jme mets à être hardcore fuyez Les mecs parlent de guns, de sper-ta Ont des pétards que l14 juillet Alpha Wann XXX blaze écrit sur mon passport Nuit et jour je fais un tas dmort Areno Jaz Si y a un micro par terre vas-y ramasse-le Si y a un micro par terre vas-y ramasse-le Si y a un wack MC par terre Alpha tabasse-le1052006 Alpha Wann Cette merde de rue Fait qules pères et les fils se perdent de vue Que puis-je faire de plus ? Belzebuth nous persécute Trop dpression, jtaille à lEverest XXX Depuis qule soleil se lève à lEst Limpression quje rêve les yeux ouverts Mon cervelet est en constante surchauffe Jveux un monde sans plus connaitre XXX Jconserve les projets dlépoque On verse les verres de lait Jsuis MC content sur lchrome et fier de lêtre Ma verve est l'fer de lance des vers que jlance Jdois faire que l'ensemble mencense et veuille faire affaire Mec sain mais jmesquinte pour npas être simple passant Avant dêtre médecin faut dabord être patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Le couloir rouge 2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>À chaque ligne jparle de pèze, de tess' et de fesses Des textes qui puent la défaite, jlaisse le rêve où je perce de côté Dégoûté car jflaire des verbes de merde, faible Quand jparle de la zeb, je gerbe et jemmerde ma verve, écoutez À quoi ça sert que je ntrouve pas lsommeil Si à la fin je ne touche pas lsommet ? Et il leur faut cette dose, yo, d'Alph Lauren Et de quoi tu parles si tu ncauses pas dmonnaie ? Phaal, le ninja de lunderground te brisera les dents d'devant Mes freestyles te rentrent dedans Les petites gadjis en redemandent La concurrence ? Faut pas parler des défunts Ton cerveau crée un syndicat, jfais travailler tes méninges Des jaguars, des chattes on va attraper des félins Des jaguars, des chattes on va attraper des félins Alpha Wann, Sneazzy West, DJ Lo, 1.9.9.5. possee Pascal Maigre ! Je ne donne que des lignes, des bonnes et des fines Toutes sortes de hits mais mes poches restent vides Si t'entends leurs pulsations et qu'y a plus d'rappeur Cest quça pue lPhaal un flow sulfateuse dans un pull Ralph Freestyle enclenché, mes textes j'aime plancher Je nai pas le plan B, je nai pas de plan C Respecte quand Phaal à lcro-mi, mec, j'déclenche l'applaudimètre De Maastricht à Bonne Nouvelle, ta boniche aime J'écoute Capital Punishment de Big Pun Ils disent que je risque de vendre des disques Jsuis un monstre avec le sang visqueux Revers et puis coup droit, mec, je te foudroie À mon avis tas moins davenir que du sperme dans un mouchoir Je fais fuser l'encre, pourquoi tu bes-flam, pourquoi tu t'échanges ? Je vends pas de drogue mais tout ce que je fais est stupéfiant Alph' Wann cest Al Pacc, Mike Jackson, Dark Vador Mad Max, MacGyver et Pat Garrett Même si mon il tourne, y'a pas dmalaise Tard-bâ, tu m'prends la tête donc j'écrase la tienne Arrête de sucer, enfoiré, on ne baise que des femmes Jte pète les phalanges, apprends à rapper 'vec Nekfeu et Phaal Nique la street, moi, je reste légal Hey yo, 1.9.9.5. ne signera quun bête de bail1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Le jeune de l’année</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>x2 Que des k.o. et des ippons Je fais c'que j'veux mais j'fais pas c'qu'ils font Mais j'fais pas c'qu'ils font Viens à mon concert si tu veux l'feu Le jeune de l'année Ouais c'est bien moi le jeune de l'année À moi tout seul j'suis une armée Amenez du seum ou de l'amné Du seum ou de l'amné Le jeune de l'année Ouais c'est bien moi le jeune de l'année Le jeune de l'année Ils font les dingues mais ils sont des timp' J'suis en feu, j'crois pas qu'ils vont m'éteindre Elle m'apprécie, j'applique le pressing Moi c'est Don Dada, faut-il encore que je précise ? Ouais ouais, le label de Phaal, rap français perdu J'ai fait des appels de phares Mon équipe te laisse bouche bée Embrasse nos Timberland Boots beiges Tu pactises avec le Diable j'crois Tes raps froids sont tous factices J'crache comme un MAC-10 à la vitesse Mach3 J'suis super adroit parce que j'suis toujours sur l'practice Comme un scorpion ou comme un Socom, je crache Comme Cro Cop je casse, les gogoles me clashent Mais c'est que d'la flûte Le rap c'est faux comme le catch Des haïsseurs jusqu'à Stockholm se cachent Stone Cold Steve Austin, WWF Faut qu'je cours et qu'je trouve le bénef' On cherche le flouze même au bout des ténèbres Test mes troupes et la foudre te pénètre 21ème siècle c'est une épreuve de damnée Obligé d'être un jeune de l'année x2 Que des k.o. et des ippons Je fais c'que j'veux mais j'fais pas c'qu'ils font Mais j'fais pas c'qu'ils font Viens à mon concert si tu veux l'feu Le jeune de l'année Ouais c'est bien moi le jeune de l'année À moi tout seul j'suis une armée Amenez du seum ou de l'amné Du seum ou de l'amné Le jeune de l'année Ouais c'est bien moi le jeune de l'année Le jeune de l'année Hey, le rap jeu c'est un jeu d'échec, pas un jeu de dames Je suis le jeune de l'année La carotte tu veux me la mettre Alors je te la mets Alors je te la... Que, que des raps chics mais je suis un être humain Même Phal chie, et quand je le fais je feuillete le magazine 4x4 Jeep Jusqu'au moment de décéder, je surveille mes écus Je fume la frappe Trezeguet j'ai des migraines très aiguës Barman, sers-nous onze chopes J'roule un cône de jaune bellek aux ondes de chocs Les serpents persiflent, plus tard on s'voit à Bercy J'crache la foudre, on m'appelle Zeus Vive la Lexus, fuck la R6 Persiste, fais la même chose qu'une perceuse Don Dada Records, j'appuie sur le bouton, la fusée Alpha décolle Ils veulent pratiquer mais ils n'ont pas la méthode, nan J'leur fait d'l'ombre, j'suis un félon, à Street Fighter je prends Fei Long Hey, le rap jeu c'est un jeu d'échec, pas un jeu de dames Je suis le jeune de l'année La carotte tu veux me la mettre Alors je te la mets Que des k.o. et des ippons Je fais c'que j'veux mais j'fais pas c'qu'ils font Mais j'fais pas c'qu'ils font Viens à mon concert si tu veux l'feu Le jeune de l'année Ouais c'est bien moi le jeune de l'année À moi tout seul j'suis une armée Amenez du seum ou de l'amné Du seum ou de l'amné Le jeune de l'année Ouais c'est bien moi le jeune de l'année Le jeune de l'année</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LE PIÈGE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Don Dada J'arrive en mode raptor, rappe fort En mode débarquement sur les plateformes de téléchargement J'suis avec deux blondes qui parlent suédois ou J'regarde le monde en haut des bat', sur les toits Don Dada pendentif, bague sur les doigts Dis à la France que tout se paie, ce pays est en stagnation Ici, c'est racisme et vente d'armes, des clodos à chaque station Tu l'appelles Mère Patrie, j'l'appelle Dame Nation pull up J'te l'dis et c'est aussi vrai qu'en Enfer, y a pas d'glaçons Vivre aux heures normales, dans ma vie, c'est vintage La nuit porte conseil négro, j'me couche après mon p'tit déj' Puis comme d'habitude, j'me lève, j'ai la bite dure J'me douche et j'me sape bien, il faut qu'mes habits tuent On veut les liasses, le pèze La vie, c'est un chemin sinueux, hélas j'me perds Est-ce que j'aimerai ma femme quand elle aura dépassé l'âge de plaire ? Je sais pas Eh, autour de moi, trop de pillaveurs, les liqueurs fortes niquent leur force Nigga fuck, j'aimerais vivre ailleurs Avec le shit, j'étais vite fait perché Les sniffeurs cherchent leur paradis blanc comme Michel Berger Les dealers ont des avalanches dans les poches, maintenant Le client veut plus spliffer l'amnes' mais sniffer la neige Tout l'monde rappe, chante, c'est le fantasme Instagram change les meufs en 'tasses, okay L'homme veut impressionner avec des logos et des sapes Les seuls qui s'en foutent sont les clodos et les sages Tout est dans l'paraître, parce que l'homme juge à l'apparence Faut être paré, surtout à Paris, ouais, j'dis ça mais j'suis pareil Ça tourne pas rond dans ma tête, huh ça tourne pas rond, eh Déjà à l'école, j'aimais parler quand fallait s'taire J'm'en bats les steaks, j'aime la Palestine, j'aime pas les States Que les politiciens rôtissent, paranoïa complotiste J'suis dans ma bulle comme un autiste J'suis en live au royaume des aveugles, mate l'il du cyclope On m'appelle Flingue, MAC-9, uzi, glock J'passe les détecteurs, discret comme un détective Quand j'applique le régime, les haters font d'la diététique J'ai fait v'là les sons qui parlent de beuh J'voulais juste fumer mon zbah de beuh dans des allées sombres J'suis plus dans la rue mais ceux avec qui j'ai grandi le sont Mets une bonne somme et j't'apprends le rap en dix leçons Dans l'rap, y a plus d'personnes, y a qu'des personnages Ils écrivent comme des enfants, personne veut faire son âge Rimes évidentes Les groupies-stations service pompent, assurent les vidanges Récit dangereux, écrit dans ma résidence J'guette le public enjaillé qui hurle Nique le banc ou les tribunes, j'dois rentrer dans l'équipe 1 Eh, il m'faut plusieurs phones-tél, comme Marcel Desailly Villa au bled, j'deviens Louis XIV à Versailles J'ai la haine comme Said ou un Blood de la West Side, West Side Comme d'hab, j'écoute du Jay-Z, j'regarde du Denzel J'rêve d'Halle Berry derrière 'oim sur un YZ Je s'rai bon à la fin, Belzébuth a enjaillé mes débuts J'ai menti, j'ai volé, j'ai fumé, j'ai bu J'ai baisé des 'tasses, gaspillé l'biff' J'suis d'vant les portes du succès, passe-moi l'pied de biche J'ai plus l'âge de réclamer négro, j'ai l'âge de obtenir J'ai plus l'temps d'attendre, faut qu'je plante ma tente On m'dit qu'la roue tourne, alors faut qu'ça tourne vite Assoiffé d'reconnaissance poto, j'ai la gourde vide On préfère être libres et pauvres, nique les esclaves riches Comme les présidents cainf' On est dans l'XIV et puis dans l'XV Mentalité Paris Sud, fuck le globe terrestre Ils veulent même pas qu'les négros gobent les restes Les derniers seront les premiers, faut qu'vous l'appreniez Ils ont niqué nos terres et nos têtes Ils ont tout pris du sous-sol au grenier Société détestable, j'suis soutenu par cinq piliers, j'vais rester stable C'est pas du rap hardcore, j'me prends pas pour un rockeur J'vais à la muscu' pour le corps, j'vais à la mosquée pour le cur Holla17</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LE TOUR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Crève leurs pneus chaque jour, les snitchs finissent par déménager J'me pendrais pas en garde à v' même si j'gardais mes lacets L'esprit tordu mec, j'suis qu'un monstre sous forme humaine J'veux jeter d'l'oseille sur le concessionnaire sans remplir de formulaire J'suis l'genre de zin' que ta pute follow Si je pull-up au contrôle technique, faut un UFOlogue Chaque jour, je parle de fric mais certaines choses n'ont pas de prix Certains meurent dans la street pour un quart de brique Donc faut qu'je palpe plus que mon pire ennemi Qu'j'écoute Cactus de Sibérie dans l'Brabus de Ribéry À l'ancienne, j'aurais ken Tabatha près d'Malaga Car j'veux qu'du cash comme les Grecs y prennent pas la carte Tu dis qu'tu casses les nuques comme Li Jet Mais moi j't'ai vu, je sais qu'tu rases les murs comme Gillette J'ai fais le tour de la classe, le rap français sur ma paire de Clarks Je vais jusqu'au Maroc pour un teh de zat, jusqu'à Berlin pour un verre de schnaps J'ai fait le tour de l'atlas, j'ai fait le tour de l'atlas J'regarde pas là où est la classe, le rap français sous ma Clarks J'ai fait le tour de l'atlas, j'ai fait le tour de l'atlas J'regarde pas là où est la classe, le rap français sous ma Clarks Je fais le tour de la ville, je fais le tour de la ville Ses hanches sont larges, c'est long de faire le tour de ma bitch, ouais Je fais le tour de la ville, je fais le tour de la ville Ses hanches sont larges, c'est long de faire le tour de ma bitch, ouais Dans le pochon, tout est vert comme chez les Boston Celtics Zin, je n'peux pas perdre maman m'ordonne d'être riche Vous êtes amateurs, on arrive pro comme Chelsea Que des logos Gucci et des logos Fendi Cesse de parler de guerres ou d'menacer, tu vas jamais le faire Mon équipe va te bombarder genre armée de l'air On va manger comme des rois Du jamais vu comme un manchot édenté qui s'en mord les doigts T'inventes plein de vies, en fait, t'es moelleux comme pain de mie Nous, c'est feinte de tir, pleine lucarne comme à Saint-Denis Dans l'ul-c à vos mères, vous faites pas partie du gang On arrive comme Gustave Flaubert et Maxime Du Camp Rolex Breitling on veut pas d'Casio Style de mafieux comme à Ajaccio, on peut t'transformer en carpaccio J'ai fait le tour de la classe, le rap français sur ma paire de Clarks J'vais jusqu'au Maroc pour un teh de zat, jusqu'à Me-Da pour de l'herbe grasse J'ai fait le tour de l'atlas, j'ai fait le tour de l'atlas J'regarde pas là où est la classe, le rap français sous ma clarks J'ai fait le tour de l'atlas, j'ai fait le tour de l'atlas J'regarde pas là où est la classe, le rap français sous ma clarks Je fais le tour de la ville, je fais le tour de la ville Ses hanches sont larges, c'est long de faire le tour de ma bitch, ouais Je fais le tour de la ville, je fais le tour de la ville Ses hanches sont larges, c'est long de faire le tour de ma bitch, ouais4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>L’histoire d’un type bien</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>All flowers in the garden are gone All flowers in the garden are gone All flowers in the garden are gone Il faut qu'tu saches qu'on débouche tes narines Quand on sort la ppe-fra ou la beuze Le Don Wann se pavane dans des Jordan 9 Et j'porte ma besace qui contient un pécule durement gagné J'laisse pas les putes m'enjailler, ni les joueurs de flûtes Je m'en bats les couilles, je n'ai plus l'temps d'parler L'mic est purement manié, on sait que ce sont les business sur L'côté qui t'offre le pavillon et la Lexus dans l'allée A la banque mes thunes s'enflamment A cause de cette substance damnée J'me dis fuck tant que j'kiffe et que je fume sans stagner Yeah !, guette de près le monde est moche Impossible d'avoir une belle vue sans planer Et t'en dis quoi ? Le temps est splendide, j'croise un pote d'enfance Celui qui était toujours dans les grandes histoires Et tandis qu'moi, j'arbore de grands sourires, il m'explique Qu'il est en période transitoire, il ressort de 36 mois, damn ! Putain, mon bico, roule un joint d'mon hydro Non, je n'connais personne qui sniffe mais tiens mon bigo ×2 Ne m'jetez pas trop d'fleurs J'ai peur de recevoir une épine mortelle Laisse le Phaal et ses couz prendre le contrôle total de la place Qui a déjà fait ses courses dans un local de la CAF ? Maman et moi le mercredi aprem' S'il te dit que j'suis un geois-bour C'est qu'ce nègre dis d'la merde Enlève ma soi-disant richesse et y'a plus de haters Je n'serai pas pauvre ultérieurement, là, j'suis d'la classe moyenne Je sue des heures durant tout la journée Pourquoi ? Parce que je ne veux pas redoubler Le Phaal compte passer dans la classe supérieure Élevés comme des bestiaux Pour rêver de sexe, de pèze, de seille-o Mais les fesses, les espèces sont des effets spéciaux Pour le film de nos vies on veut un budget hollywoodien Lexus GS, Rollex, Tex-Mex avec des belles déesses, yo Je veux pas d'un film extravagant Juste l'histoire d'un type bien Qui fut assez vif pour mettre sa clique et sa mif' bien Ils ont qu'du vieux com', viens goûte ma dope Moi la foule m'applaudit, on s'explose gratuitement pour la cause Ne m'jetez pas trop d'fleurs J'ai peur de recevoir une épine mortelle Ne m'jetez pas trop d'fleurs J'ai peur de recevoir une épine mortelle8</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>L’homme de l’ombre II</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yoyoyo Diggity check yo Un deux un deux yo Je bouge tel un peul smooth vers des lieux louches Souvent arrive les yeux blancs, repars avec les yeux rouges Le chanvre fait que mon oeil louche Et non le plan de mon clan n'est pas de faire kiffer les jeunes bourges Ils veulent tous, jacter, qu'on tape un brin de causette Et je respecte plein de collègues mais j'ai pas le time l'heure tourne Certain ont le seum, quand on sort des coulisses Mais je suis dans le rap depuis que je suis jeune depuis The Score des Fugees Donc laissez mon son, laissez mes amis Certains font que comparer ou dire qu'le Phaal pompe Dany Laisse ces punk ass car ces cons s'fatiguent a être contre ma clique On prend l'or et toi le bronze sale con ronge ma pine Sale con ronge ma pine Full moon life yo, 1 Double 9.5 On nous boycottait genre Il y a trop de blancs Maintenant c'est open chatte, des beaux Hotels Trop de plans La source est fructueuse, la suite est luxueuse As-tu vu que trop de gens font les putes à la vue du buzz? J'aime bien parler de Benzo de lex-Ro comme le fait Jay Hov' Pourquoi pas faire la même chose ? Gros j'enchaîne sans coke L'Hémisphère est un mystère Mais je suis scred dans les rizières comme John XXX Rambo Le hip hop m'appelle, me donne ma paye Sinon, je grogne ma peine comme John McClane La porche la Benz, j'adore ça mec Elles aiment quand les players disent monte à bord d'la bête ! Jeeps, Lex Coups C'est pour ça qu'j'suis dans le business couz' si j'fais mes billets j'bouge Petit j'écoutais Fu-Gee-La J'avais pas ce crew d'killa ni d'groupies sales qui sucent juste parce que je rap comme Kool G Rap Cent tortures mentales j'm'endors plus La vie est durement hard sans blague la ceinture Mon père encore plus J'en place une pour les gangstas pas pour les ordures T'écoutes plein d'hip-hop mais moi j'suis un B-boy pur Phaal Phillip Banks, phase millimétrée Vrai mc comme les X-Men ou Melle Mel Eh hier pour un énième crédit d'merde Encore un fait divers en YZ comme LIM Les putes sucent, pourtant c'est péché J'me fous de truc much et de tout ces décrets Simule pas mais fais bellek si tu rappes La rumeur dit que tu peux finir au tribunal Demande à Ekoué il en faut plus pour nous écrouer Quoi d'neuf Vidji ouais quoi d'neuf Keroué Phaal est peace mais n'aime pas les pitres les wacks mc's Car déjà petit j'voulais pas prêter mes jouets La victoire est méritée, mes guerriers ont le pedigre On va transformer le 5 mars en jour férié2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Los Pistoleros de la Noche</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hein, c'est juste moi et mon délire C'est juste moi et mon délire Dès lors que tu captes, tu poses ton dollar Même si tu adores médire Mon troisième il s'ouvre pendant que le gauche se ferme On cause de rêve tout le temps Plus le droit de laisser les choses se faire Han, je sais pas ce sera comment pour nous Mais la roue tourne, comme a dit mon soss 2zer Qui va y échapper ? Mes alliés te chargent sans hésiter Comme un père de famille dans un quartier de schlag Le blaze qu'ils citent tous c'est Phaal-Philly Couche-toi si tu veux pas Que je te martyrise avec l'artillerie lourde Ca va faire plus que vous coucher vite fait Cours, parles-en a tout les DJ, la meilleure de toutes les mixtapes La meilleure de toutes les mixtapes L'air suspect sous la pleine lune Le super rappeur de Bruxelles vous malmène Petit, je t'aide à fumer toute ta zeb On tire sur nos spliffs, on fait pareil sur eux Que peuvent faire de vulgaires mouches à merdes Contre des abeilles tueuses Cyborgs du futur, on tire des lasers, on crache même du feu Venu sur terre car ton Hip-Hop pue du cul Coucou c'est nous les fous MC's J'ai assaisonné mon 16 avec des sels de bains pour tous les bouffer Je te montre comment je sais faire joffense les merdes T'as jamais ressenti autant de détresse C'est la fin dès que je commence mes textes Vomi mes vers en cabine, flottement extrême Ça fait longtemps que je baigne dans la zik Le Phaal et le cavalier le font, on va pas bailler on Organise la bataille, les canailles ne vont pas rallier le front On met le feu à leur campement J'ai ce penchant qui fait que ma langue est très tranchante Dès que je rappe, je leurs coupe la parole On coupe la poire? Nan enfoiré donne moi toute la part Qui veux voir ma secte a sec? On sesclaffe terre-par A des hectares on te repère, ambiance nocturne On assure le spectacle, tel Heltah Skeltah Je baise ta prestation à n'importe quelle fiesta C'est pour ceux qui sont soulés Tels ceux qui croulent sous les dettes Faut qu'on trouve les verdures où bien qu'on s'ouvre les veines On brûle toutes vos bêtes phases, c'est gratuit Un classique voit le jour même si le bail se fait la nuit Des restes de putes sous nos AirMax J'arrive bientôt pour tout fumer Comme si j'était dans un bus pour Rotterdam J'ai ce truc New-Yorkais Aïe! Et la suite logique des choses C'est que les concurrents prennent la fuite Philly-Phaal monte quand je bouge pas à Paris Le sable sous la gabardine, fusion des Super Sayan Jin L'union de l'agilité du guépard, la force du lion On est la crème, pas besoin que nous te le jurions Pulsions meurtrières, pour me calmer, roule un blunt direct Met toute la beuh qui reste Met toute la beuh qui reste...2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Louvre</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Comme d'hab', le flow est niquel comme d'hab' Le fond est russe, la forme est ricaine Ces rappeurs du dimanche veulent chanter comme The Weeknd comme The Weeknd Vive la part, nique la miette Je cherche pas ma place, j'demande qui a pris la mienne Pull up en Davidson, Harley noire, parlez d'moi, j'm'en bats les noix Mon avocat parle hébreu, pas b'soin d'parler noich À la fin d'un bon film, y'a les keufs qui meurent, butés par les thugs niggas Drug dealers, fonce-dés, blunt, liqueurs Ces chiennes se battent pour moi, des combats de pitbulls T'es pas Angelina et moi, j'suis pas Brad Pitt, pute J'suis qu'un négro laid avec des grosses lèvres Dès qu'j'arrive, les fausses putes s'assoient et les vraies gows s'lèvent Eh, bienvenue dans mon film, navigue dans mon script Je sais garder ma langue dans ma poche, ma bite dans mon slip, hein J't'apprends à parler, wallaye j'veux un palais royal Oligarche, money cash, polygame, jolie garce Don Dada Don Dada, ivoire et argent sur toute la chaîne Ils veulent m'donner un peu d'fromage sans m'dire où s'trouve la chèvre Et l'beurre ? L'argent du beurre, la crémière, j'm'en fous, j'la gère, j'la fourre j'la jette Fuck une pétasse qu'a du cul, j'préfère une meuf cheum qui a du cur Même si elle est moins souple au niveau des adducteurs J'parle vrai, les faux ont b'soin d'un traducteur Y'a pas d'Lambo, y'a l'métro, y'a pas d'gun mais y'a l'cutter Mais y'a l'cutter, mais y'a l'cutter Tu dis qu't'achètes, en vrai, tu loues, après tu l'ouvres J'regarde pas c'que fait la concu', nan, faudrait qu'on m'prête une loupe Élevé près d'une louve, j'ai le caractère du loup Mes nègres iront au musée quand ils vivront près du Louvre Tu dis qu't'achètes, en vrai, tu loues, après tu l'ouvres J'regarde pas c'que fait la concu', nan, faudrait qu'on m'prête une loupe Élevé près d'une louve, j'ai le caractère du loup Mes nègres iront au musée quand ils vivront près du Louvre Mes nègres iront au musée quand ils vivront près du Louvre Mes nègres iront au musée, mes nègres iront au musée1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lunettes noires</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ma monnaie, ma monnaie, ma maille Pour plus être locataires on fait les bails Ma monnaie, ma monnaie, ma maille Avec la précision d'un tailleur La maille dans l'esprit, l'esprit dans la maille Ma monnaie, ma monnaie, ma monnaie Ça parle tasses, cash, football, jeune entrepreneur, hoodboy Bats-toi pour ton assiette, y'a pas d'coup d'bol Le rap, c'est mon aire de jeux, j'ai le tonnerre de Zeus La dame de la chance a écarté les jambes J'ai pas encore mis ma teub mais j'ai pu mettre le doigt Mets tes lunettes noires Ne viens pas dans l'aquarium où la fumée te noie J'me fous qu'tes putes crient J'me fous qu'tes putes crient mon nom On bosse pour l'billet, ça complote pour briller J'ai même surpris mon ombre Phaal et puis S.Pri Noir Pour cette époque qui te glace le ventre Aujourd'hui les armes et les âmes se vendent À des prix dérisoires Pour plus être locataires on fait les bails Ma monnaie, ma monnaie, ma maille Avec la précision d'un tailleur La maille dans l'esprit, l'esprit dans la maille Ma monnaie, ma monnaie, ma maille Reflets violets sur les lunettes noires Je suis mon meilleur soc', j'compte que sur mes doigts Y'a qu'ma monnaie qui assure mes droits On est l'univers si t'es une étoile Tout l'monde fait la même taille vu des toits Je suis mon meilleur soc', j'compte que sur mes doigts Ma monnaie, ma monnaie, ma maille Y'a qu'ma monnaie qui assure mes droits Ma monnaie, ma monnaie, ma maille On est l'univers si t'es une étoile Ma maille, ma monnaie, ma monnaie, ma maille Tout l'monde fait la même taille vu des toits Pour plus être locataires on fait les bails Ma monnaie, ma monnaie, ma maille Avec la précision d'un tailleur La maille dans l'esprit, l'esprit dans la maille Ma monnaie, ma monnaie, ma maille Reflets violets sur les lunettes noires Fuck in your face, c'est les shtars qui nous stressent Cousin c'est le 7.5 gros, on est très synchro Bouge à 4 ou 5 dans une caisse T'es mort si tu baises pas Ta meuf veut nous cker-sma, j'vais lui mettre ma... Tu crois connaître ma vie, tu ne sais pas J'ai le poids d'une quette-pla Dans ma parka black North Face J'veux ouvrir ma window, sur L.A, Dakar, D.C Dans tous les cas très loin d'ici Quatre bords dans une piscine Pas d'folle, on est peace ici, si Wann sert du whisky Une bécane, un brolique, une vengeance est faite Sans se soucier du malheur qu'elle cause Demande aux malades, aux drogués Aux dealeurs de chez moi, quelle est la valeur d'une dose Nous, ne sommes pas du genre à parler pour rien Avoir des dettes au point qu'il en pleuve Nous sommes le genre de personnes qui sont rémunérées Pour foutre leurs putains de yeps en club La maille dans l'esprit, l'esprit dans la maille... Nous sommes le genre de personnes qui sont rémunérées Pour foutre leurs putains de 'ieps en club Je suis mon meilleur soc', j'compte que sur mes doigts Y'a qu'ma monnaie qui assure mes droits On est l'univers si t'es une étoile Tout l'monde fait la même taille vu des toits Je suis mon meilleur soc', j'compte que sur mes doigts Ma monnaie, ma monnaie, ma maille Y'a qu'ma monnaie qui assure mes droits Ma monnaie, ma monnaie, ma maille On est l'univers si t'es une étoile Ma maille, ma monnaie, ma monnaie, ma maille Tout l'monde fait la même taille vu des toits Mothafuck in your face Trop d'bails qui nous stressent 7.5 boy, que des sex-symbols Bouge à 4 ou 5 dans une caisse Choisis bien ta meuf ou ses frères te balafrent Trève de palabres, on est la crème de Paname Là où, la mauvaise graine traîne et applique La règle de Calabre si le traître te balade Qui a fixé les ordres et matrixé les hommes ? Tu cherches un flingue ? Va en Afrique c'est les soldes On fume des trucs qui font quitter les sols Fais tirer, Flingue et S comme un Smith Wesson J'fais mes propres cascades comme Jackie Chan Elles veulent aguicher quand j'ai acquis l'chèque Surpasse-les si y'en a qui t'gênent Si y'en a qui t'gênent, papi Je suis mon meilleur soc', j'compte que sur mes doigts Y'a qu'ma monnaie qui assure mes droits On est l'univers si t'es une étoile Tout l'monde fait la même taille vu des toits Je suis mon meilleur soc', j'compte que sur mes doigts Ma monnaie, ma monnaie, ma maille Y'a qu'ma monnaie qui assure mes droits Ma monnaie, ma monnaie, ma maille On est l'univers si t'es une étoile Ma maille, ma monnaie, ma monnaie, ma maille Tout l'monde fait la même taille vu des toits Pour plus être locataires on fait les bails Ma monnaie, ma monnaie, ma maille Avec la précision d'un tailleur La maille dans l'esprit, l'esprit dans la maille Ma monnaie, ma monnaie, ma maille Reflets violets sur les lunettes noires4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MACRO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Respect à Nubi Sale et à Salif, les étoiles s'alignent Vrai noir en peignoir, tu nettoies, j'salis Paie-moi, paie-moi, j'arrive dans cette merde comme Jean-Jacques Dessalines J'suis un négro spatial, connecté avec quelques ghetto spartiates Et des go asiat', ils veulent être G Moi, du mercredi au mercredi, j'veux faire des sous comme Maître Gims Vous pouvez être deux, vous pouvez être dix Quoi qu'il se passe, les vrais nègres dînent Et je fais que d'le dire Don Dada, bob Prada, fuck Paname J'suis avec un bord à 'Dam, on fait du vélo et on fait du shopping C'est pas ma vraie go, non, c'est juste une copine Son tard-pé est gros, c'est plutôt une coquine, on s'emboîte comme Lego, hey Quelques coups d'fil et on dièse ensuite, livre sterling, yen, franc suisse Quand t'as le biz' expansif, t'as le bras long, pire extensible macro Quelques coups d'fil et on dièse ensuite, livre sterling, yen, franc suisse Quand t'as le biz' expansif, t'as le bras long, pire extensible macro Représente le deux fois sept macro, j'mets Paris Sud sur la carte macro On raye ta voiture comme un zèbre macro, j'suis descendu, j'suis à Cannes macro Pas d'amitié, que le 'seille macro, Maman m'a vu sur la 4 macro Il me manque juste le sceptre macro, il me manque juste la canne Tu mets deux ans pour apprendre à parler quand t'es bébé T'as pas assez d'toute une vie pour apprendre à t'taire. C'est la vérité, combien d'fois tu dis des choses, tu t'dis Putain, merde j'aurais mieux fait d'fermer ma gueule Quand les chtars guettent, je m'téléporte comme dans Stargate J'peux me faire tuer par un chtar pét' Dans chaque bled, le diable plaît, soigne chaque plaie, les vrais sages sont muets comme Charlie Chaplin Dans la paume, un chapelet, boîte de messages pleine Alors que ces putes ne répondaient pas à l'ancienne lorsque j'appelais Bref, négro ça m'plaît macro Alpha n'est pas là, il travaille, tout l'monde croit qu'il s'branle Quand l'chat n'est pas là, les souris se prennent pour Chris Brown Ils ont des perceuses, j'ai un compas, c'est pas comme ça qu'on perce Le rap un combat, c'est pas demain qu'on l'perd Je cherche ma compagne, j'ai déjà les compères Je déteste la compta', je déteste la compet' et ce, depuis tit-pe J'suis pas un winner, me parler de gagner, c'est parler de permis à un mineur Quelques coups d'fil et on dièse ensuite, livre sterling, yen, franc suisse Quand t'as le biz' expansif, t'as le bras long, pire extensible macro Quelques coups d'fil et on dièse ensuite, livre sterling, yen, franc suisse Quand t'as le biz' expansif, t'as le bras long, pire extensible macro Représente le deux fois sept macro, j'mets Paris Sud sur la carte macro On raye ta voiture comme un zèbre macro, j'suis descendu, j'suis à Cannes macro Pas d'amitié, que le 'seille macro, Maman m'a vu sur la 4 macro Il me manque juste le sceptre macro, il me manque juste la canne, han Représente le deux fois sept macro, j'mets Paris Sud sur la carte macro On raye ta voiture comme un zèbre macro, j'suis descendu, j'suis à Cannes macro Pas d'amitié, que le 'seille macro, Maman m'a vu sur la 4 macro Il me manque juste le sceptre macro, il me manque juste la canne, han4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Marche arrière</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fils de Monsieur Wann, et de Madame Diallo Né en 89, à 16 heures, dans le quatorze J'm'appelle Alpha Oumar, comme le père de ma mère Dans le 9.2 d'abord, j'ai usé mes paires de Nike Air Svelte et agile avant de tester Paris J'ai vu la chienneté de la vie, dans la tess des Blagis Rien à démontrer aux autres j'suis complet au cro-mi J'ai passé mes 10 premières piges, à Fontenay-aux-Roses Phaal est sur Paris, j'débarque à Pernety Quartier plus calme où l'quart des pules-cra font l'cash et puis taillent Les mecs rusés, à l'air suspect qu'ont fait des thunes dans les ruelles J'les ai jamais revu Chez moi on se dit Kafass ? et on se répond Tchi, morray J'suis de Paris Sud, tu ne peux plus nous ignorer Ici on bave quand un fréro fait l'oseille Donc on gère et fait nos dièzes Scred tel 007 James Bond, les bêtes ne cessent de faire des rondes Avec des cons' de zeb, des bières blondes, on refait le monde C'est comme partout, tu peux te faire chicotte l'ami Ici les OG's coffrent la nuit et portent des Reebok Classic Phaal est né et a trainé dans ce quartier Où tout le monde est appareillé et parrainé par Agnès B Gros lyrics scientifiques, mon flow s'tonifie, se bonifie Même stone fils, j'anticipe comme Hifi La marche arrière est pétée, si mon crew flanche On revoit tout le plan et lance une mouvance MafiaTrece Avec le Jaz, on diggait à Saint-Michel Dans la tête, plus de 90 rêves Dans les salles toutes gangsta, pendant les mics ouverts On les découpait tous, et on faisait pas les makoumés Mon squad est àl, rappe partout Dans les oubliettes, gouffrières, ou les soirées hype J'suis un paille du sud, style du sud Le nom de mon groupe est aussi la marque du pull Le paille du sud est impassible Même devant une bitch facile qui fascine genre Kim Bassinger Sorti de ma chrysalide, je suis vif J'écoute Liquid Swords Et je suis prêt à l'action tel le vigile à Lidl Le paille du Sud, nique le système Et reste sur le qui-vive, comme s'il taffait au cimetière Yes, c'est pour Le Gouffre, 1995, L'Entourage, DAY MOON GANG Le ninja de la rizière, tu connais frère Paris Sud fait le bail, attitude lay back x21</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>​mitsubishi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Oh my god J'suis un meneur comme Chauncey Billups, Roger Milla, Reggie Miller J'ai fait un rêve, j'étais rempli, j'ai fait un cauchemar, j'étais videur j'étais videur, han J'laisse mon argent parler pour moi, tu connais, j'suis un mec timide hein tu connais J'fais pas d'vues sur YouTube, c'est pas grave, les showcases c'est quand même 10 000 c'est quand même 10 000 J'le fais relax relax, on dirait qu'les millions sont rentrés cash J'suis comme les Ouïghours, j'suis toujours concentré concentré, toujours concentré Oh my god J'arrive, brûlant comme le pot d'un Mitsubishi vroom Ils n'aiment pas les étrangers nan, sans ls étrangers nan, quoi, ils seraient encore en train de vivre sous Vichy Rap trop sale, on l'fait, on d'mande pas d'aide, rap de France, paradoxal Dégonflés mais ils manquent pas d'air, Alpha les illumine comme un lampadaire Image d'Hollywood, punch de kangourou de kangourou, saupoudré de lignes de pure bolivienne Faudra pas retourner ta jolie veste quand je s'rai un grand gourou un grand gourou Philly Flingue Négro convoque tes négros, apprends leur à coffrer plus qu'un tiers un tiers Faut pas t'inquiéter si tu m'vois dans l'métro, chaque projet, j'investis dans la pierre dans la pierre Deuxième album, c'est après après, ça s'ra la crème de la crème Rap FR, je vais pas l'rater, il est trop à la traîne Oh my god Faut plus qu'une aprèm pour me rattraper Philly Flingo On y va9</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mo Monnaie (Remix)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Kezo reste relax Alfred roule le niaks Mo monnaie on connaît Philly Flingue J'ai la vision infrarouge là où ils marchent tous à tâtons Le rap est devenu bateau, j'fais une mutinerie Avant d'les tèj' à l'eau, d'les transformer en surimi Je shoote à foison car j'ai rempli toute ma bouche de poudre à canon J'suis comme c't'enfoiré d'Icare mais j'vole au d'ssus des r'quins Si j'lâche le pire c'est pas la chute mais l'amerrissage Pour mettre ma tribu à l'aise M'dorer la pilule à Lisbonne ou sur la Côte d'Azur à Nice, j'visualise Comment brasser des années d'loyer, éloigner les casses pieds à des années lumières, sans faire de hagra dissuasive J'aime qu'on aime mes écrits d'orfèvre Mais n'envoie pas trop d'fleurs j'ai peur de recevoir une épine mortelle Neg qui innove, vrai B Boy, noble et ignoble J'te parie qu'j'aurais pris l'or avant l'prochain équinoxe Et j'ai du style sans cash, Sket Ralph belle, Nike J'porte les vrais bails Avec le Sneazz', en boîte, on s'moque des cesselards Pendant qu'le Dizmé lui est plutôt lay back sur la terrasse Il a fumé toutes ses cartes et boit du 10 ans d'âge Et si en clash tu m'as trouvé wack, sache que j'frappe n'importe quel MC en place Silence car c'est évident qu'mon immense flyness te mets des Pete Sampras Comme mon père que j'aime quand j'faisais le pitre en classe Comme mon père que j'aime quand j'faisais le pitre en classe Ca m'a pris 30 secondes pour faire d'la rime en nombre Dans les rizières j'm'exerce, les gars d'ma filière excellent Pour nous rimer c'est l'thème, mes fidèles frères m'aident Tapi dans l'ombre, j'vise et brise ta dixième vertèbre Mon squad est àl et fait des siennes, tej' des flèches Casquette Ralph, attitude de béret vert Rêver me soulage, j'm'imagine rouler en Camaro sur K-Maro à la vitesse de Schumacher Pernety cous', hermétique trou d'balle Inchallah qu'j'finisse pas sur NRJ 12 C'est Flingue yo, j'instaure une loi anti-putes Car pour elles j'ai pas d'argent et encore moins d'love J'rappe même en dormant, j'frappe sec dans l'poste Mes gars ont du latex ou d'la zeb en poche Mic check encore, la tech' en or Pas l'temps d'répondre aux clashs des mecs moyennement forts Un, faut jouer des coudes tous les jours Ecraser les pédales comme si t'avais d'la cess' dans l'coffre Deux, pour les couler tous, fais comme si t'avais un frère siamois, mets les bouchées doubles J'ai v'la l'script, un truc où j'me fait la maille J'agrippe mes valises de khalis puis j'me fait la malle Dans une villa en Grèce, cigare dans l'bec Béret Marks Spencer mis à l'envers, j'file à l'anglaise Non j'suis juste le gars qui lâche des rimes à l'ancienne Si les mc's dérivent mettez mon signal dans l'ciel Certains rêvent de m'gifler la joue j'me cache pas Mais j'suis scred' tel un zaïrois dans l'trafic de rajouts Ton rappeur préféré comment il a pu naître ? Phaal, FAL, Fusil A Lunettes Pas b'soin d'armes à feux Ce s'rait comme la torche humaine, muni d'allumettes Philly Flingue yo Philly Flingue Mon EP le 29 octobre Bientôt le vinyle mon job L'entourage, un double neuf cinq Yeah ça dit quoi ? Paroles rédigées expliquées par Rap Genius France !</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>National Syli</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>I'm the original Jamaïcan Don Dada... Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... L'ancienne école était cool, mais mon école est moderne J'suis un adulte, je n'porte pas les jeans qui collent les mollets J'suis sur ma vague, wave, raz-d'marrée Rien n'm'arrête, Leicester, Riyad Mahrez J'suis même pas encore dedans, j'veux déjà m'barrer, ouais Je suis Docteur Dolittle j'entends ces chattes parler, ouais Elles veulent que tu... Elles veulent que tu offres les colliers C'est pas les mêmes phrases, mais c'est du copiercoller J'en apprends tous les jours, j'me sens comme l'écolier Donc c'est rare qu'j'accoste les pétasses avec les Marc Jacobs Check ma couleur, j'ai les crocs, j'voyage comme un consul Le rap avait besoin d'un vrai négro, mes parents l'ont conçu Aston dans la villa, Crystal dans le palace Dès qu't'as les sous tu montes et tu t'coupes du monde Moi c'est Phaal Philly, maillot du national Syli Paname city, j'crache comme un mac milly flingue Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... Mon style est copié jusqu'en République Dominicaine Beaucoup d'mini-Phaal, beaucoup d'mini-Ken J'suis assis sur mes écus, j'exécute les racistes En France y'a la sécu, au bled y'a les racines Mais les Chinois rachètent tout et les chefs d'état trafiquent bien La vie craint pour mes Africains Fuck 0.0.7, je suis l'agent 2.2.4 J'ai arrêté la drogue même si le teuteu calme Halpulaar vis tes rêves, y'a pas de paradis terrestre On parle français, anglais, on sait lire l'arabe littéraire Phaal Philly, maillot du national Syli Paname city, j'crache comme un mac milly flingue Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... Don Dada pour mes g's, pour ma bannière Je suis chez oim, dans mon gîte, dans ma tanière C'est Alpha Wann, c'est pas Gilles, c'est pas Daniel Dadadada, dadadada... Brille, brille dans du linge Don Dada Fuck les snitch ass, fuck les bitch'ass Philly Flingue, DJ Lo', holla back papi...2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>​ny à fond</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Le cours de karaté, c'est cher cher, emprunter un gun ça coûte rien rien J'viens pour escalader l'échelle, me mettre au niveau des souverains sisi Amenez mon trône, j'm'installe j'm'installe J'ai serré trop d'mains sales mains sales Me mélanger, comment ça ? comment ça ? Je suis fermé comme un sas pchhh Chen Zen, galsen comme un Sall ekip Yeuz bridés, japonais comm un San han pétasse, eh, pah pah Lunetts Cartier chères comme un sac Fuck des miettes, fuck des parts On veut les pâtisseries han 6.6.7, Don Dada brodés sur les tapisseries let's get it, let's get it Le phrasé est nice, le verbe est clean Ni rasage ni coupe depuis l'dernier clip J'vois la vie en rouge comme le dernier Crip ekip, ekip, ekip T'es bruyant, pas brillant, belek l'éclipse belek J'suis là pour t'manger, pas pour boire, j'te laisse les tips j'te laisse les tips J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne Alpha Wann, Corleone, rap ecclésiastique Sur les prods comme si on était à skis, grosses liasses avec des élastiques des élastiques Chen Zen, Flingo, on te donne le brevet d'études brevet d'études Boxe les instrus comme si elles nous devaient des thunes cash Rap catéchisme, bienvenue dans l'Église hun Beaucoup d'pédophilie dans l'gouvernement et dans l'Église dans l'Église, han Rap catéchisme, ils frissonnèrent Avec Freeze on est visionnaires, binoclards, vision nette nette, nette Au mic' comme Lebron James et D. Wade swish Ils font la mala mais ils s'font violer comme Tyga et Lil Wayne ha ha Une avance, un contrat, pff, ils font déjà des pirouettes pirouettes On arrive New York à fond, négro, poids lourd heavy weight New York à fond J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne Don Dada Mixtape8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OLIVE &amp; TOM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>J'marchais dans le tieks, j'regardais dans le ciel J'croise un tit-pe que je connaissais bien à l'ancienne - Quoi d'neuf ? Négro tu dates. C'est comment le rap game ? Il faut qu'tu l'frappes Il finit son oinj', il smoke une taf - En c'moment, ça dit quoi ? Ça taffe ou ça bricole ? - On a le matos, les outils, ça tourne comme une boutique Il sort un flash, il picole, ça s'voit qu'ça picote Il le range dans la sacoche Gucci, il ressort un bout d'shit - Sinon la famille et les ieuv', c'est comment ? J'arrive plus à les r'garder dans les yeuz', faut qu'je fasse un truc, faut qu'je quitte ce vilain tieks Mais chaque jour, les junkies en file indienne, attendent qu'on leur deal un dièse Argent facile, le cash coule, façon robinet La dernière fois, les keufs ont serré les tits-pe en trottinette Faut s'battre pour le rrain-té, y'a les armes, les opinels Faut les brandir, menacer des gens avec qui t'as grandi Y'a pas d'taf, que des stages pour être apprenti On a fini dans les filières poubelles, c'est pour ça qu'on effrite les boulettes Et défie les poulets qui veulent nous embarquer au poste Nous frapper au torse, ne pas parler aux cops nan Bref, on sait qu't'es chaud en rap, nous fais pas mentir Salam à ton p'tit reuf', j'ai un truc à f', il faut qu'j'me tire - Hey t'inquiètes, j'lui passerais l'salam, azy' reste frais jeune négro Pernety, Plaisance, garde le briquet, vide l'essence La plupart n'ont pas d'rêves et ils trouvent les études lassantes J'ai vu des ex-champions devenir derniers du classement Nique l'alcool, les tits-pe sont fucked up Y'a du taf que de juillet à octobre Ils ont besoin d'olives comme Tom Ils deviennent des menaces comme O-Dog Les p'tits qui fuguent, smokent, s'évadent avec des stickys purs Je n'dis plus rien quand j'vois des p'tits qui fument Ils ont pas capté qu'le système veut juste leur mettre au fond Ils connaissent mieux la juge que leur mère Ils n'veulent pas d'une vie d'faible Mille deux par mois ou trois cent la plaquette, le calcul est vite fait Les p'tits se croient à Compton, ils ont des marteaux comme Thor Pour gagner, ils ont besoin d'olives comme Tom Chiffrer, c'est le mot d'ordre, ils sont des menaces comme O-Dog Les grands en haut dorment Les p'tits se croient à Compton, ils ont des marteaux comme Thor Pour gagner ils ont besoin d'olives comme Tom Chiffrer, c'est le mot d'ordre, ils sont des menaces comme O-Dog Les grands en haut dorment Les p'tits se croient à Compton Chiffrer, c'est le mot d'ordre Les p'tits se croient à Compton Mais c'est grave parce qu'on prend la place des jeunes. D'où, putain mais envoyez les vieux à la r'traite, donnez du boulot aux jeunes, ils ont pas d'travail. Putain, moi j'comprends pas comment on fait pour le système, j'comprends pas. Nan nan, nan nan. On peut plus vivre, j'sais pas moi, donnez d'l'argent aux pauvres, faites marcher la plaque à billets, là, la planche à billets, là, faîtes marcher, donnez d'l'argent aux gens qu'ils puissent s'amuser et dépenser et qu'tout l'monde puisse gagner sa vie. Tu comprends ?2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Paire de Prada</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Philly Flingo, les fourrures de DoFlamingo Elle crie bingo quand elle voit le lingo Il faut du Don Dada dans chaque boutique, yo J'me vois comme Poutine, Master P, ou Steve Jobs Swag, Fendi, Gucci, Dior Au quotidien, y'a beaucoup d'idiotes Don Dada Eh, faut qu'mon équipe s'canalise, on a b'soin de psychanalyse Nous, on apprécie l'canard et les séjours aux îles Canaries J'vais pas taper d'feinte J'suis bon qu'à livrer des sons calibrés, ouais, on m'appelle Flingue Noir, moche et élégant, faire respecter l'gang ma seule occupation Aucune passion à part la musique et les bangs Plus de niveau qu'les autres confonds pas une échelle et un escabeau Ces rappeurs sont hermaphrodites comme les escargots Évite le bronze, atteint l'or, pull up comme Sebastien Loeb Dans l'gamos avec mon kho mais c'est pas l'sien, c'est une loc' Le négro est perché, les vêtements hypers chers J'étais naze aux R.C., maintenant, j'ai plus d'adversaires Histoire sinistre encore, comme celles qui s'finissent en Corse Une voiture dans la rivière, un ministre dans l'coffre Des migrants à la rue sur les boulevards haussmanniens Des touristes se tapent dessus, des britishs, des australiens Plus l'temps pour les conneries, les affaires décollent Faut investir vers l'Écosse, renaissance à travers les gosses, faut se décoller des bancs Aller au bled et ouvrir des écoles et des banques Fuck les halls, les bat', les haut, les bas, bellek la Ford Mondeo départ Vrai Don Dada Vrai Don Dada, vrai Don Dada J'viens de faire deux-trois dates, j'mérite bien une paire de Prada Vrai Don Dada Vrai Don Dada, vrai Don Dada J'viens de faire deux-trois dates, j'mérite bien une paire de Prada1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Papi Chulo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Don Dada... Yeah ! Col en V, lunettes de star J'ai un style monstrueux, j'ai pas un bête de style Je m'y connais en Rap, j'me fais les meilleures critiques Je l'dis pour qu'les haters sachent, la vie une partie de bowling La mienne sera faite de strikes même si les frères me trahissent J'prendrai les chèques avec plus de bulles qu'une bouteille de Sprite Ça kicke sec, X-Men, j'rappe à Paris même dans l'Finistère Ils finissent dead, de quoi ton équipe s'mèle ? J'voulais faire un gros son sur mon Blunt Phillies mais Ici les chanteurs à la Jean-Philippe Smet finissent maîtres Fuck, faut que j'adapte le produit, c'est une époque pauvre Foxtrot, Alpha L alias Le Prodige ×2 Qu'est-ce que veulent ces chiennes ? Pourquoi les haineux s'déchainent ? Je n'joue pas leur jeu On n'joue pas aux dames avec un joueur d'échecs Alors baisse d'un T.O.N lorsque tu t'adresses au D.O.N ×2 On m'appelle Papi Chulo comme si j'faisais du reggaeton Papi, Papi Chulo ! Mon CD cogne, faut l'enseigner dans les écoles Papi, Papi Chulo ! Cite-moi les meilleurs, je vaux l'un d'eux Papi, Papi Chulo ! Que le Hip-Hop français s'repose un peu Mes gars ont rencontré des biatchs Elles disaient les trouver mignons Elles dorment à l'Hôtel Crillon, ils partent manger des grillades Vers Mabillon, elles veulent pillave, ça parle voyage, avion Ils ont la sensimilia, elles ont le Saint-Émilion Mais, moi, j'suis en planque vu que j'ai de grands plans Ma filiale a des visions, près du billard ça parle billions... J'bédave, je taffe, mes rageux stagnent, je joue l'Rap jeu J'développe une pensée tranchante comme une lame jetable Regarde, rien n'change Y'a juste des masques et des voiles qui s'enlèvent On n'devient pas un homme avec le temps On l'devient en choisissant de l'être Le bail, c'est qu'on m'repète la même chose Les soi-disant vrais moisissent sans faire de maille ×3 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PARACHUTE CHANEL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fais pas le dur rebeu, tu fais du R'n'B, tu m'as l'air faible Parachute Chanel au-d'ssus du Grand Palais Je suis venu passer le salam à Lagerfeld La fille est d'bonne famille donc je la stocke Ta go prend la confiance donc je la stoppe J'suis v'nu pour la tacler, elle se sent tellement che-fraî quand elle remarque que je la stalke Je surfe dans ses DM comme Brice, Diamant, Ice Rebeu, la vie a un price, c'est pour la mi-fa que je fais des ronds Et le trésor, je vais le déterrer, toi, t'es à la chicha, tu fais des ronds Le rap, c'était censé nous fédérer Dieu sévit et ils eurent ce qu'ils méritèrent J'connais pas d'être humain qui soit vraiment droit Quand j'allais à l'école avec des héritières J'vivais à l'hôtel, il faisait tellement froid Y'a pas de conte de fées, pas de fairy tale J'apprends pas d'mes échecs, je les réitère Mais c'est plus des échecs, c'est des victoires La foudre ne frappe jamais deux fois au même endroit Hey, hey, sucer n'est pas la seule issue, oh On plaisante pas avec le visu, oh, double C sur le tissu, oh À dix sur une mini dose de molly, pourtant ça parle que de milli-milli À dix sur une mini dose, parachute Chanel comme si j'étais Lily-Rose Parachute Chanel, Parachute Chanel Parachute Chanel, Parachute Chanel Parachute Chanel, Parachute Chanel Don Dada Capuché comme un détraqueur, j'suis le sécateur Dans les magouilles comme Sepp Blatter, tous ces gratteurs veulent des featurings J'refuse même quand c'est flatteur, que des délateurs Le rap français, c'est d'la de-m', j'ai l'nouveau merdier dans l'congélateur Hein, strictement strict, on s'en branle du script Pendant qu'tu skies, j'pull-up sur toi avec mes trente huskies Hein, un p'tit peu d'shit, les tits-pe l'chiffrent La boîte d'argent sale est gée-char comme un triple cheese Dans le XIV, on reconnaît les visiteurs, les civils sont vites pistés, ils portent encore du Quicksilver Provoquant c'est voulu, quand on s'lâche avec la meute Bain de minuit tout nu dans le lac avec ta meuf, hein Que du fly shit, caca volatile, ne jamais mettre les putes avant la team Contrôle qualité dans la totalité, c'est sur les noirs que la volaille tire Donc je fais mon truc et je quitte la France, l'Histoire est changée selon qui te l'apprend Des clowns dans l'arbre, nique ma branche, y'a de la sal3a et de la liqueur à vendre Flow travaillé aux States, j't'entraîne comme Guy Roux à Auxerre Épaules larges, grosse tête holster, Gucci sur mes chaussettes Des billets qu'on empile pour amortir la chute sa mère J'atterris avec style, j'ai mon parachute Chanel Parachute Chanel, parachute Chanel Voyant comme sur du sang sur la neige Parachute Chanel, parachute Chanel On vient pour augmenter la mise Parachute Chanel, parachute Chanel Aucune messe basse pendant la messe Parachute Chanel, parachute Chanel On vient pas pour parler chinese Le genre de p'tit con qui fait tourner une schneck Le genre de pilon qui fait tourner une tess' Le genre de bifton qui fait tourner une tête 3.5.7 Python pour retourner une caisse Parle tout bas quand on discute, la concurrence espionne dans les camionnettes Black-i Chan, je saute en parachute pour atterrir dans le cabriolet J'ai marché de Ourcq à Répu', j'suis en loup à l'arrêt d'bus Si l'bénéf double je m'arrête plus, on refourgue la vraie pure Google ma réput', Google ma réputation J'crée des rappeurs, j'suis à la tête d'une nation J'leur apprends tout, j'suis dans l'éducation Google ma réputation, fuck le triple six, j'maîtrise depuis J'ai évolué, j'mets plus d'chaussures en daim quand y'a des risques de pluie Plus tard, j'suis un boss au bled Approche trop près j'allume, ton projet j'annule, Wu-Tang Nigga protège ta nuque Je sais qu'les fans croient que les rappeurs n'ont pas de loyers Tôt ou tard, il faudra mailler, mordre et ne plus trop aboyer Flow travaillé aux States, j't'entraîne comme Guy Roux à Auxerre Épaules larges, grosse tête holster, Gucci sur mes chaussettes Des billets qu'on empile pour amortir la chute sa mère J'atterris avec style, j'ai mon parachute Chanel Parachute Chanel, parachute Chanel Voyant comme sur du sang sur la neige Parachute Chanel, parachute Chanel On vient pour augmenter la mise Parachute Chanel, parachute Chanel Aucune messe basse pendant la messe Parachute Chanel, parachute Chanel On vient pas pour parler chinese2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Parle-moi de bénef</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>I will be part of this travesty You're only playing at loving me No need to go and pretending We had our time, now it's ending We always said that would be no regrets You don't remember, baby, oh ! Don't forget Phaal faudrait p't'être te prêter Main forte pour que tu puisses te réveiller vers 8h30, oh ! J'veux pas ne pas être très regretté Nique se lever très tôt, j'aurais kiffé naître retraité On s'en bat les reins de tout T'aimerais être malade comme nous Tu récoltes les bactéries quand Phaal et Inf' toussent Vu que les phrasés flinguent tout Comme c'est pathétique, tu parles pas monnaie On devient sourds, on te connait pas t'es qui ? Pourquoi tes mains se crispent ? Faut pas te plaindre si on dit Que les vrais reconnaissent les vrais et que ton nom n'est dans aucun registre On veut tout l'espace donc on redouble d'effort On veut mater la coupe d'Espagne dans un coupé sport Aucun discours sain, je suis dans le 0.6 Où y'a de la bonne weed qui pousse et où ils disent tous zin Un beat de l'Hologram, je vous prends quand je veux Je planche même le dimanche tôt, petit logo Ralph, je suis discret Donc j'aime pas monter sur mes grands chevaux Lance du chanvre, yo ! Roule ce petit jogo de hash Au-dessus des lois comme un politique J'veux le prolifique business et le gros liquide Pour ça, pas le droit de freiner, parle-moi de bénef Si tu veux m'intéresser, si je réponds pas, bah, réessaie Le moindre plan, Inf prend, fuck la L.O.I Avant de penser à elle, je pense à M.O.I L.I.B.R.E sous W. double E. D A l'heure où je rappe j'suis complètement I.V.R.E J'ai mes propres potes, zin, mes propres règles Mes propres codes, zin, mes propres rêves Rien ne peut me stop, toutes les conditions sont réunies Personne ne peut me fuck, j'saute sur le coffre Brûle les étapes et les ennemis J'fais plus qu'épater les belles filles, zin Marre de tenir les murs comme du mortier Moi aussi je veux jeter mes clefs à la gueule du portier, yeah ! I will be part of this travesty You're only playing at loving me No need to go and pretending We had our time, now it's ending We always said that would be no regrets You don't remember, baby, oh ! Don't forget2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>​philly flingo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Batman, c'est pour les gosses, crois pas aux histoires de chauves-souris Je fais mes dièses et j'évite d'être trop rebelle, j'évite d'être trop soumis J'suis un soldat, pas un mercenaire et je sais comment la guerre se mène J'pense à mes derniers jours, pas au nombre de ventes de la première semaine Philly Flingo, collab' avec Nigo, chante avec Migos Sur la une, y a même Arthur et y a Nikos prime time J'fais pas l'comique ou le Malcolm X, j'rédige ma chronique dans l'régime macronique Enfant matrixé par Kris Kross, maintenant, j'suis matrixé par les bruits d'coffres Je reviens sur les ondes, faut sortir des vrais sons, le tur-fu a l'air sombre Prochain confinement, il faut une maison, j'agrandis le réseau, je réduis mes liaisons J'peux t'entraîner, j'suis comme Gregg Popovich, faut suivre la cadence quand ça va trop trop vite J'ai des nouveaux rageux, des nouveaux prototypes, des jaloux saboteurs aux yeux de crocodile C'est en pleine lucarne que l'Don l'a mise, j'suis proche de mes sous, ils sont comme la miff Il faut que j'blinde les miens, n'y touche pas ou l'sniper, te flingue les mains Philly Flingo, collab' avec Nigo, chante avec Migos Sur la une, y a même Arthur et y a Nikos Ambiance électrique genre 600 Volts, j'entre dans la pièce, j'ouvre ma veste Y a deux oiseaux blancs qui s'envolent, ça pue trop la victoire, ouvre la f'nêtre Parfum de victoire, nouvelle fragrance, on m'demandait qu'est c'tu feras grand ? Moi, je répondais retraite et vacances, j'm'explose gratuitement pour la cause Début d'une nouvelle parenthèse, j'rentre dans la trentaine en quarantaine J'sais qu'c'est faux s'ils l'ont dit à l'antenne, regarde la concu', je suis pas dans l'thème Les rivaux sont bus ou se font tirer d'ssus comme des canettes de 33 centilitres J'te tranquillise, je m'la raconte trop comme les gens qui lisent La concu' ne marche plus, on flingue les jambes, j't'amène vers le luxe comme le rond-point des Champs J'augmente le level gros, fut Prada avec le velcro En toute circonstance, je reste pro, le temps file, j'guette les aiguilles du cadran Société décadente, j'suis le futur maire du XIV, je rappe plus dans quatre ans C'est en pleine lucarne que l'Don l'a mise, j'suis proche de mes sous, ils sont comme la miff Il faut que j'blinde les miens, n'y touche pas ou l'sniper, te flingue les mains Philly Flingo, collab' avec Nigo, chante avec Migos Sur la une, y a même Arthur et y a Nikos Don Dada mixtape10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PISTOLET ROSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Hein, hein, hein Vue la taille d'mes ambitions, j'ai des ennemis plein d'qualités J'suis en mission, qu'est c'qui peut m'ret'nir à part la gravité ? Faut être vif mon négro, j'suis un pistolero Tout l'monde peut tuer tout l'monde même si la balle sort d'un pistolet rose Vif mon négro, j'suis un pistolero Tout l'monde peut tuer tout l'monde même si la balle sort d'un pistolet rose J'les fume comme des Camel, j'm'amène avec Ahmed, Jamel des rebeus Cinq bagues sur les doigts, on dirait qu'j'appelle Captain Planet Triple menace, j'ai le shoot, je le prends, je n'change pas d'équipe, je ne suis pas Lebron Je coach son équipe si tu m'vois sur le banc, mes premières rimes, j'ai écrit dans le Bronx J'suis au top, faudrait qu'j'y reste, que du Pepsi khey Noyé sous l'alcool même le plus gros thon devient une belle sirène Tes pompes tu voudrais cirer, des pontes je voudrais scier Nique les keuf, j'suis un N.W.A, Ice Cube, M.C Ren Crache ce feu, le rap il t'aide, ravi d'être le Don Dada capitaine J'aère mon esprit, j'ai la clim' dans l'appuie-tête Les pieds sur l'tableau de bord, j'rêve des flingues que Pablo porte Poitrail gainé, maillot d'corps, on fait des détours face aux cops, ouais Caméra d'luxe ou 5D, boom bap ou trap musique Nous, on s'en fout faut flinguer comme le chasseur qui traque une cible Ces rappeurs font pipi assis et ils jouent aux experts de tess Je flex dans l'tiek's, je flex dans ton binks, à l'aise comme un buteur qui bibi assis, ouais Tout est si calme, j'arrive avec des serbes ou des tsiganes Tous des smicards qui veulent goûter l'cigard ensuite parier sur la Bundesliga J'fais les boutiques et j'm'achète des bougies, tu découpes des bouts d'shit, t'embrouilles pour des broutilles Moi, quand je vais voir la voisine ce n'est pas pour avoir un cookie, nan Mon blase, dans la légende et dans la liste privée J'dois vite speeder, district X.I.V, là ou personne ne laisse un biff filer Respecte-oim, dis pas n'importe quoi dans les tweets Tu tomberas comme les Twin Towers, j'vais t'rouler d'ssus en B-twin Vue la taille d'mes ambitions, j'ai des ennemis plein d'qualités J'suis en mission, qu'est c'qui peut m'ret'nir à part la gravité ? Faut être vif mon négro, j'suis un pistolero Tout l'monde peut tuer tout l'monde même si la balle sort d'un pistolet rose3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PISTOLET ROSE 2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Je r'garde les deux premiers Rambo, je r'garde pas l'trois Ces négros savent, ils n'font pas l'poids, mentionner mon nom, ça, ils n'ont pas l'droit Tu veux d'la lumière ? Reste collé à nous, je cherche la victoire car j'connais la loose Quand je mène l'enquête, faut me donner ma loupe, donne pas de conseils si tu connais walou Trop de clichés mais y a des noirs qui bossent, y a des blancs qui bicravent Et moi, je n'sais pas danser, fusillade musique, que des chants qui mitraillent, chaque série de tirs est toujours cadencée Plus y a d'maille, plus y a d'pièges et plus y a d'risques Ma poche n'est plus aride, je les régularise, je vais l'chercher, je n'attends pas que mon pécule arrive Le tiers monde donnera naissance à de grandes nations, en attendant, on bossera pour le béké dans la plantation Moi, je fais c'que j'peux dans mon champ d'action Interactif avec mes associés, connecté H24, déter' depuis l'âge ingrat, je sais que ma rage vaincra Pour mon apparition, faut qu'tu lâches 20K, la musique, c'est bien mais j'vais pas y laisser mon âme J'braque l'avenir, comment baisser mon arme ? J'connais l'histoire de mes ancêtres, j'dois respecter mon arbre J'ai commencé avec le flow, j'finirai par écrire des livres J'suis né, j'étais un négro, pour eux, j'ai commis le pire délit Paye pour la venue de Phaal, ça t'coûtera plus, apprécie l'chant, j'apprécie l'change Confort, exigence, Airbnb avec six chambres J'teste le mic', j'm'occupe des affaires qui traitent de maille Imagine la tête de Michael Jordan quand il a vu son premier chèque de Nike Son tout premier R.E.P Nipsey et Tupac Shakur, la nôtre est pure, les autres négros la coupent Je regarde le taux de nullité, j'fais baisser la courbe, gang1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>​pistons vs pacers</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Si si, Philly Flingo Crimi, let's go Don Dada J'fais mes affaires dans le son le son Comme Népal j'fais mes affaires dans le fond le fond Parce que Marianne veut faire la miss ouais, ouais Grande musique que des chefs d'uvre et de l'argent cash Fuck les freestyles sur une plateforme Tous ces rappeurs c'est mes petites sistas, je chaperonne Comme une chicha, je charbonne Tous ls jours, à part le lundi à part le lundi J'suis comme Pte Sampras en 90 C'est le grand chelem, Lionel Messi, LeBron James Lionel Messi Faut que des grands chèques, un album commun avec Dadj et Angèle Une vie privée comme le jet jet Chorégraphié comme le check Le shit est huileux comme le thièb thieb On s'est fait boycott comme le tiers monde C'est plus trop l'heure de se plaindre Si t'es charbonneur fais ce plein Il faut ce beurre et ce pain Ils n'aimeront jamais cette couleur et ce teint Pour de l'argent, on se bagarre pour de l'argent, on se bagarre Comme les Pistons et les Pacers comme les Pistons et les Pacers Quand ma liasse prend de l'épaisseur quand ma liasse prend de l'épaisseur C'est comme l'effet d'un anti-dépresseur TA TA TA Pour de l'argent on se bagarre Sauvage, Sauvage, Sauvagerie Comme les Pistons et les Pacers GANG GANG GANG GANG Pour de l'argent on se bagarre LA BAGARRE, LA BAGARRE, LA BAGARRE, LA BAGARRE Comme les Pistons et les Pacers WOO, WOO, WOO, WOO R.A.S, hey Sans nos ancêtres, sans nos ancêtres, la France serait encore en terre d'occupation Chef d'opération, action, y a rien de glorieux à bicrave et enchaîner les condamnations gang Faut la peine de mort pour les pédophiles et si possible par lapidation fort T'as pas compris ? Agression sexuelle ne veut pas que dire pénétration Let's go De c'monde au paradis c'est un long trajet Quand le diable s'y met, ca devient tragique Woo T'as vendu ton âme pour faire des lovés Pour faire du peu-ra, putain c'est tragique dingue Faut s'méfier d'la colère d'un homme patient sauvage Là, c'est Criminel Maupassant Wesh Alpha passe le salam à Nekfeu, Doums, mes gars sûrs au passage R.A.S. Gang Laisse pas traîner ton fils piou, piou, le jour comme la nuit Les shooters ! Quand on possède c'que tout le monde veut, on s'fait vite des ennemis Gang C'est plus trop l'heure de se plaindre Si t'es charbonneur, fais ce plein Il faut ce beurre et ce pain Ils n'aimeront jamais cette couleur et ce teint Pour de l'argent on se bagarre Sauvage, Sauvage, Sauvagerie Comme les Pistons et les Pacers GANG, GANG Quand ma liasse prend de l'épaisseur C'est comme l'effet d'un anti-dépresseur TA TA TA Pour de l'argent on se bagarre Sauvage, Sauvage, Sauvagerie Comme les Pistons et les Pacers GANG GANG GANG GANG Pour de l'argent on se bagarre La bagarre, la bagarre, la bagarre, la bagarre Comme les Pistons et les Pacers WOO, WOO, WOO, WOO C'est dans l'top qu'il faut m'inclure Hardcore dans la peinture Merci Salvatore pour la ceinture Ferragamo J'lis les rapports de la bourse Faut qu'j'apporte de la bouffe Une flamme sort de ma bouche Une femme sort de ma douche Don Dada Mixtape Album en commun avec les Daft Punk Woo! J'suis dans la merco avec Ray Da Prince Nous c'est les shooters, ici, les balles pleuvent piou piou, les shooters ! Elle me dit baby, please, buy me a drink4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PLAYOFFS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Don Dada, Don Dada Don DD's, Don Dada, 1.9.9.L Écoute pas ces rappeurs Ils mentent dans la cabine et ils disent la vérité au comico Philly Flingue, Volume 2 J'ai la patience, je sais qu'j'aurai mon fromage Pendant qu'j'travaille ma science, l'industrie fait du clonage Les traîtres se regroupent, les vestes se retournent La nature de l'homme quand il lui reste peu de flouze Jsuis flé-gon comme un ballon d'hélium Chaque jour, j'm'améliore, j'rayonne J'mets la pression comme Steph' Curry pendant les playoffs Tu sais comment j'procède, le négro sec, va les crosser avant la quatrième période Quand j'suis dans l'action j'suis un agent de la CIA J'fais des transactions dans des cabines d'essayage Le jeu qu'ils jouent m'soûle, je shoot sous leurs shoes, j'maîtrise mes jutsus La température monte comme à la boutique Rolex Quand quelqu'un a rotte-ca une montre rien à foutre qu'il m'connaisse Occupez-vous d'vos gosses, c'est pas Phaal qui les éduquera J'aime bien manger du tieb' j'aime bien manger du crabe La sapologie, c'est une science Un sapologue, c'est celui qui est à lapogée de son art On a porté toutes les sappes même les chemises mohair Alph Lauren, pas d'slam, pas d'poèmes, passe-moi l'Moët Je n'ai pas d'faux rêves, la fast life, je l'aurai Pendant que je recherche mon jardin les hommes effacent leurs forêts, han Bosse si tas pas trop dplans, fuck, on na pas trop ltemps Pour déstresser jrefais mon stock de polos Ralph Lauren Jentends qules ennemis veulent faire la paix Mais moi jme torche avec le drapeau blanc Y a quavec la clique et les bords que jbavarde Jfais des efforts et jtravaille comme ce gars qui bosse le torse et les bravas Jsuis tout l'temps en jogging dans des lieux où tout le monde porte des cravates Jveux pas être le roi, jveux casser lpalais On a tendance à ségarer mais le cercle est assez carré Trouve-moi entre Strasbourg, Brest, Marseille, Calais, assez parlé Chacun joue son rôle de vrai gars, avec moi aucun Andromède Que des chevaliers Pégase, jaime le son mais jmégare Jcommence à m'mer-cal, jrevoie mes cartes Quand on décapsule avec des garces, faut que jmécarte Mets quatre sucres dans mon décaf', ouh Jme lance, jsuis comme Toni Kroos, cest pour mon kho Alfred Ouais je planche, le volume deux approche, tu sais c'quil faudra faire, eh Jai lniveau dun prof mais dans mes poches il faut dla fraîche Quand jpense à mes futurs gosses, jme dis Fuck la flemme Dans ma branche, y a pas dboss donc pour linstant jfais laffaire Jfais pas dgolf, mais y a un club dans lcoffre pour te faire ta fête, aight Tes un beauf comme Patrick Sébastien et le flow qu'tas pris cest pas ltiens10</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>POUR CELLES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Eh, retour au collège frère Retour à l'époque où j'avais pas d'fans, jeune Phaal, fly Rocawear ou Phat Farm Alcatel, répertoire, pas fille, pas d'femme J'rêve devant les seins qu'j'vois, ma gow, c'est Madame cinq doigts J'suis moche comme un pou, j'guette leurs eins pousser J'aimerais placer un coup, mon zgeg fait un pouce Mon pote s'est fait sucer en plein cours l'enfoiré Moi, à l'époque, j'suis puceau mais je fais l'ancien quand j'suis avec mes sins-cou C'était la patate à l'époque, toutes les meufs que j'kiffe se font gérer par mes potes Première meuf en quatrième, faut qu'je rentre dedans Une gitane qui porte le bandana comme un membre de gang J'te jure qu'c'est vrai, même l'jogging remonté sur une beuj frère. Mais bon, c't'ait une gitane, c't'ait chaud hein ? Après, j'vais pas faire l'ancien, on est resté ensemble deux s'maines. J'l'ai croisée y'a pas longtemps, elle avait un gosse frère ! Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas oh oui Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas au collège Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas au lycée Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas J'rentre au lycée, seconde générale Au quartier, ça crie Nique l'école, tu connais la street, les codes Ma génération s'met à bibi le shit et l'herbe douce Moi, j'vais au lycée t-shirt 4XL, Timberland boots Accordés, avec les meufs, j'suis toujours pas coté Je reste sur le bas-côté malgré ce style cain-ri L'impression qu'elles aiment les bouffons ou les thugs J'suis aucun des deux, premier spliff dans les poumons et le goût m'écure J'y retoucherai pas avant mes vingt piges, revenons à nos moutons Je rêvais de toutes les meufs, un jeune négro en ien-ch qui bande sur leurs strings ficelles En première, je rencontre une fille saine, en terminale, elle devient ma meuf officielle Cinq piges de relation, j'ai tout niqué, y'a l'rap vortex spatio-temporel donc j'ai pas l'temps pour elle, han Frère, j'l'ai quittée en tort, j'crois que j'l'aime encore Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas oh oui Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas au collège Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas au lycée Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Ça, c'est pour celles que j'kiffais mais qui m'kiffaient pas Eh, y'a des jeunes qui m'écoutent, je raconte pas tout J'espère qu'tu captes, avec les meufs, on apprenait à s'connaître On faisait que du sale à l'arrière du car pendant les voyages scolaires Eh eh eh, Flingue Sisisisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Protocole</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Volume 2 Plus y'a d'ennemis plus y'a d'pièges Dans mon programme j'élimine la sieste Quand j'écris dans l'noir, j'illumine la pièce Plus y'a d'ennemis plus y'a d'pièges Dans mon programme j'élimine la sieste Quand j'écris dans l'noir, j'illumine la pièce Plus y'a d'ennemis plus y'a d'pièges Dans mon programme j'élimine la sieste Quand j'écris dans l'noir, j'illumine la pièce Si j'en avais quelque chose à foutre de c'que les gens pensaient J's'rais pas l'seul noir dans un groupe de blancs J'me fous qu'ils haïssent ou qu'ils bouffent le gland Produire les meilleurs raps et faire du flouze, notre branche Achète le rêve que ma troupe te vend Si tu m'cherches va vers les portes du succès, c'est très probable que tu m'trouves devant La vie c'est dur mais j'me plaindrai qu'à la r'traite C'est la course à la maille et Flingue est à la traîne Ils veulent faire comme Ponce Pilate Ces enfoirés d'conspirateurs, va leur dire Qu'personne n'arrête mes onzes pirates, hein J'veux juste ma part du gâteau, mon job c'est pas éducateur J'suis juste un paille du 14 Fuck tes revenus maigres Devine les règles de vie d'un nègre de ville, han Ma vie est faste et furieuse J'vis à mille à l'heure zinc' et j'esquive la fête J'suis le tirailleur, Flingue, mi-homme mitraillette Plus y'a d'ennemis plus y'a d'pièges Dans mon programme j'élimine la sieste Quand j'écris dans l'noir, j'illumine la pièce Regarde c'que ces putes diffusent En plus les usines fument Les pays du nord vont dans l'tiers-monde Les balles de fusils fusent Mafia politique accompagnée des compagnies d'essence Quand ils descendent y'a ni combat ni décence Tu rappes mal écarte-toi enfoiré, j'viens d'Afrique, j'ai faim Nique tes chansons, nique tes r'frains Tu mérites qu'on trafique tes freins Il n's'agit que de fric et d'fringues Plus y'a d'ennemis plus y'a d'pièges Dans mon programme j'élimine la sieste Quand j'écris dans l'noir, j'illumine la pièce Plus y'a d'ennemis plus y'a d'pièges Quand j'écris dans l'noir, j'illumine la pièce Dans mon programme, han, han Quand Alpha Wann chante, l'histoire change Faut qu'je sois au soleil au mois d'janvier, vois l'genre Je bois l'champ', j'ai trois jambes, donnez-moi l'change Plus y'a d'ennemis plus y'a d'pièges Quand j'écris dans l'noir, j'illumine la pièce Dans mon programme j'élimine la sieste Et quand j'écris dans l'noir, j'illumine la pièce J'illumine la pièce...</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Quand on chausse les crampons</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Kyo Itachi Et puis le Phaal, yo, jfais le bail, yo Fracasse les nazes de wacks qui prennent le mic, yo Ce monde part en live, j'te l'apprends pas Les pauvres s'écrasent en bas aux quatre coins du globe C'est coup d'états et attentats Les parents Wann m'ont toujours tenu loin du poste Donc ne t'attends pas A ce que je parle de street'zer, de plans à 400 barres De came grave rentable, de business Si je l'ai fait c'est ap' pour jouer le'dur à cuire Moi, mon rap, c'est du Lunatic, du Cuban Linx J'sais que les phases qu'on lance sont chaudes La place qu'on prend fait qu'on devrait faire du rap conscient Mais la rime c'est marrant Est-ce que le rôle d'un rappeur est de t'éduquer ? Moi, je suis ni ton prof, ni tes parents J'ai pas d'grandes idées, j'chante J'fais ça pour atteindre le next level, la 36ème Chambre Certains pour faire la Une prennent jusque dans l'oesophage Moi, ne jamais faire la pute est ma seule morale Tu captes ? Et si j'ai failli qu'mes amis m'pardonnent Je suis moi-même sur la chanson Fuck le système, fais tourner la rançon Acquiesce le thème lorsque les grands sont au mic Pour te donner cque taimes Respecte lorsquon chausse les crampons On lsait, la Terre est sous tension Kick pour les reuss et les frères, attention On sait lfaire avec mention Les jaloux vont staire car ils nous respectent Lorsquon chausse les crampons Egotrip et bon flow mais jpeux pas ignorer Les théories du complot ou les pédophiles Tu peux dire que jrappe que des foutaises Jtai dit, jsuis sonne-per, enfoiré, rappelle-toi du premier couplet Jgraille à ma faim, en effet, ça va bien Le Tiers-Monde vit avec trois fois rien Moi, jsuis pas à plaindre donc jbois ma pinte Jsais quen étant passif, jreste un assassin Jme soucis qudu pedigree dmon zeille Mon budget shoes équivaut le PIB dmon bled Jsuis naze et égoïste comme toi, jviens montrer tout ça Jai fermé les yeux quand mon père ma montré louvrage Jsuis plus teush, skunk et tout ça Teuf jusquà pas dheure, esquivage de keufs et tout ça Je suis moi-même sur la chanson Fuck le système, fais tourner la rançon Acquiesce le thème lorsque les grands sont au mic Pour te donner cque taimes Respecte lorsquon chausse les crampons On lsait, la Terre est sous tension Kick pour les reuss et les frères, attention On sait lfaire avec mention Les jaloux vont staire car ils nous respectent Lorsquon chausse les crampons Cest la tate-pa, faut changer tout ça Ici cest pas Mad Max mais, frère, y'a les barbares Et y a les banques et tout ça Comment ça sera dans un million dannées ? Les fleurs finiront fanées Les continents collés ? Jsais aps, gars Moi je gratte ça mais jmy connais pas en science et tout ça Jviens commencer louvrage sur ma légende Cest à la Rap Life que jai prêté allégeance Et mon Prix Nobel, cest lheure dme lremettre Jrappe dur pour npas dire Ctait une erreur de jeunesse Tu captes pourquoi jfais ltruc à fond ? Pour ne pas qule rap devienne une erreur de jeunesse Je suis moi-même sur la chanson Fuck le système, fais tourner la rançon Acquiesce le thème lorsque les grands sont au mic Pour te donner cque taimes Respecte lorsquon chausse les crampons On lsait, la Terre est sous tension Kick pour les reuss et les frères, attention On sait lfaire avec mention Les jaloux vont staire car ils nous respectent Lorsquon chausse les crampons3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R5 et Murcielago</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Avec my men VM, le Don, il pilote le M il pilote le M, il pilote le M Avec my men VM, le Don, il pilote le M il pilote le M, il pilote le M Avec my men VM, le Don, il pilote le M, Maserati noire, on glisse comme patinoire On roule gratuitement juste pour la cause, bandana bleu, crips de L.A., j'me sens comme le Prince de Bel Air Will J'ai pas la clé du bonheur, je sais juste que les charbonneurs se lèvent à la bonne heure J'apprends à différencier l'homme et l'diable, j'prends la vie comme elle vient, j'crois pas aux médias, j'ai jamais fait l'comédien J'l'aurais fait différemment, si c'était à refaire, j'ai fait des coups d'putes, personne n'est parfait nan J'constate peu d'changements chaque année, moi, je n'vote pas vu qu'le diable a d'jà gagné jamais Quand les touristes ont les sacs Gabbana, les blédards sont rapides comme Stéphane Diagana Ça parle de Punta Cana, n'importe quel mec peut foutre sa kalash sous sa Canada Goose Daesh fout l'souk, ça canarde bang bang, pour oublier les problèmes et les troubles, y'a le foot, y'a Canal À force de jacter les ragots, 'vont finir dans l'maco, bang balle dans le pectoral gauche Hugz, t'es en feu, mets ce morceau dans les vagos, même dans les wagons, R5 ou Murcielago Murcielago À force de jacter les ragots, 'vont finir dans l'maco, bang balle dans le pectoral gauche Hugz, t'es en feu, mets ce morceau dans les vagos, même dans les wagons, R5 ou Murcielago Murcielago Ça, c'est pour les Jeeps, les Lexus, les BM et les Benz, j'fais pas d'skateboard, j'ai pas de Vans Y'a plus d'rap, y'a que d'la dance Don Dada, Don Dada eh Sois focus comme la Ford quand tu vois l'poulet, c'est pour les Twingo, les Clio qui n'ont plus l'droit d'rouler Les moteurs puissants avec l'étalon, guette le baron J'irai loin comme un break de daron, les filles sales, on a exploré comme Nissan Maintenant, on cherche la vie saine, c'est fini ça, c't'enfoiré est factice, je sais qu'c'est un jacteur Pas besoin d'un MAC-10, j'viens sur lui en tracteur, faut gérer des actrices, on d'vient des acteurs J'suis un mec des nineties, j'flambe dans les night clubs Passe la paix aux négros dans les Merco ML avec les jantes qui tournent sur elles-mêmes À force de jacter les ragots, 'vont finir dans l'maco, bang balle dans le pectoral gauche Hugz, t'es en feu, mets ce morceau dans les vagos, même dans les wagons, R5 ou Murcielago Murcielago À force de jacter les ragots, 'vont finir dans l'maco, bang balle dans le pectoral gauche Hugz, t'es en feu, mets ce morceau dans les vagos, même dans les wagons, R5 ou Murcielago Murcielago</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rowdy Rowdy Freestyle</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Les niaks, les mic, toujours calcinés Les sappes, les raps, toujours raffinés Mes bails sont dies, mais toujours agités Philly Flingue, l'Entourage Mes killa bees sont dans l'labo, ils cherchent à maquer le biz En mode surprise, comme la strip-teaseuse dans l'gâteau Y'a plus de doutes, ils ne veulent pas Qu'un nègre pure souche pue le flouze Ces putes préféreraient encore qu'on me troue le pull Commence à investir, tu parles de fast-life sur ton booster Mais je suis plus de-spee dans mon bustour Une fois que le mic' est pris, les putes sont stressées Les futes sont baissés, et puis le talc est mis Nouvelle édition de fessées, à répétition Comme les applaudissements dans les émissions d'télé Je suis inhumain, mais tout est dans le froc Je suis le chirurgien, personne ne bouge dans le bloc x2 Les niaks, les mic, toujours calcinés Les sappes, les raps, toujours raffinés Mes bails sont dies, mais toujours agités Si c'est Alpha Wann, c'est sûr, c'est de la qualité J'fais des tonnes de textes comme personne le fait Je veux récolter l'or avant qu'mes forces se perdent Et que mes proches ne dead Wesh, les nazes ! Vous voulez tester Phaal ? Un mélange de Raekwon, The Chief et de Wesley Snipes J'ai des rimes qui écurent les MC's Pas de titre dans les clubs, j'ai mon shit dans mon keus Si y'a les keufs, j'le mettrai vite dans mes seufs Fuck la police, ils sont là seulement quand ils veulent Enfin, c'est comme ça dans mon 75 Les disparités sociales font qu'les minots croient en rien Plein de textes magiques et ce grâce à la weed qui couche Clic clic boum, v'là l'inspecteur Harry Clint Eastwood Mes gars kiffent sur Buffy, tchipent sur Huggy Mauvais garçon à vie comme cette pourriture d'Puffy En vrai j'suis gentil mais y'a plein d'gens qui haïssent Donc j'protège mon cou comme en Transylvanie x2 Les niaks, les mic, toujours calcinés Les sappes, les raps, toujours raffinés Mes bails sont dies, mais toujours agités Si c'est Alpha Wann, c'est sûr, c'est de la qualité Tu gères aucune bouse, ni dans ton Gucci falsh On chope le lucci, Ninety-five le crew qui claque Donc parle bien de nous, on est la Dream Team Frère, on aurait dû s'appeler 1992 J'aime le Rap mais j'n'aime pas l'Rap Game Donc j'm'évade avec le H bien caché dans mes Charles Barkley Flip comme un acrobate, salto arabesque Les MC's sont rigolos comme prendre des râteaux à la pelle En fait ils n'sont pas marrants Ils n'veulent pas être dépassés par un noir qui bigle Et qui marche les bras ballants Bon, j'laisse leur game tranquille C'est juste des rimes bêtement dites, de l'entertainment Peace ! x2 Les niaks, les mic, toujours calcinés Les sappes, les raps, toujours raffinés Mes bails sont dies, mais toujours agités Si c'est Alpha Wann, c'est sûr, c'est de la qualité</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Saint-Domingue</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mon rap de Paris augmente le tarif, mon rap de Paris augmente le tarif Mon rap de Paris augmente le tarif, mon rap de Paris augmente le tarif, eh han Mon rap de Paris augmente le tarif, mon rap de Paris augmente le tarif Mon rap de Paris augmente le tarif, mon rap de Paris eh, eh J'écris ça dans un hôtel à Minneapolis, quoi d'neuf pour les miens depuis qu'l'esclavage est aboli ? rien Rien à part le rap, le sport, les fours, la tess, la hess, gaspiller nos thunes dans les sapes et les caisses c'est quoi faire du rap ? Créer un personnage, faire le clown, c'est pas une affaire durable Mais j'dois faire à manger, j'dois faire du rab, la vie est stressante Faire des chansons est ma médecine, je cherche les trésors depuis mes treize ans Besoin pressant, royal comme Mohammed VI Dis-moi merci parce que ma présence est un présent J'prône l'auto-suffisance et l'entraide J'prône l'auto-suffisance et l'entraide J'laisse les poucaves traîner entre elles J'laisse les poucaves traîner entre elles Un il qui louche pour voir qui va attaquer en traître Un il qui louche pour voir qui va attaquer en traître Si j'avais su qu'les fantômes du passé me hanteraient, j'aurais fait les choses bien bien, bien Mieux, tout refait en mieux ma gueule, depuis l'début C'est pour toutes les gows, moches, belles, avec les gros ou les p'tits seins Et c'est pour mes frères, mes gars, la miff, mes p'tits zincs J'l'avoue, j'ai eu envie d'faire des tubes avec des rimes simples Quand j'ai vu la dernière pub pour le Série 5 Le secret du ciel est scellé, si on crève, il reste nos CDs On laisse nos CVs, on laisse nos traces comme une visière trop serrée J'ai une équipe et j'reste avec, que ce soit sous la neige ou l'averse Ils seront àl si une balle traverse ma veste Toujours les mêmes galères de carte VISA, déficit Rien n'change à part les visages des vils-ci, eh DJ Lo', c'est mon DJ Il m'dit qu'j'aime pas la vie, j'lui réponds qu'j'aime pas la vie qu'j'ai Et je pense à demain, je déteste l'usine Je reste lucide et je pense à demain, je déteste l'usine et rêve deSaint-Domingue Je reste lucide et je pense à demain, je déteste l'usine Faut qu'on s'barre à Saint-Domingue Faut qu'on s'barre à Saint-Domingue Faut qu'on s'barre à Saint-Domingue Faut qu'on s'barre à Saint-Domingue Faut qu'on s'barre à Saint-Domingue, ouais Faut qu'on s'barre à Saint-Domingue Faut qu'on s'barre à Saint-Domingue</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Shanghaï</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>J'étouffe, j'ai envie d'air, j'écris ça à Shanghaï Pourquoi les gentils perdent ? Pourquoi les méchants gagnent ? Je regarde le sommet, là où l'air est pur, plus tard, vous n'me verrez plus À force de vouloir être plus proche du Soleil, je perds mes plumes, jet Set et match, on veut ken des mannequins Dans les soirées où elles mettent des masques Ecstasy, cess', sexe et maille, c'est le démon L'Afrique meurt, on d'mande aux nègres d'être aimables Ça parle en budget, estimation, que j'sois en bus Ou en Maserati, l'but c'est d'arriver à destination Le building du rap de France braque le change J'change dans l'sac à la place des sapes de rechange Pour faire souffrir l'ennemi, ne va pas te battre Mets en pratique l'art de la guerre, prends sa meuf à quatre pattes De Paname à New York, les vrais négros sont en voie de disparition comme la baleine ou l'orque Il est temps qu'j'm'élève Quand mes lèvres crachent le feu, j'rends mon gang célèbre On déchiffre tous les codes, on vient mettre des gifles À la nouvelle école, on est organisés comme la LDJ Mon gang se soigne, dangereux swag Vicieux comme ce gars qui fourre la femme du fermier dans la grange le soir Tout va bien tant qu'je suis loin des endroits déplaisants et qu'le squad est présent On est toujours en jogging, aucun d'nous n'est dans l'sport Vingt-sept piges et je fraude encore dans les transports Elle m'a dit Viens seul, j'ai ramené trente potes Toujours en équipe, on préfère être en car qu'être en Porsche 1.9.9.L. Écoute-moi bien comme un professeur J'préfère perdre en équipe que soulever le trophée seul ouais Écoute-moi bien comme un professeur Écoute-moi bien comme un professeur Écoute-moi bien comme un professeur Écoute-moi bien comme un professeur1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>​soldat tue soldat</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ris-Kaa, ris-Kaa, 2-7 RPTG, gang, hey, hey Mes semelles affichent rouge comme tes voyants, pas besoin de couteau, j'ai mes canines Je ne fais que des grands pas de géant, j'peux marcher que quand les planètes s'alignent gang Du plomb sur tes grosses babines gang, sale tain-p ramène la vaseline Salut, salut, j'ramène de la fraiche, ça sort d'une poche, ça sort d'un derche pute, pute, put, pute J'roule en sns inverse hey, la Kala' crache, c'est pas une averse hey Un gros son sale, ça m'berce, on cala pas si c'est pas une affaire J'roule un bazooka ouais, deux A après le K ouais King size en pote-ca, la juge étudie mon cas tchoin Soldat tue soldat, meilleur produit, j'suis sold out grr Les sous attirent les sous, le sang attire les loups Nuage magique, Son Goku, comme Barbe Blanche, je meurs debout ok J'pense à l'esclavage quand ma chaîne Cartier me pend au cou ouais Trois-quarts cuir noir, Denzel Training Day Averse de balles sur ton rappeur préféré, ouais, it's a raining day It's raining bitch Pas de reflet dans la glace, on sourit jamais comme des Russes Priviet Au cas où tu fais une crasse, on n'oublie jamais comme des muscles D'en bas, on n'arrête jamais de glousser Même si j'trempe le Glock dans une bassine de néo-codion, il arrête jamais de tousser piou, piou, piou Main de manuvre pour tarter les fils de putes, claquer les culs de putes Te mettre la tête sous l'eau jusqu'à ce qu'y ait plus de bulles Grosse rançon, j'rêve que de fracturer la grille De France Télévisions, capturer Arthur et Nagui J'vais pas t'faire un dessin, t'as rien à dire, tu sautes sautes Protège-toi bien, les zins viennent de sortir du zoo tchoin Soldat tue soldat, meilleur produit, j'suis sold out gang Les sous attirent les sous, le sang attire les loups Nuage magique, Son Goku, comme Barbe Blanche, je meurs debout ok J'pense à l'esclavage quand ma chaîne Cartier me pend au cou Torse nu, freestyle de neuf minutes comme si j'étais Mister You Ne joue pas l'homme mystérieux, je connais tes histoires encore mieux qu'un historien wouh Timberland bateau, chaussettes de royalistes ouais, je rentre dans l'goulag en durag Anti faux négros, anti plan pourav, les valises de khaliss me canalisent wouh Faut faire cet argent hyper vite, belek à oi-t, contrôle tes potes Dans un jardin, plus de cent vipères vivent, comme Leroy Merlin, faut qu'mes envies prennent vie Ils veulent nous piéger comme DSK, ces rappeurs signent des contrats d'esclaves J'vais droit au but, j'aime pas faire d'escale À force de boire dans les mêmes bouteilles, ces rappeurs attrapent l'hépatite E J'arrive chargé comme dans partie 2, j'étais certifié avant la pastille bleue Tellement concentré, le négro perd ses tifs, viens dans l'XIVe au métro Pernety À Porte de Vanves quand tu sors du périph', fais belek, esquive les porcs lepénistes Soldat tue soldat, meilleur produit, j'suis sold out Les sous attirent les sous, le sang attire les loups Nuage magique, Son Goku, comme Barbe Blanche, je meurs debout ok J'pense à l'esclavage quand ma chaîne Cartier me pend au cou J'sais pas si tous les porcs sont lepénistes mais j'peux t'dire qu'tous les lepénistes sont des porcs5</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sous marin</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>J'suis dans mon sous-marin, je n'suis pas en croisière J'veux pas d'un taf normal depuis mon stage en 3ème J'suis dans mon sous-marin, je n'suis pas en croisière J'veux pas d'un taf normal depuis mon stage en 3ème, hun Tu sais c'que je vise, hein Tu sais c'que je vise et c'est pas l'bronze J'ai commencé à rimer dans le South Bronx Y'a la forme, y'a l'fond Le prénom c'est Alpha, pour les putes c'est Alphonse 0.0 Scred comme Daniel Craig Tu connais la formule, Jack Daniel's, grec J'suis pas un d'ces renois qui s'prend pour Kanye et Drake J'ai la chance de vivre du rap, certains d'mes alliés crèvent Les rappeurs parlent mais s'excusent vite L'heure passe et j'n'ai qu'une vie une seule Don DADA est àl, ton cur bat, ton plexus vibre Don Dada, Don Dada Ils veulent avoir le flow comme Tupac Mais y'a pas d'rap de gangster C'est du mensonge ou de l'auto-poucave On parle popo ou came, Ralph Polo ou cash C'est pour toi que tu sois prolo ou cadre Il faut zapper l'paraître J'connais des millionnaires tous les jours sapés pareil La vie c'est une colline et sur cette pente, le serpent serpente Faut pas voler, faut surtout pas se faire prendre J'compte tout, mes billets et mes cents même J'attends toujours le marchand d'sable, Mister Sandman Ma façon d'vivre n'est pas saine Mais, la ville partagée par la Seine m'aime J'compte tout, mes billets et mes cents même J'attends toujours le marchand d'sable, Mister Sandman Ma façon d'vivre n'est pas saine Mais, la ville partagée par la Seine m'aime Dans mon cas on est des millions On savait pas qu'on f'rait l'mal Étant petit j'étais mignon La figure c'est l'reflet d'l'âme J'arrive en quad, bouge, mon escouade couvre Mes raps coûtent cher, je s'rai le dernier gars d'bout Ils sont comme l'eau, ils ont pas d'goût Si j'meurs, faites pas d'remix avec les maquettes dans mon MacBook La célébrité c'est un champ de mines Les gens te copient ouais les gens te miment Si les gens t'demandent dis-leur Que j'étais prêt depuis l'an 2000 Ça sent l'shit, pas l'Givenchy L'argent du show-case en liquide est blanchi J'suis dans l'aquarium comme si j'avais des branchies Ma mère savait qu'j'arrivais en perdant les eaux La vie c'est quoi ? Sortir d'une femme pour essayer d'entrer dans les autres ? Bienvenue en mathématiques pures, au pays de la solitude J'compte tout, mes billets et mes cents même J'attends toujours le marchand d'sable, Mister Sandman Ma façon d'vivre n'est pas saine Mais, la ville partagée par la seine m'aime J'compte tout, mes billets et mes cents même J'attends toujours le marchand d'sable, Mister Sandman Ma façon d'vivre n'est pas saine Mais, la ville partagée par la Seine m'aime2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>STARSKY &amp; HUTCH</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Eh, jai passé trop dtemps à travailler un style incroyable pour lpartager avec nimporte qui comme ça, jsais pas quoi, featuring, tout le temps là, les collaborations mes couilles, pas dfeaturing Pas dfeaturing, faut pas gaspiller leu-f Lui jlécoute pas, parce quil est keus Lui jlui parle pas, parce quil est keuf Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Où est largent, où sont partis les keuch ? Jai les tuyaux comme dans Starsky Hutch Jconnais des baveux, jconnais plus de suspects Rien nchange à part les saisons, ya plus dsuspens Jconnais pas la victoire, jai toujours su perdre Jmen sors à la fin comme dans Usual Suspects On pourra pas tout faire Si seulement jpouvais me dédoubler le corps Un qui braque, un qui pouille-dé le coffre Comme ça on, pourra tout faire tout le faire Serre-leur la main ou tends-leur le doigt Faut faire un choix manif ou émeute Rester sérieux avec la mif ou les meufs Nous, on cache le khalis sous les meubles Je sors des projets quand jveux Jfais des morceaux puis jles jette dans lfeu Ça cest lun et jreviendrai dans ldeux Phaal Philip Morris très dangereux Pas dfeaturing, faut pas gaspiller leu-f Lui jlécoute pas, parce quil est keus Lui jlui parle pas, parce quil est keuf Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Où est largent, où sont partis les keuch ? Jai les tuyaux comme dans Starsky Hutch Jconnais des faussaires et puis des passeurs Ça bibi des raptors et puis des Fazers sisi Appelle-moi Arnold Schwarzenégro ouais Donc jsuis lTerminator et puis leffaceur Dans la te-tê, un moteur de raptor Jbrise les rapports comme les renois de Stamford Bridge Jai la forme, jbrille, prends un chewing-gum quand tu mabordes, bitch Don Dada Cette merde, cest comme la peinture Tout est dans lgeste, dans ltrait Je lai-f sans stress sans stress Reste en retrait, jsuis lbest en scred je lfais Comme G-Unit avec 50 Cent Comme Brick Squad, 10-17 On ma dit qutu rappais bien mais cest dur à avaler comme le whisky sec Ne fais pas dfeaturing, faut pas gaspiller leu-f Lui jlécoute pas, parce quil est keus Lui jlui parle pas, parce quil est keuf Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Jai les tuyaux comme dans Starsky Hutch Où est largent, où sont partis les keuch ? Jai les tuyaux comme dans Starsky Hutch Les enfoirés dmerde hein, ils viennent, ils mmettent mon assiette dans lnoir et ils croient jvais jouer à colin-maillard pour trouver mon fucking plat mais tes malade ou quoi ?Cousin, je viens, jillumine la pièce, je brille, je prends lassiette et jme casse. Tes malade ou quoi ? Crois jvais jouer à colin-maillard mon frère...3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Steven Seagal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tes potos se demandent d'où viennent mes pouvoirs Je taffe le bail pendant les douze mois Découpage et coups de battes sous le crâne Pour moi le microphone n'est qu'un défouloir J'suis un limite dingue, Biggie mince Le shiznit alias Philly Flingue Rien à fiche de c'que disent tes zilizincs Je sais maintenant pourquoi tous les frères se lèvent Ils rêvent de rouler en Cadillac Escalade Tous les matins ces mecs-là cherchent de l'aide Au lieu de se prendre en main et de le faire eux-mêmes Ninety Five c'est le nom de ma clique Comme un trèfle à quatre feuilles je tombe à pic On a tous besoin d'un trèfle à quatre feuilles J'ramène un flow d'chaleur, ouais j'inverse la vapeur Ca roule car Fonky Flav n'a pas d'heures De sommeil dans son planning, eh ! V'la le rappeur Philly Flingue, limite dingue C'est eux qui font que mon, rap perd sa valeur Mais je fais mon job, achète-toi mon vinyle chien x2 Nique le stress, spliff de zeb Steven Seagal, Stringer Bell Nique sa mère si les vagins s'ouvrent Tant que les ucs se ferment Il suffit juste que tu te taises Tu comprends ou pas zincou ? Je sais que tu rêves qu'on te passe un cours Que tu recopies et que tu scrute le texte Je sais que tu crois être le clou du spectacle Mais que ton spectacle ne vaut pas un clou Le premier des perdants est à la deuxième place J'emmerde les autres, finir ex-aequo ? Non je fais les choses depuis les premières classes Je suis le Don, n'oublie pas le complément Mon envie de revanche dompte mes pensées Donc je remonte mes manches Mes veines se gonflent, je roule un pet' de skunk J'complote sur ces têtes de ion-f Je suis un vizir un émir, comme le MC de Perpignan Ils sont persistants et disent que je ne parle que de popo Mais j'fais pas du rap, je fais de l'auto-divertissement J'emmerde ce qu'ils pensent de mes propos Mais en fait, toi tu parles que de beuh ? J'rappe ce que je veux ou pas ? Merde, sacrebleu Sache que depuis la crèche le Phaal Accroche les foules car il crache le feu x21</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>STUPÉFIANT ET NOIR</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mais tout l'monde, dès qu'il a un peu d'argent, il la place. Il la met sur son compte ou la met sous son matelas. Pour les temps durs. Alors que si la vie s'rait facile ? Mais les gens dépenseraient, les gens s'amuseraient, au quotidien, mon frère. Et l'argent circulerait. Puisque une main lave l'autre, mon frère. Et oui, moi, on me donne, je donne, tu comprends c'que j'veux dire ? ouais Effectivement, si on me donne rien, je vais rien donner hein Impossible que mon flow carabine rouille, j'suis avec une chabine rousse Mes potes s'en tapent, ils roulent du paki sur le tapis rouge Combien ces habits coûtent ?, Qui est cette fille aux habits courts ? Les questions qu'ils se posent quand j'suis sur le tapis rouge Don Dada sur le pendentif, le nom du label sur l'plexus Connais-tu quelqu'un qui flex plus que ce jeune indépendantiste ? J'suis dans la fête, j'suis dans la fête, y'a une dernière zouz Elle me regarde avec dernier zoom, elle m'a choisi pour dernier zouk Démarche de macro jusqu'au dernier souffle, j'éteins la radio, dernière soupe Recompte le cash flow jusqu'au dernier sou, j'me sens comme un clando dans une dernière soute Pas de sermon, je vais changer, ouais, j'en fais le serment Inch'Allah plus tard, j'dédie ma vie entièrement au tiers-monde mais bon Je suis quelqu'un d'peu exemplaire, ouais, j'suis peu exemplaire Mais l'album est vrai, achète deux exemplaires Viens pas en m'léchant les noix ou en m'cherchant des noises J'suis comme le shit stupéfiant et noir Quelqu'un d'peu exemplaire, ouais, j'suis peu exemplaire Mais l'album est vrai, achète deux exemplaires Viens pas en m'léchant les noix ou en m'cherchant des noises J'suis comme le shit stupéfiant et noir J'viens du bassin parisien, j'te r'garde de haut et j'suis pas sympathique J'fais pas le rap que ces catins pratiquent Très peu probable que je tape un platine, faut que j'fasse un classique Sur mon chapeau soit du renard, soit du castor, j'ai le swag du cador Rien qu'ça pillave comme à la Saint-Patrick, on est postés dans un square du XIV Je reste lucide et je pense à demain, je déteste l'usine et rêve de Saint-Domingue Faut que j'réussisse juste avec mes deux mains, Stallone en Russie, j'boxe avec mes démons J'reste moi-même mais c'est pas la de-mo, justice pour Théo et Adama Dans mon quartier, y'a d'la demande, c'est la guerre pour le rrain-té comme à Damas Futur OG sévère, sens-tu la force qui s'réveille ? Phaal Philly Flingue, a.k.a. AK-47 J'oublie rien, j'ai pas Alzheimer, y'a des MC homos, c'est un tas d'zamels Leur musique, c'est du bruit qui m'dérange comme le voisin quand il tape sa meuf Je suis quelqu'un d'peu exemplaire, ouais, j'suis peu exemplaire Mais l'album est vrai, achète deux exemplaires Viens pas en m'léchant les noix ou en m'cherchant des noises J'suis comme le shit stupéfiant et noir Quelqu'un d'peu exemplaire, ouais, j'suis peu exemplaire Mais l'album est vrai, achète deux exemplaires Viens pas en m'léchant les noix ou en m'cherchant des noises J'suis comme le shit stupéfiant et noir Don Dada8</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>​trapchat</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Une vie grise que les liasses vont colorier mon négro Sisi, tchiki Don Dada Une vie grise que les liasses vont colorier, j'veux que des mailles, gardez vos médailles Et vos lauriers, comme un grossiste, je n'fais pas dans l'détail Mec de Paname donc j'parle de la mode pour creuser lécart, je coffre Trouve-moi dans les hôtels où y a hélicoptères et cartes de golf des carts de golf mon négro Je sens qu'j prends de lâge, prisonnier de lengrenage Tous les quatre mois, je prends le large, ma tristesse dans l'encre nage Jécris, les feuilles tombent comme en automne, j'rentre dans le jeu pour augmenter nos scores Rap game, cinéma, jai du pop corn, j'rappe comme à Sorbonne, Oxford nigga Polo sport, nigga, phosphore, nigga, quand vous mécoutez fermez vos stores Mon signe cest l'euro, fuck lhoroscope nigga, jfais ma route seul, pas dautostop On prend la CAF, les allocs, on vous laisse le champagne et toutes vos huîtres Truc dinitié faut qu'les nouveaux suivent, multifonctions, rap couteau-suisse Le charisme et la tchatche d'un joueur de blackjack Contacte-moi sur le trapchat Le charisme et la tchatche d'un joueur de blackjack Contacte-moi sur le trapchat, c'est grillé Whatsapp Pas l'temps pour les séries, j'ai du mal avec les quatre saisons d'l'année On s'en bat les couilles de ton gouda, ramène la cargaison d'amné' Ne m'invite pas dans ton home-studio s'tu veux pas voir ta maison cramer Négro, t'as pas fait l'son de l'année donc t'as pas de raison d'crâner 600 lampes de 600 watts, EDF n'est pas au courant Eux, j'les baise mais j'passe en coup d'vent, fais l'bénéf' et pars en courant Elle marche que dans du Jimmy Choo ah ouais, elle est en lice pour Talon d'Or Mais j'appuie sur l'bouton eject si elle met ses pieds pourris sur le tableau d'bord ciao À part l'aubergine, j'envoie pas d'emoji, leurs femmes n'les respectent plus, ils sont grave émotifs Mes zins hustle-hustle mon rap les motive, sur les putains d'plaquettes, on grave les motifs Mec de Vallau' donc j'parle du bloc, pour creuser l'écart, je coffre Jette les ballots par dessus bord pour semer les garde-côtes J'veux une femme qui m'amène grave de support et j'refais sa garde-robe Je dépense donc je suis mon négro, René des cartes gold Le charisme et la tchatche d'un joueur de blackjack Contacte-moi sur le trapchat Le charisme et la tchatche d'un joueur de blackjack Contacte-moi sur le trapchat, c'est grillé Whatsapp Don Dada mixtape1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tu le reconnais</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>La révolution n'existe plus, c'est révolu, regarde dans la rue Tout l'monde court après la monnaie, XXX nous a eu XXX font crier les obus Ça bicrave au mic comme en bas d'la tess Mais ils foncent contre le mur sans frein et sans boite de vitesse Ces rappeurs sont expert en simulation XXX XXX mais se chient dessus dans le feu de l'action J'viens mettre la fessée, j'ai trop laisser passer mieux vaut te casser Tête baissée, c'est trop de sang versé sur ma MPC Tu veux tester, enfoiré ? T'es mal barré, j'suis trop carré Un taré comme moi en soirée, sur l'beat vient défourailler Artiste, je plais aux bourgeois comme aux yous-voi Tu reconnais ma voix, fais péter le son dans ta gova Viens voir l'show, tu penseras avoir vu Big L J'veux les ques-che, les teufs comme tous les jeunes de l'univers Phaal... Se lèche les babines C'est un vrai sadique XXX L'Entourage, le Ninety-Five, ouais, j'suis une tête à clics J'ai des rêves la nuit où Sarko finit comme Ben Ali XXX, ta pouf l'avoue A Paname, ça savoure la chnouf et ça trouve ça cool, pas nous ! Énumère les types qui sont super efficaces Il n'y en a qu'un seul et il vient d'la Rue XXX Nique la tendance, j'vise la tendance J'ai pris la sentence, fils, tu vas subir ma vengeance Dès que ça sonne vrai, tu le reconnais ! Représente le vrai Hip-Hop, tu le reconnais ! Gros flow trop frais, tu le reconnais ! Ça, c'est Chief Rocca, tu le reconnais ! D'un quartier à l'autre, ouais, tu le reconnais ! Y'a aussi le Phaal Philly, tu le reconnais ! Et avoue que ça te manquait, tu le reconnais ! Au nord, au Sud, de l'Est à l'Ouest, ils nous reconnaissent J'suis l'ambianceur, j'ai l'flow, les mots captivent les ghettos, les métaux Les péquenots, les XXX peuvent toujours s'lever tôt Le punchliner tout prêt, t'seche sur la corde à linge Si l'Rap manque de méninges, J'suis l'seul XXX sur la planète des singes Sur Fonky Drama XXX XXX voilà comment foutre le faya, mon gars Trop Hip-Hop et trop cail', trop d'génie même sous sky Rocca, ça fait un bail, XXX Philly Phaal, expert aime la skunk Teste pas, rêve pas d'baiser l'escadron, wesh La mif, ça dit quoi ? Qu'ça soit en freestyle Ou en disque classique, ma clique sale niquera l'histoire Hip-Hop crade et XXX XXX signé Phaal Philly et Chief Rocca Faire des beaux textes, yo, tel est mon dièse T'as capté l'concept, XXX l'affaire est complète Dès que ça sonne vrai, tu le reconnais ! Représente le vrai Hip-Hop, tu le reconnais ! Gros flow trop frais, tu le reconnais ! Ça, c'est Chief Rocca, tu le reconnais ! D'un quartier à l'autre, ouais, tu le reconnais ! Y'a aussi le Phaal Philly, tu le reconnais ! Et avoue que ça te manquait, tu le reconnais ! Au nord, au Sud, de l'Est à l'Ouest, ils nous reconnaissent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Turban</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Je s'rais né avec de l'argent, je s'rais pas un p'tit connard J'voudrais sauver la planète au lieu d'parler d'liasse multicolore Au royaume du borgne, j'vois rien R J'ai dû faire avec les moyens du bord quand je n'connaissais que des bords moyens Hey, hey, toujours dans ma bulle, j'ai pas sommeil J'n'ai jamais été passionné par le relationnel Hey, j'n'ai pas d'ambition immense, à part être quelqu'un qui mange, du lundi au dimanche Ouais, ouais, j'suis comme aç, j'réussis comme Hercule T'es mielleux comme Mars, j'suis toxique comme Mercure C'est dans l'mur qu'on guide nos p'tits, ils miment nos tics Vacances à la mer, ski nautique, tout c'qui brille hypnotise, hey Tout c'qui brille hypnotise, posté sur le haut de la tour J'aperçois la cible et il faut qu'j'la touche, reste couvert et évite nos tirs ouais, ouais Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban, j'suis un sabre laser, t'es un cure-dent Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban, j'suis un sabre laser, t'es un cure-dent Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban Uchiwa comme Tobi, on m'voit comme Kobe swiish Des gros anneaux comme Audi, Bilbo le Hobbit Grosse gifle de OG, ouais, c'est ça la pédagogie Côcôta sur le cochi, côcôta sur le cochi Hey hey, Paname c'est auch' comme dans Reservoir Dogs Pleins d'clochards dans l'froid dorment, y'a des travs avec des voix d'ogre Toujours les mêmes aux assises, c'est dans la merde que mes négros nagent S'retrouvent en cellule avec des néo-nazis Les agios c'est horrible, j'ai une Casio, pas une Rollie J'imagine l'euphorie, niquer le bénef', casino en Floride Paires de chaussures, je sors, guette les euros sur le solde Le GLE projète le logo Merco sur le sol J'reste dans mon coin, j'vous laisse faire des tubes de plus J'rate ma frappe de loin, c'est mieux que d'mettre un but de pute J'crache ce feu au Don Dada Stud Don Dada Stud Hey, j'ai fini le jeu, j'donne pas l'astuce Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban, j'suis un sabre laser, t'es un cure-dent Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban, j'suis un sabre laser, t'es un cure-dent Je devrais porter un turban, je devrais porter un turban Je devrais porter un turban1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UNE MAIN LAVE L’AUTRE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Han, j'm'épaissis, le lieu rétrécit, je m'secoue J'tape les murs comme un dépressif, où est l'issue d'secours ? C'est dur d'ouvrir les yeux, j'crois qu'j'suis pété Un gars en blouse blanche coupe le cordon, j'arrive dans cette douce France une nuit d'été Hey, moi, j'suis pas sorti du ventre de ma mère pour vendre de la merde Jeune renoi introverti, esprit bien trop fertile pour le système scolaire Avec les collègues, c'est au fond qu'on s'collait, là où les cancres et les fouteurs de merde se connectent dès le collège Tu connais l'époque des pulls Com8 C't'époque est passée vite, une existence assez vide L'adolescence a ses vices, très jeune, j'étais lassé d'vivre Aujourd'hui, je monte et guette les frères en descente Cette vie est clairement stressante, j'y ai vu plus d'enterrements que d'naissances 1.9.9.5. ma main gauche et ma main droite L'Entourage, mon cur et mon sang, mon gun et mon plan Une main lave l'autre, une main lave l'autre Une main lave l'autre, une main lave l'autre Une main lave l'autre mais elles se joignent pour laver l'visage Mon sin-cou du bled m'a dit qu'sa vie changerait s'il avait l'visa, ouais Comme lui j'passe ma vie à attendre des choses qui n'arrivent pas Nique sa mère, pas d'panique ça m'aide C'qui ne m'tue pas me rend plus fort et rend mes lyrics amers Six heures trente du mat', visage éclairé par l'écran du Mac J'pense encore à elle, classieuse même en tongs Elle m'a quitté bêtement, j'aime comment ses vêtements tombent J'lui ai confié mon cur, elle l'a mis dans la benne Belle comme la femme d'un autre, elle m'a rendue bè-bègue T'as laissé ta trace dans ma vie en m'enlevant l'âme J'suis avec une autre mais je pense encore à toi pendant l'acte T'sais pas c'que mon ex me disait Un jour, tu s'ras traité comme tu m'traites Aujourd'hui, j'ai tout compris d'une traite J'suis un re-noi, laisse-moi geindre comme les miens Elle s'en fout d'ma vie alors qu'on devait se joindre comme les mains Une main lave l'autre, une main lave l'autre Une main lave l'autre Je suis celui dont la famille a très honte J'existe à travers une mine de crayon, mène une vie d'mécréant Le daron pense qu'il n'aurait pas dû venir ici Fils est né lyriciste, menteur, voleur, consommateur d'illicite Ma vie est flinguée, c'est moi le tireur, quelle honte J'ai des p'tits reufs, faut que j'm'écarte du mauvais chemin et qu'Dieu les garde, ouais Qui est cet inconnu dans l'miroir d'la salle de bain ? Je sais qu'ce loser sera encore àl demain La vie, c'est un match, faut rentrer tous les shoots J'suis d'mauvaise humeur tous les jours L'impression qu'l'enfer est sous mes shoes J'rappe la gloire du matériel mais j'vise le paradis Est-c'que j'maximise mes chances quand tu assimiles mes chants ? Chaque jour, j'vais plus bas puis j'demande au loser Est-c'que t'as fini d'descendre ? J'ai un briquet, vas-y, vide l'essence J'perds mon temps à appliquer mon art et j'mène une vie d'ordure Seule la prière peut recycler mon âme Une main lave l'autre10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Alpha Wann</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Vortex</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>On parle aux filles, en analysant l'profil Kho vive les grosses, nique les trop fines Faut qu'j'méloigne et j'décompresse J'dois faire mes mailles, moi, j'prends pas l'blé qu'on m'prête J'ai pas peur de l'crier, j'aime le beurre, le billet J'ai un cur de pierre, dans les flammes j'ai peur de griller Depuis qu'on est pubères on n'est plus bêtes On veut ram'ner la plus belle dans le Uber On sait pas lire les apparences sous les visages On s'fait avoir par le maquillage et l'habillage de la biatch Alors qu'on cherche une femme, une matriarche Qui sait cuisiner les grillades et escalader les grillages Tu lui achètes du Hermès, elle te rend fort comme Hercule Rusé comme Mercure, elle te transforme en Madmax C'est ta Vénus rencontrée au mois d'Mars Deux étoiles qui se percutent, t'as vu une étoile filer Au final t'as fini dans ses filets, dans sa toile Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle J'répète Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle Elles veulent donner des cours de couple, on n'est pas très studieux Si elle te met des vents c'est qu'elle préfère les mecs plus vieux Nique la fête j'ai plus l'âge De faire des trucs bêtes, mais j'ai la tête dans les nuages On pense qu'à être stylés, han Textiles et textes inédits S'éxiler avec des sexy ladies, han Elle veut un anneau gros comme celui de Saturne Mais très vite elle sature, tu finis à l'hôpital psychiatrique Ouais, parc'que l'amour ça tue Et la haine ça laisse que des cicatrices, ouais Il est 7 heures t'es déjà mort, tu bois ton Ricard, ton Chivas T'es comme ce gars qui dort sous un carton Toshiba T'as plus rien, plus d'lien, tu t'rappelles des trucs bien Tu t'laves même plus, tu pues l'iench - Au fait tu l'as revu ton pote là de Barcelone ? - Ouais il est d'venu fou, sa meuf elle l'a quitté, il s'est rasé la moitié du crâne... Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle J'répète Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle L'amour est mort dans un film de cul Fils j'm'en fous qu'elle soit belle, méfie-toi d'elle On traite la meuf qu'on adule à la dure Alpha est au mic... Elles me prennent pas la tête, je suis pas leur mari Alpha est au mic... Puis ne haussent pas l'ton, je suis pas leur ami On traite la meuf qu'on adule à la dure L'amour est mort dans un film de cul On traite la meuf qu'on adule à la dure Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle J'répète Vortex spatio-temporel Je n'vois que la nuit et des relations temporaires J'avais la passion mais pas l'temps pour elle1</t>
         </is>
       </c>
     </row>
